--- a/12140127李锋-课堂注视焦点采集表格2.1.xlsx
+++ b/12140127李锋-课堂注视焦点采集表格2.1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我\03毕业论文\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我\graduationThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="594" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="594" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OOTIAS" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="177">
   <si>
     <t>3s</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1047,6 +1047,22 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">SPOOTIAS </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OOTIAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加技术编码大约耗时40m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对数据进行运算分析，大约耗时30m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1716,9 +1732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ54"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y15" sqref="Y15"/>
+    <sheetView topLeftCell="N1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X27" sqref="X27:X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2675,7 +2691,9 @@
         <v>6</v>
       </c>
       <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
+      <c r="W12" s="17" t="s">
+        <v>174</v>
+      </c>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
       <c r="Z12" s="17" t="s">
@@ -2754,9 +2772,15 @@
         <v>6</v>
       </c>
       <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
+      <c r="W13" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="X13" s="17">
+        <v>629</v>
+      </c>
+      <c r="Y13" s="25">
+        <v>0.89998999999999996</v>
+      </c>
       <c r="Z13" s="17" t="s">
         <v>116</v>
       </c>
@@ -2830,9 +2854,15 @@
         <v>6</v>
       </c>
       <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
+      <c r="W14" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="X14" s="17">
+        <v>42</v>
+      </c>
+      <c r="Y14" s="25">
+        <v>6.0100000000000001E-2</v>
+      </c>
       <c r="Z14" s="17" t="s">
         <v>107</v>
       </c>
@@ -3725,6 +3755,9 @@
       <c r="U26" s="21">
         <v>6</v>
       </c>
+      <c r="W26" s="17" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
@@ -3790,6 +3823,12 @@
       <c r="U27" s="21">
         <v>6</v>
       </c>
+      <c r="W27" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="X27" s="25">
+        <v>0.89998999999999996</v>
+      </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
@@ -3855,6 +3894,12 @@
       <c r="U28" s="21">
         <v>6</v>
       </c>
+      <c r="W28" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="X28" s="25">
+        <v>6.0100000000000001E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
@@ -3920,6 +3965,13 @@
       <c r="U29" s="21">
         <v>6</v>
       </c>
+      <c r="W29" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="X29" s="25">
+        <f>8/699</f>
+        <v>1.1444921316165951E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
@@ -3985,6 +4037,13 @@
       <c r="U30" s="21">
         <v>6</v>
       </c>
+      <c r="W30" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="X30" s="25">
+        <f>7/699</f>
+        <v>1.0014306151645207E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
@@ -4050,6 +4109,13 @@
       <c r="U31" s="21">
         <v>6</v>
       </c>
+      <c r="W31" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="X31" s="25">
+        <f>30/699</f>
+        <v>4.2918454935622317E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
@@ -4115,8 +4181,15 @@
       <c r="U32" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="W32" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="X32" s="25">
+        <f>23/699</f>
+        <v>3.2904148783977114E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -4180,8 +4253,15 @@
       <c r="U33" s="21">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="W33" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="X33" s="25">
+        <f>53/699</f>
+        <v>7.5822603719599424E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -4246,7 +4326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -4311,7 +4391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -4376,32 +4456,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -4409,7 +4489,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
       <c r="H43" t="s">
         <v>88</v>
       </c>
@@ -5148,10 +5228,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH93"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="X62" sqref="X62:X68"/>
+      <selection pane="bottomLeft" activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9840,6 +9920,9 @@
       </c>
     </row>
     <row r="86" spans="5:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E86" t="s">
+        <v>175</v>
+      </c>
       <c r="W86" s="26">
         <v>13</v>
       </c>
@@ -9856,6 +9939,9 @@
       </c>
     </row>
     <row r="88" spans="5:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="E88" t="s">
+        <v>176</v>
+      </c>
       <c r="W88" s="26">
         <v>15</v>
       </c>
@@ -14604,10 +14690,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH117"/>
+  <dimension ref="A1:AH122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD125" sqref="AD125"/>
+    <sheetView topLeftCell="J64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y61" sqref="Y61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14721,24 +14807,24 @@
       <c r="J3" t="s">
         <v>84</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="9">
         <v>4</v>
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
-      <c r="P3">
+      <c r="P3" s="9">
         <v>4</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="9">
         <v>4</v>
       </c>
       <c r="R3" s="16"/>
-      <c r="S3">
-        <v>6</v>
-      </c>
-      <c r="T3">
+      <c r="S3" s="9">
+        <v>6</v>
+      </c>
+      <c r="T3" s="9">
         <v>6</v>
       </c>
       <c r="U3" s="16"/>
@@ -14757,43 +14843,43 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="5">
+      <c r="I4" s="9">
         <v>4</v>
       </c>
-      <c r="J4" s="5">
-        <v>9</v>
-      </c>
-      <c r="K4" s="5">
-        <v>9</v>
-      </c>
-      <c r="L4" s="5">
-        <v>9</v>
-      </c>
-      <c r="M4" s="5">
-        <v>9</v>
-      </c>
-      <c r="N4" s="5">
-        <v>9</v>
-      </c>
-      <c r="O4" s="5">
-        <v>9</v>
-      </c>
-      <c r="P4" s="5">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>9</v>
-      </c>
-      <c r="R4" s="5">
-        <v>9</v>
-      </c>
-      <c r="S4" s="5">
-        <v>9</v>
-      </c>
-      <c r="T4" s="5">
+      <c r="J4" s="9">
+        <v>9</v>
+      </c>
+      <c r="K4" s="9">
+        <v>9</v>
+      </c>
+      <c r="L4" s="9">
+        <v>9</v>
+      </c>
+      <c r="M4" s="9">
+        <v>9</v>
+      </c>
+      <c r="N4" s="9">
+        <v>9</v>
+      </c>
+      <c r="O4" s="9">
+        <v>9</v>
+      </c>
+      <c r="P4" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>9</v>
+      </c>
+      <c r="R4" s="9">
+        <v>9</v>
+      </c>
+      <c r="S4" s="9">
+        <v>9</v>
+      </c>
+      <c r="T4" s="9">
         <v>13</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="9">
         <v>13</v>
       </c>
     </row>
@@ -14801,25 +14887,25 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="5">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="B5" s="4">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9</v>
+      </c>
+      <c r="D5" s="9">
         <v>18</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="9">
         <v>13</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="9">
         <v>18</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="9">
         <v>18</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="9">
         <v>18</v>
       </c>
       <c r="I5" s="5">
@@ -14852,42 +14938,45 @@
       <c r="R5" s="5">
         <v>6</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="4">
         <v>20</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="4">
         <v>7</v>
       </c>
-      <c r="U5" s="5">
-        <v>6</v>
+      <c r="U5" s="4">
+        <v>6</v>
+      </c>
+      <c r="W5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="B6" s="9">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9">
         <v>13</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="9">
         <v>13</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="9">
         <v>13</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="9">
         <v>13</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="9">
         <v>7</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="9">
         <v>6</v>
       </c>
       <c r="J6" s="5">
@@ -14920,12 +15009,16 @@
       <c r="S6" s="5">
         <v>6</v>
       </c>
-      <c r="T6" s="5">
-        <v>6</v>
-      </c>
-      <c r="U6" s="5">
-        <v>6</v>
-      </c>
+      <c r="T6" s="9">
+        <v>6</v>
+      </c>
+      <c r="U6" s="9">
+        <v>6</v>
+      </c>
+      <c r="W6" t="s">
+        <v>62</v>
+      </c>
+      <c r="X6" s="1"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -14934,63 +15027,67 @@
       <c r="B7" s="5">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5">
-        <v>6</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="C7" s="9">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7">
         <v>17</v>
       </c>
-      <c r="G7" s="5">
-        <v>6</v>
-      </c>
-      <c r="H7" s="5">
-        <v>6</v>
-      </c>
-      <c r="I7" s="5">
-        <v>6</v>
-      </c>
-      <c r="J7" s="5">
-        <v>10</v>
-      </c>
-      <c r="K7" s="5">
-        <v>6</v>
-      </c>
-      <c r="L7" s="5">
-        <v>6</v>
-      </c>
-      <c r="M7" s="5">
+      <c r="G7" s="7">
+        <v>6</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>6</v>
+      </c>
+      <c r="J7" s="7">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7">
+        <v>6</v>
+      </c>
+      <c r="L7" s="7">
+        <v>6</v>
+      </c>
+      <c r="M7" s="7">
         <v>11</v>
       </c>
-      <c r="N7" s="5">
-        <v>6</v>
-      </c>
-      <c r="O7" s="5">
+      <c r="N7" s="7">
+        <v>6</v>
+      </c>
+      <c r="O7" s="7">
         <v>11</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="7">
         <v>1</v>
       </c>
-      <c r="Q7" s="5">
-        <v>6</v>
-      </c>
-      <c r="R7" s="5">
-        <v>6</v>
-      </c>
-      <c r="S7" s="5">
-        <v>6</v>
-      </c>
-      <c r="T7" s="5">
-        <v>6</v>
-      </c>
-      <c r="U7" s="5">
+      <c r="Q7" s="7">
+        <v>6</v>
+      </c>
+      <c r="R7" s="7">
+        <v>6</v>
+      </c>
+      <c r="S7" s="7">
+        <v>6</v>
+      </c>
+      <c r="T7" s="7">
+        <v>6</v>
+      </c>
+      <c r="U7" s="7">
         <v>3</v>
       </c>
+      <c r="W7" t="s">
+        <v>70</v>
+      </c>
+      <c r="X7" s="8"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -15017,22 +15114,22 @@
       <c r="H8" s="5">
         <v>10</v>
       </c>
-      <c r="I8" s="5">
-        <v>10</v>
-      </c>
-      <c r="J8" s="5">
-        <v>10</v>
-      </c>
-      <c r="K8" s="5">
-        <v>10</v>
-      </c>
-      <c r="L8" s="5">
-        <v>10</v>
-      </c>
-      <c r="M8" s="5">
-        <v>10</v>
-      </c>
-      <c r="N8" s="5">
+      <c r="I8" s="7">
+        <v>10</v>
+      </c>
+      <c r="J8" s="7">
+        <v>10</v>
+      </c>
+      <c r="K8" s="7">
+        <v>10</v>
+      </c>
+      <c r="L8" s="7">
+        <v>10</v>
+      </c>
+      <c r="M8" s="7">
+        <v>10</v>
+      </c>
+      <c r="N8" s="7">
         <v>2</v>
       </c>
       <c r="O8" s="5">
@@ -15056,6 +15153,10 @@
       <c r="U8">
         <v>3</v>
       </c>
+      <c r="W8" t="s">
+        <v>63</v>
+      </c>
+      <c r="X8" s="4"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -15100,27 +15201,31 @@
       <c r="N9">
         <v>6</v>
       </c>
-      <c r="O9">
-        <v>6</v>
-      </c>
-      <c r="P9">
-        <v>6</v>
-      </c>
-      <c r="Q9">
-        <v>6</v>
-      </c>
-      <c r="R9">
+      <c r="O9" s="4">
+        <v>6</v>
+      </c>
+      <c r="P9" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>6</v>
+      </c>
+      <c r="R9" s="3">
         <v>3</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="3">
         <v>4</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="3">
         <v>4</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="3">
         <v>4</v>
       </c>
+      <c r="W9" t="s">
+        <v>64</v>
+      </c>
+      <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -15316,6 +15421,9 @@
       <c r="U12">
         <v>6</v>
       </c>
+      <c r="W12" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
@@ -15381,6 +15489,10 @@
       <c r="U13">
         <v>6</v>
       </c>
+      <c r="W13" t="s">
+        <v>65</v>
+      </c>
+      <c r="X13" s="7"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
@@ -15446,6 +15558,10 @@
       <c r="U14" s="5">
         <v>6</v>
       </c>
+      <c r="W14" t="s">
+        <v>66</v>
+      </c>
+      <c r="X14" s="9"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
@@ -15511,6 +15627,10 @@
       <c r="U15" s="5">
         <v>6</v>
       </c>
+      <c r="W15" t="s">
+        <v>67</v>
+      </c>
+      <c r="X15" s="14"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -15576,6 +15696,10 @@
       <c r="U16" s="5">
         <v>6</v>
       </c>
+      <c r="W16" t="s">
+        <v>68</v>
+      </c>
+      <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
@@ -15641,6 +15765,10 @@
       <c r="U17" s="5">
         <v>6</v>
       </c>
+      <c r="W17" t="s">
+        <v>69</v>
+      </c>
+      <c r="X17" s="15"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
@@ -16624,7 +16752,10 @@
         <v>6</v>
       </c>
       <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
+      <c r="X32" s="5">
+        <f>699-12</f>
+        <v>687</v>
+      </c>
       <c r="Y32" s="5"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.15">
@@ -17094,7 +17225,9 @@
       <c r="S42" s="16"/>
       <c r="T42" s="16"/>
       <c r="U42" s="16"/>
-      <c r="X42" s="17"/>
+      <c r="W42" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
@@ -17107,13 +17240,13 @@
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
-      <c r="I43" s="5">
+      <c r="I43" s="2">
         <v>12</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="2">
         <v>12</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="2">
         <v>7</v>
       </c>
       <c r="L43" s="5">
@@ -17146,12 +17279,16 @@
       <c r="U43" s="5">
         <v>4</v>
       </c>
+      <c r="W43" t="s">
+        <v>65</v>
+      </c>
+      <c r="X43" s="6"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="6">
         <v>11</v>
       </c>
       <c r="C44" s="5">
@@ -17202,72 +17339,76 @@
       <c r="R44" s="5">
         <v>9</v>
       </c>
-      <c r="S44" s="5">
+      <c r="S44" s="6">
         <v>7</v>
       </c>
-      <c r="T44" s="5">
+      <c r="T44" s="6">
         <v>7</v>
       </c>
-      <c r="U44" s="5">
+      <c r="U44" s="6">
         <v>7</v>
       </c>
+      <c r="W44" t="s">
+        <v>66</v>
+      </c>
+      <c r="X44" s="2"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>159</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="6">
         <v>8</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="6">
         <v>8</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="6">
         <v>8</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="6">
         <v>8</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="6">
         <v>8</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="2">
         <v>8</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="2">
         <v>8</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="2">
         <v>8</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="2">
         <v>8</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="2">
         <v>8</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="2">
         <v>8</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="2">
         <v>8</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N45" s="2">
         <v>8</v>
       </c>
-      <c r="O45" s="5">
-        <v>9</v>
-      </c>
-      <c r="P45" s="5">
-        <v>9</v>
-      </c>
-      <c r="Q45" s="5">
-        <v>9</v>
-      </c>
-      <c r="R45" s="5">
-        <v>9</v>
-      </c>
-      <c r="S45" s="5">
+      <c r="O45" s="2">
+        <v>9</v>
+      </c>
+      <c r="P45" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>9</v>
+      </c>
+      <c r="R45" s="6">
+        <v>9</v>
+      </c>
+      <c r="S45" s="6">
         <v>9</v>
       </c>
       <c r="T45" s="5">
@@ -17276,6 +17417,10 @@
       <c r="U45" s="5">
         <v>9</v>
       </c>
+      <c r="W45" t="s">
+        <v>67</v>
+      </c>
+      <c r="X45" s="12"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
@@ -17302,54 +17447,58 @@
       <c r="H46" s="5">
         <v>11</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="6">
         <v>11</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="6">
         <v>11</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="6">
         <v>11</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="6">
         <v>11</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="6">
         <v>11</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N46" s="6">
         <v>11</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O46" s="6">
         <v>11</v>
       </c>
-      <c r="P46" s="5">
+      <c r="P46" s="6">
         <v>11</v>
       </c>
-      <c r="Q46" s="5">
+      <c r="Q46" s="6">
         <v>11</v>
       </c>
-      <c r="R46" s="5">
+      <c r="R46" s="6">
         <v>11</v>
       </c>
-      <c r="S46" s="5">
+      <c r="S46" s="6">
         <v>11</v>
       </c>
-      <c r="T46" s="5">
+      <c r="T46" s="6">
         <v>11</v>
       </c>
-      <c r="U46" s="5">
+      <c r="U46" s="6">
         <v>11</v>
       </c>
+      <c r="W46" t="s">
+        <v>68</v>
+      </c>
+      <c r="X46" s="11"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>161</v>
       </c>
-      <c r="B47" s="5">
-        <v>9</v>
-      </c>
-      <c r="C47" s="5">
+      <c r="B47" s="6">
+        <v>9</v>
+      </c>
+      <c r="C47" s="6">
         <v>9</v>
       </c>
       <c r="D47" s="5">
@@ -17370,22 +17519,22 @@
       <c r="I47" s="5">
         <v>7</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="6">
         <v>7</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="6">
         <v>7</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="6">
         <v>7</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="6">
         <v>7</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N47" s="6">
         <v>7</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O47" s="6">
         <v>7</v>
       </c>
       <c r="P47" s="5">
@@ -17406,6 +17555,10 @@
       <c r="U47" s="5">
         <v>9</v>
       </c>
+      <c r="W47" t="s">
+        <v>69</v>
+      </c>
+      <c r="X47" s="13"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
@@ -17453,63 +17606,63 @@
       <c r="O48">
         <v>9</v>
       </c>
-      <c r="P48">
-        <v>9</v>
-      </c>
-      <c r="Q48">
+      <c r="P48" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q48" s="6">
         <v>7</v>
       </c>
-      <c r="R48">
+      <c r="R48" s="5">
         <v>7</v>
       </c>
-      <c r="S48">
+      <c r="S48" s="6">
         <v>11</v>
       </c>
-      <c r="T48">
+      <c r="T48" s="6">
         <v>11</v>
       </c>
-      <c r="U48">
+      <c r="U48" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>163</v>
       </c>
-      <c r="B49">
-        <v>9</v>
-      </c>
-      <c r="C49">
-        <v>9</v>
-      </c>
-      <c r="D49">
-        <v>9</v>
-      </c>
-      <c r="E49">
-        <v>9</v>
-      </c>
-      <c r="F49">
-        <v>9</v>
-      </c>
-      <c r="G49">
-        <v>9</v>
-      </c>
-      <c r="H49">
-        <v>9</v>
-      </c>
-      <c r="I49">
-        <v>9</v>
-      </c>
-      <c r="J49">
-        <v>9</v>
-      </c>
-      <c r="K49">
-        <v>9</v>
-      </c>
-      <c r="L49">
-        <v>9</v>
-      </c>
-      <c r="M49">
+      <c r="B49" s="6">
+        <v>9</v>
+      </c>
+      <c r="C49" s="6">
+        <v>9</v>
+      </c>
+      <c r="D49" s="6">
+        <v>9</v>
+      </c>
+      <c r="E49" s="6">
+        <v>9</v>
+      </c>
+      <c r="F49" s="6">
+        <v>9</v>
+      </c>
+      <c r="G49" s="6">
+        <v>9</v>
+      </c>
+      <c r="H49" s="6">
+        <v>9</v>
+      </c>
+      <c r="I49" s="6">
+        <v>9</v>
+      </c>
+      <c r="J49" s="6">
+        <v>9</v>
+      </c>
+      <c r="K49" s="6">
+        <v>9</v>
+      </c>
+      <c r="L49" s="6">
+        <v>9</v>
+      </c>
+      <c r="M49" s="6">
         <v>9</v>
       </c>
       <c r="N49">
@@ -17537,7 +17690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>164</v>
       </c>
@@ -17602,7 +17755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -17667,7 +17820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -17732,7 +17885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -17797,7 +17950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -17862,7 +18015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -17927,7 +18080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>35</v>
       </c>
@@ -17992,7 +18145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -18057,7 +18210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -18122,7 +18275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -18187,7 +18340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -18251,8 +18404,12 @@
       <c r="U60">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="X60">
+        <f>699-17</f>
+        <v>682</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -18317,7 +18474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>41</v>
       </c>
@@ -18382,7 +18539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -18447,7 +18604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -18771,6 +18928,9 @@
       <c r="U68">
         <v>10</v>
       </c>
+      <c r="X68" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
@@ -18840,8 +19000,8 @@
         <v>123</v>
       </c>
       <c r="Y69" s="25">
-        <f>SUM(Y78:Y85)/699</f>
-        <v>0.87553648068669532</v>
+        <f>SUM(Y78:Y85)/687</f>
+        <v>0.89082969432314407</v>
       </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.15">
@@ -18912,8 +19072,8 @@
         <v>122</v>
       </c>
       <c r="Y70" s="25">
-        <f>SUM(Y87:Y91,Y102:Y106)/699</f>
-        <v>6.5808297567954227E-2</v>
+        <f>SUM(Y87:Y91,Y102:Y106)/687</f>
+        <v>6.6957787481804948E-2</v>
       </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.15">
@@ -18984,8 +19144,8 @@
         <v>121</v>
       </c>
       <c r="Y71" s="25">
-        <f>SUM(Y86,Y92:Y97)/699</f>
-        <v>5.5793991416309016E-2</v>
+        <f>SUM(Y86,Y92:Y97)/687</f>
+        <v>5.6768558951965066E-2</v>
       </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.15">
@@ -19056,8 +19216,8 @@
         <v>98</v>
       </c>
       <c r="Y72" s="25">
-        <f>SUM(Y94,Y109)/699</f>
-        <v>2.4320457796852647E-2</v>
+        <f>SUM(Y94,Y109)/687</f>
+        <v>2.4745269286754003E-2</v>
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.15">
@@ -19127,7 +19287,10 @@
       <c r="X73" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="Y73" s="25"/>
+      <c r="Y73" s="25">
+        <f>12/687</f>
+        <v>1.7467248908296942E-2</v>
+      </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
@@ -19196,7 +19359,10 @@
       <c r="X74" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="Y74" s="25"/>
+      <c r="Y74" s="25">
+        <f>63/682</f>
+        <v>9.2375366568914957E-2</v>
+      </c>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
@@ -19265,7 +19431,10 @@
       <c r="X75" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="Y75" s="25"/>
+      <c r="Y75" s="25">
+        <f>SUM(Y73:Y74)</f>
+        <v>0.1098426154772119</v>
+      </c>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
@@ -19370,6 +19539,9 @@
         <f>COUNTIF(B3:U37,1)</f>
         <v>3</v>
       </c>
+      <c r="AD78">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:34" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W79" s="32">
@@ -19382,6 +19554,9 @@
         <f>COUNTIF(B3:U37,2)</f>
         <v>1</v>
       </c>
+      <c r="AD79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:34" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W80" s="32">
@@ -19394,8 +19569,14 @@
         <f>COUNTIF(B3:U37,3)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="23:25" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="AC80">
+        <v>1</v>
+      </c>
+      <c r="AD80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W81" s="32">
         <v>4</v>
       </c>
@@ -19406,8 +19587,14 @@
         <f>COUNTIF(B3:U37,4)</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="82" spans="23:25" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="AC81">
+        <v>3</v>
+      </c>
+      <c r="AE81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W82" s="32">
         <v>5</v>
       </c>
@@ -19419,7 +19606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="23:25" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W83" s="32">
         <v>6</v>
       </c>
@@ -19430,8 +19617,20 @@
         <f>COUNTIF(B3:U37,6)</f>
         <v>576</v>
       </c>
-    </row>
-    <row r="84" spans="23:25" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="AB83">
+        <v>2</v>
+      </c>
+      <c r="AC83">
+        <v>2</v>
+      </c>
+      <c r="AD83">
+        <v>12</v>
+      </c>
+      <c r="AE83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W84" s="32">
         <v>7</v>
       </c>
@@ -19442,8 +19641,14 @@
         <f>COUNTIF(B3:U37,7)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="23:25" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="AB84">
+        <v>1</v>
+      </c>
+      <c r="AE84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W85" s="32">
         <v>8</v>
       </c>
@@ -19455,7 +19660,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="23:25" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R86" s="5"/>
       <c r="W86" s="34">
         <v>9</v>
       </c>
@@ -19466,8 +19672,16 @@
         <f>COUNTIF(B3:U37,9)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="87" spans="23:25" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="AB86">
+        <v>2</v>
+      </c>
+      <c r="AE86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
       <c r="W87" s="30">
         <v>10</v>
       </c>
@@ -19478,8 +19692,11 @@
         <f>COUNTIF(B3:U37,10)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="88" spans="23:25" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="AD87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W88" s="32">
         <v>11</v>
       </c>
@@ -19490,8 +19707,11 @@
         <f>COUNTIF(B3:U37,11)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="23:25" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="AD88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W89" s="32">
         <v>12</v>
       </c>
@@ -19503,7 +19723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="23:25" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W90" s="32">
         <v>13</v>
       </c>
@@ -19514,8 +19734,11 @@
         <f>COUNTIF(B3:U37,13)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="23:25" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="AE90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W91" s="32">
         <v>14</v>
       </c>
@@ -19527,7 +19750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="23:25" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W92" s="32">
         <v>15</v>
       </c>
@@ -19539,7 +19762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="23:25" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W93" s="32">
         <v>16</v>
       </c>
@@ -19551,7 +19774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="23:25" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W94" s="32">
         <v>17</v>
       </c>
@@ -19562,8 +19785,11 @@
         <f>COUNTIF(B3:U37,17)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="23:25" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="AD94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W95" s="32">
         <v>18</v>
       </c>
@@ -19574,8 +19800,11 @@
         <f>COUNTIF(B3:U37,18)</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="96" spans="23:25" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="AE95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W96" s="34">
         <v>19</v>
       </c>
@@ -19597,6 +19826,9 @@
       <c r="Y97">
         <f>COUNTIF(B3:U37,20)</f>
         <v>3</v>
+      </c>
+      <c r="AB97">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="23:30" x14ac:dyDescent="0.15">
@@ -19709,6 +19941,12 @@
         <f>COUNTIF(B42:U76,7)</f>
         <v>29</v>
       </c>
+      <c r="Z108">
+        <v>10</v>
+      </c>
+      <c r="AA108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W109" s="41">
@@ -19721,6 +19959,12 @@
         <f>COUNTIF(B42:U76,8)</f>
         <v>16</v>
       </c>
+      <c r="Z109">
+        <v>5</v>
+      </c>
+      <c r="AA109">
+        <v>8</v>
+      </c>
     </row>
     <row r="110" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W110" s="41">
@@ -19733,6 +19977,12 @@
         <f>COUNTIF(B42:U76,9)</f>
         <v>546</v>
       </c>
+      <c r="Z110">
+        <v>19</v>
+      </c>
+      <c r="AA110">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W111" s="42">
@@ -19757,8 +20007,11 @@
         <f>COUNTIF(B42:U76,11)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="113" spans="23:25" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="Z112">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="23:27" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W113" s="41">
         <v>12</v>
       </c>
@@ -19769,8 +20022,11 @@
         <f>COUNTIF(B42:U76,12)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="23:25" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="AA113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="23:27" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W114" s="41">
         <v>13</v>
       </c>
@@ -19782,7 +20038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="23:25" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="23:27" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W115" s="41">
         <v>14</v>
       </c>
@@ -19794,7 +20050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="23:25" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="23:27" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W116" s="42">
         <v>15</v>
       </c>
@@ -19806,10 +20062,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="23:25" x14ac:dyDescent="0.15">
+    <row r="117" spans="23:27" x14ac:dyDescent="0.15">
       <c r="Y117">
         <f>SUM(Y102:Y116)</f>
         <v>682</v>
+      </c>
+    </row>
+    <row r="122" spans="23:27" x14ac:dyDescent="0.15">
+      <c r="Z122">
+        <f>58+27+19+17</f>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/12140127李锋-课堂注视焦点采集表格2.1.xlsx
+++ b/12140127李锋-课堂注视焦点采集表格2.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="594" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="594"/>
   </bookViews>
   <sheets>
     <sheet name="OOTIAS" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="179">
   <si>
     <t>3s</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1063,6 +1063,14 @@
     <t>对数据进行运算分析，大约耗时30m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>学生本人维度编码变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要行为（次数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1218,7 +1226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1314,13 +1322,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1448,6 +1485,75 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1730,19 +1836,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ54"/>
+  <dimension ref="A1:AJ55"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X27" sqref="X27:X33"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="23" max="23" width="17" customWidth="1"/>
     <col min="24" max="24" width="10.75" customWidth="1"/>
-    <col min="25" max="25" width="11.5" customWidth="1"/>
+    <col min="25" max="25" width="18.375" customWidth="1"/>
     <col min="26" max="26" width="19.375" customWidth="1"/>
+    <col min="27" max="27" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.15">
@@ -4189,7 +4296,7 @@
         <v>3.2904148783977114E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -4261,7 +4368,7 @@
         <v>7.5822603719599424E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -4326,7 +4433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -4391,7 +4498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -4456,100 +4563,107 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y39" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB39" s="27"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y40" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z40" s="43"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y41" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z41" s="45"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>61</v>
       </c>
       <c r="H42" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y42" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z42" s="47"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
       <c r="H43" t="s">
         <v>88</v>
       </c>
       <c r="K43" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C49" t="s">
-        <v>118</v>
-      </c>
-      <c r="F49" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C50" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="1"/>
-      <c r="F50" t="s">
+      <c r="Y43" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z43" s="49"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Y44" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C51" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="8"/>
-      <c r="F51" t="s">
+      <c r="Z44" s="44"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Y45" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="F52" t="s">
+      <c r="Z45" s="46"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Y46" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C53" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="F53" t="s">
+      <c r="Z46" s="48"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Y47" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="F54" t="s">
+      <c r="Z47" s="50"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Y48" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G54" s="13"/>
+      <c r="Z48" s="51"/>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5228,8 +5342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="J87" sqref="J87"/>
     </sheetView>
@@ -14692,12 +14806,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH122"/>
   <sheetViews>
-    <sheetView topLeftCell="J64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y61" sqref="Y61"/>
+    <sheetView topLeftCell="J97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF101" sqref="AF101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="23" max="23" width="6.375" customWidth="1"/>
     <col min="24" max="24" width="18.875" customWidth="1"/>
     <col min="25" max="25" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -19838,34 +19953,45 @@
       </c>
     </row>
     <row r="101" spans="23:30" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="Z101" s="28" t="s">
+      <c r="W101" s="53"/>
+      <c r="X101" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y101" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z101" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="AA101" s="28" t="s">
+      <c r="AA101" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="AB101" s="28" t="s">
+      <c r="AB101" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="AC101" s="28" t="s">
+      <c r="AC101" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="AD101" s="28" t="s">
+      <c r="AD101" s="55" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="102" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="W102" s="40">
+      <c r="W102" s="41">
         <v>1</v>
       </c>
-      <c r="X102" s="31" t="s">
+      <c r="X102" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="Y102">
+      <c r="Y102" s="57">
         <f>COUNTIF(B42:U76,1)</f>
         <v>0</v>
       </c>
-      <c r="Z102" s="29"/>
+      <c r="Z102" s="58"/>
+      <c r="AA102" s="59"/>
+      <c r="AB102" s="59"/>
+      <c r="AC102" s="59"/>
+      <c r="AD102" s="60"/>
     </row>
     <row r="103" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W103" s="41">
@@ -19874,11 +20000,15 @@
       <c r="X103" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="Y103">
+      <c r="Y103" s="61">
         <f>COUNTIF(B42:U76,2)</f>
         <v>0</v>
       </c>
       <c r="Z103" s="29"/>
+      <c r="AA103" s="27"/>
+      <c r="AB103" s="27"/>
+      <c r="AC103" s="27"/>
+      <c r="AD103" s="62"/>
     </row>
     <row r="104" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W104" s="41">
@@ -19887,11 +20017,15 @@
       <c r="X104" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="Y104">
+      <c r="Y104" s="61">
         <f>COUNTIF(B42:U76,3)</f>
         <v>1</v>
       </c>
       <c r="Z104" s="29"/>
+      <c r="AA104" s="27"/>
+      <c r="AB104" s="27"/>
+      <c r="AC104" s="27"/>
+      <c r="AD104" s="62"/>
     </row>
     <row r="105" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W105" s="41">
@@ -19900,11 +20034,15 @@
       <c r="X105" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="Y105">
+      <c r="Y105" s="61">
         <f>COUNTIF(B42:U76,4)</f>
         <v>7</v>
       </c>
       <c r="Z105" s="29"/>
+      <c r="AA105" s="27"/>
+      <c r="AB105" s="27"/>
+      <c r="AC105" s="27"/>
+      <c r="AD105" s="62"/>
     </row>
     <row r="106" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W106" s="41">
@@ -19913,10 +20051,15 @@
       <c r="X106" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="Y106">
+      <c r="Y106" s="61">
         <f>COUNTIF(B42:U76,5)</f>
         <v>3</v>
       </c>
+      <c r="Z106" s="27"/>
+      <c r="AA106" s="27"/>
+      <c r="AB106" s="27"/>
+      <c r="AC106" s="27"/>
+      <c r="AD106" s="62"/>
     </row>
     <row r="107" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W107" s="41">
@@ -19925,10 +20068,15 @@
       <c r="X107" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="Y107">
+      <c r="Y107" s="61">
         <f>COUNTIF(B42:U76,6)</f>
         <v>16</v>
       </c>
+      <c r="Z107" s="27"/>
+      <c r="AA107" s="27"/>
+      <c r="AB107" s="27"/>
+      <c r="AC107" s="27"/>
+      <c r="AD107" s="62"/>
     </row>
     <row r="108" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W108" s="41">
@@ -19937,16 +20085,19 @@
       <c r="X108" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="Y108">
+      <c r="Y108" s="61">
         <f>COUNTIF(B42:U76,7)</f>
         <v>29</v>
       </c>
-      <c r="Z108">
-        <v>10</v>
-      </c>
-      <c r="AA108">
+      <c r="Z108" s="27">
+        <v>10</v>
+      </c>
+      <c r="AA108" s="27">
         <v>1</v>
       </c>
+      <c r="AB108" s="27"/>
+      <c r="AC108" s="27"/>
+      <c r="AD108" s="62"/>
     </row>
     <row r="109" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W109" s="41">
@@ -19955,16 +20106,19 @@
       <c r="X109" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="Y109">
+      <c r="Y109" s="61">
         <f>COUNTIF(B42:U76,8)</f>
         <v>16</v>
       </c>
-      <c r="Z109">
+      <c r="Z109" s="27">
         <v>5</v>
       </c>
-      <c r="AA109">
+      <c r="AA109" s="27">
         <v>8</v>
       </c>
+      <c r="AB109" s="27"/>
+      <c r="AC109" s="27"/>
+      <c r="AD109" s="62"/>
     </row>
     <row r="110" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W110" s="41">
@@ -19973,16 +20127,19 @@
       <c r="X110" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="Y110">
+      <c r="Y110" s="61">
         <f>COUNTIF(B42:U76,9)</f>
         <v>546</v>
       </c>
-      <c r="Z110">
+      <c r="Z110" s="27">
         <v>19</v>
       </c>
-      <c r="AA110">
+      <c r="AA110" s="27">
         <v>1</v>
       </c>
+      <c r="AB110" s="27"/>
+      <c r="AC110" s="27"/>
+      <c r="AD110" s="62"/>
     </row>
     <row r="111" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W111" s="42">
@@ -19991,10 +20148,15 @@
       <c r="X111" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="Y111">
+      <c r="Y111" s="61">
         <f>COUNTIF(B42:U76,10)</f>
         <v>43</v>
       </c>
+      <c r="Z111" s="27"/>
+      <c r="AA111" s="27"/>
+      <c r="AB111" s="27"/>
+      <c r="AC111" s="27"/>
+      <c r="AD111" s="62"/>
     </row>
     <row r="112" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W112" s="40">
@@ -20003,72 +20165,95 @@
       <c r="X112" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="Y112">
+      <c r="Y112" s="61">
         <f>COUNTIF(B42:U76,11)</f>
         <v>19</v>
       </c>
-      <c r="Z112">
+      <c r="Z112" s="27">
         <v>17</v>
       </c>
-    </row>
-    <row r="113" spans="23:27" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="AA112" s="27"/>
+      <c r="AB112" s="27"/>
+      <c r="AC112" s="27"/>
+      <c r="AD112" s="62"/>
+    </row>
+    <row r="113" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W113" s="41">
         <v>12</v>
       </c>
       <c r="X113" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="Y113">
+      <c r="Y113" s="61">
         <f>COUNTIF(B42:U76,12)</f>
         <v>2</v>
       </c>
-      <c r="AA113">
+      <c r="Z113" s="27"/>
+      <c r="AA113" s="27">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="23:27" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="AB113" s="27"/>
+      <c r="AC113" s="27"/>
+      <c r="AD113" s="62"/>
+    </row>
+    <row r="114" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W114" s="41">
         <v>13</v>
       </c>
       <c r="X114" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="Y114">
+      <c r="Y114" s="61">
         <f>COUNTIF(B42:U76,13)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="23:27" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="Z114" s="27"/>
+      <c r="AA114" s="27"/>
+      <c r="AB114" s="27"/>
+      <c r="AC114" s="27"/>
+      <c r="AD114" s="62"/>
+    </row>
+    <row r="115" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W115" s="41">
         <v>14</v>
       </c>
       <c r="X115" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="Y115">
+      <c r="Y115" s="61">
         <f>COUNTIF(B42:U76,14)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="23:27" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="Z115" s="27"/>
+      <c r="AA115" s="27"/>
+      <c r="AB115" s="27"/>
+      <c r="AC115" s="27"/>
+      <c r="AD115" s="62"/>
+    </row>
+    <row r="116" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
       <c r="W116" s="42">
         <v>15</v>
       </c>
       <c r="X116" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="Y116">
+      <c r="Y116" s="63">
         <f>COUNTIF(B42:U76,15)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="23:27" x14ac:dyDescent="0.15">
+      <c r="Z116" s="52"/>
+      <c r="AA116" s="52"/>
+      <c r="AB116" s="52"/>
+      <c r="AC116" s="52"/>
+      <c r="AD116" s="64"/>
+    </row>
+    <row r="117" spans="23:30" x14ac:dyDescent="0.15">
       <c r="Y117">
         <f>SUM(Y102:Y116)</f>
         <v>682</v>
       </c>
     </row>
-    <row r="122" spans="23:27" x14ac:dyDescent="0.15">
+    <row r="122" spans="23:30" x14ac:dyDescent="0.15">
       <c r="Z122">
         <f>58+27+19+17</f>
         <v>121</v>

--- a/12140127李锋-课堂注视焦点采集表格2.1.xlsx
+++ b/12140127李锋-课堂注视焦点采集表格2.1.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="594"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="594" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OOTIAS" sheetId="1" r:id="rId1"/>
-    <sheet name="SPOOTIAS一维（弃之）" sheetId="2" r:id="rId2"/>
-    <sheet name="SPOOTIAS二维" sheetId="3" r:id="rId3"/>
-    <sheet name="SPOOTIAS二维+教师期望" sheetId="5" r:id="rId4"/>
-    <sheet name="SPOOTIAS二维（分析表格）" sheetId="7" r:id="rId5"/>
+    <sheet name="OOTIAS (2)" sheetId="8" r:id="rId2"/>
+    <sheet name="SPOOTIAS一维（弃之）" sheetId="2" r:id="rId3"/>
+    <sheet name="SPOOTIAS二维" sheetId="3" r:id="rId4"/>
+    <sheet name="SPOOTIAS二维+教师期望" sheetId="5" r:id="rId5"/>
+    <sheet name="SPOOTIAS二维（分析表格）" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="184">
   <si>
     <t>3s</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1071,6 +1072,26 @@
     <t>主要行为（次数）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>使用OOTIAS用旁观者视角分析课堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用OOTIAS用参与者视角分析课堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前10分钟编码耗时40分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁观者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1079,7 +1100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1114,6 +1135,15 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="19">
@@ -1357,7 +1387,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1555,6 +1585,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1836,11 +1878,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ55"/>
+  <dimension ref="A1:AJ83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S39" sqref="S39"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4563,19 +4605,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>57</v>
-      </c>
-    </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>58</v>
+      <c r="B39" s="66" t="s">
+        <v>179</v>
       </c>
       <c r="Y39" s="27" t="s">
         <v>118</v>
@@ -4587,8 +4619,8 @@
       <c r="AB39" s="27"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>59</v>
+      <c r="B40" s="66" t="s">
+        <v>180</v>
       </c>
       <c r="Y40" s="27" t="s">
         <v>62</v>
@@ -4596,18 +4628,12 @@
       <c r="Z40" s="43"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>60</v>
-      </c>
       <c r="Y41" s="27" t="s">
         <v>70</v>
       </c>
       <c r="Z41" s="45"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>61</v>
-      </c>
       <c r="H42" t="s">
         <v>90</v>
       </c>
@@ -4653,17 +4679,2348 @@
       <c r="Z47" s="50"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" t="s">
+        <v>10</v>
+      </c>
+      <c r="M48" t="s">
+        <v>11</v>
+      </c>
+      <c r="N48" t="s">
+        <v>12</v>
+      </c>
+      <c r="O48" t="s">
+        <v>13</v>
+      </c>
+      <c r="P48" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>15</v>
+      </c>
+      <c r="R48" t="s">
+        <v>16</v>
+      </c>
+      <c r="S48" t="s">
+        <v>17</v>
+      </c>
+      <c r="T48" t="s">
+        <v>18</v>
+      </c>
+      <c r="U48" t="s">
+        <v>19</v>
+      </c>
       <c r="Y48" s="27" t="s">
         <v>69</v>
       </c>
       <c r="Z48" s="51"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="17">
+        <v>6</v>
+      </c>
+      <c r="C49" s="17">
+        <v>6</v>
+      </c>
+      <c r="D49" s="17">
+        <v>7</v>
+      </c>
+      <c r="E49" s="17">
+        <v>4</v>
+      </c>
+      <c r="F49" s="17">
+        <v>7</v>
+      </c>
+      <c r="G49" s="17">
+        <v>6</v>
+      </c>
+      <c r="H49" s="17">
+        <v>4</v>
+      </c>
+      <c r="I49" s="17">
+        <v>6</v>
+      </c>
+      <c r="J49" s="17">
+        <v>4</v>
+      </c>
+      <c r="K49" s="17">
+        <v>4</v>
+      </c>
+      <c r="L49" s="17">
+        <v>14</v>
+      </c>
+      <c r="M49" s="17">
+        <v>14</v>
+      </c>
+      <c r="N49" s="17">
+        <v>14</v>
+      </c>
+      <c r="O49" s="17">
+        <v>14</v>
+      </c>
+      <c r="P49" s="17">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="17">
+        <v>14</v>
+      </c>
+      <c r="R49" s="17">
+        <v>4</v>
+      </c>
+      <c r="S49" s="17">
+        <v>6</v>
+      </c>
+      <c r="T49" s="17">
+        <v>6</v>
+      </c>
+      <c r="U49" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="18">
+        <v>6</v>
+      </c>
+      <c r="C50" s="19">
+        <v>15</v>
+      </c>
+      <c r="D50" s="19">
+        <v>15</v>
+      </c>
+      <c r="E50" s="19">
+        <v>15</v>
+      </c>
+      <c r="F50" s="19">
+        <v>15</v>
+      </c>
+      <c r="G50" s="19">
+        <v>15</v>
+      </c>
+      <c r="H50" s="19">
+        <v>15</v>
+      </c>
+      <c r="I50" s="20">
+        <v>5</v>
+      </c>
+      <c r="J50" s="19">
+        <v>12</v>
+      </c>
+      <c r="K50" s="19">
+        <v>12</v>
+      </c>
+      <c r="L50" s="19">
+        <v>12</v>
+      </c>
+      <c r="M50" s="19">
+        <v>12</v>
+      </c>
+      <c r="N50" s="19">
+        <v>12</v>
+      </c>
+      <c r="O50" s="19">
+        <v>12</v>
+      </c>
+      <c r="P50" s="19">
+        <v>12</v>
+      </c>
+      <c r="Q50" s="21">
+        <v>14</v>
+      </c>
+      <c r="R50" s="21">
+        <v>14</v>
+      </c>
+      <c r="S50" s="21">
+        <v>14</v>
+      </c>
+      <c r="T50" s="21">
+        <v>14</v>
+      </c>
+      <c r="U50" s="21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="19">
+        <v>12</v>
+      </c>
+      <c r="C51" s="19">
+        <v>12</v>
+      </c>
+      <c r="D51" s="20">
+        <v>1</v>
+      </c>
+      <c r="E51" s="20">
+        <v>3</v>
+      </c>
+      <c r="F51" s="20">
+        <v>4</v>
+      </c>
+      <c r="G51" s="19">
+        <v>12</v>
+      </c>
+      <c r="H51" s="19">
+        <v>12</v>
+      </c>
+      <c r="I51" s="19">
+        <v>12</v>
+      </c>
+      <c r="J51" s="19">
+        <v>12</v>
+      </c>
+      <c r="K51" s="19">
+        <v>12</v>
+      </c>
+      <c r="L51" s="19">
+        <v>12</v>
+      </c>
+      <c r="M51" s="19">
+        <v>12</v>
+      </c>
+      <c r="N51" s="21">
+        <v>8</v>
+      </c>
+      <c r="O51" s="19">
+        <v>12</v>
+      </c>
+      <c r="P51" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q51" s="20">
+        <v>6</v>
+      </c>
+      <c r="R51" s="20">
+        <v>6</v>
+      </c>
+      <c r="S51" s="20">
+        <v>2</v>
+      </c>
+      <c r="T51" s="20">
+        <v>2</v>
+      </c>
+      <c r="U51" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="17">
+        <v>4</v>
+      </c>
+      <c r="C52" s="17">
+        <v>14</v>
+      </c>
+      <c r="D52" s="17">
+        <v>13</v>
+      </c>
+      <c r="E52" s="17">
+        <v>13</v>
+      </c>
+      <c r="F52" s="17">
+        <v>13</v>
+      </c>
+      <c r="G52" s="17">
+        <v>6</v>
+      </c>
+      <c r="H52" s="17">
+        <v>6</v>
+      </c>
+      <c r="I52" s="17">
+        <v>6</v>
+      </c>
+      <c r="J52" s="17">
+        <v>6</v>
+      </c>
+      <c r="K52" s="17">
+        <v>6</v>
+      </c>
+      <c r="L52" s="17">
+        <v>4</v>
+      </c>
+      <c r="M52" s="17">
+        <v>10</v>
+      </c>
+      <c r="N52" s="21">
+        <v>10</v>
+      </c>
+      <c r="O52" s="21">
+        <v>1</v>
+      </c>
+      <c r="P52" s="21">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="21">
+        <v>6</v>
+      </c>
+      <c r="R52" s="21">
+        <v>6</v>
+      </c>
+      <c r="S52" s="21">
+        <v>6</v>
+      </c>
+      <c r="T52" s="21">
+        <v>6</v>
+      </c>
+      <c r="U52" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="17">
+        <v>6</v>
+      </c>
+      <c r="C53" s="17">
+        <v>6</v>
+      </c>
+      <c r="D53" s="17">
+        <v>1</v>
+      </c>
+      <c r="E53" s="17">
+        <v>6</v>
+      </c>
+      <c r="F53" s="17">
+        <v>18</v>
+      </c>
+      <c r="G53" s="17">
+        <v>6</v>
+      </c>
+      <c r="H53" s="20">
+        <v>3</v>
+      </c>
+      <c r="I53" s="20">
+        <v>8</v>
+      </c>
+      <c r="J53" s="17">
+        <v>3</v>
+      </c>
+      <c r="K53" s="20">
+        <v>10</v>
+      </c>
+      <c r="L53" s="20">
+        <v>6</v>
+      </c>
+      <c r="M53" s="20">
+        <v>6</v>
+      </c>
+      <c r="N53" s="20">
+        <v>6</v>
+      </c>
+      <c r="O53" s="20">
+        <v>6</v>
+      </c>
+      <c r="P53" s="20">
+        <v>6</v>
+      </c>
+      <c r="Q53" s="20">
+        <v>6</v>
+      </c>
+      <c r="R53" s="20">
+        <v>6</v>
+      </c>
+      <c r="S53" s="20">
+        <v>6</v>
+      </c>
+      <c r="T53" s="20">
+        <v>6</v>
+      </c>
+      <c r="U53" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="17">
+        <v>4</v>
+      </c>
+      <c r="C54" s="17">
+        <v>9</v>
+      </c>
+      <c r="D54" s="17">
+        <v>9</v>
+      </c>
+      <c r="E54" s="17">
+        <v>9</v>
+      </c>
+      <c r="F54" s="17">
+        <v>9</v>
+      </c>
+      <c r="G54" s="17">
+        <v>9</v>
+      </c>
+      <c r="H54" s="17">
+        <v>9</v>
+      </c>
+      <c r="I54" s="17">
+        <v>9</v>
+      </c>
+      <c r="J54" s="17">
+        <v>9</v>
+      </c>
+      <c r="K54" s="17">
+        <v>9</v>
+      </c>
+      <c r="L54" s="17">
+        <v>9</v>
+      </c>
+      <c r="M54" s="17">
+        <v>9</v>
+      </c>
+      <c r="N54" s="21">
+        <v>2</v>
+      </c>
+      <c r="O54" s="21">
+        <v>2</v>
+      </c>
+      <c r="P54" s="21">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="21">
+        <v>4</v>
+      </c>
+      <c r="R54" s="21">
+        <v>4</v>
+      </c>
+      <c r="S54" s="21">
+        <v>4</v>
+      </c>
+      <c r="T54" s="21">
+        <v>9</v>
+      </c>
+      <c r="U54" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="17">
+        <v>6</v>
+      </c>
+      <c r="C55" s="17">
+        <v>6</v>
+      </c>
+      <c r="D55" s="17">
+        <v>6</v>
+      </c>
+      <c r="E55" s="17">
+        <v>10</v>
+      </c>
+      <c r="F55" s="17">
+        <v>6</v>
+      </c>
+      <c r="G55" s="17">
+        <v>6</v>
+      </c>
+      <c r="H55" s="17">
+        <v>6</v>
+      </c>
+      <c r="I55" s="17">
+        <v>6</v>
+      </c>
+      <c r="J55" s="17">
+        <v>6</v>
+      </c>
+      <c r="K55" s="17">
+        <v>6</v>
+      </c>
+      <c r="L55" s="17">
+        <v>6</v>
+      </c>
+      <c r="M55" s="17">
+        <v>6</v>
+      </c>
+      <c r="N55" s="21">
+        <v>6</v>
+      </c>
+      <c r="O55" s="22">
+        <v>6</v>
+      </c>
+      <c r="P55" s="22">
+        <v>6</v>
+      </c>
+      <c r="Q55" s="22">
+        <v>6</v>
+      </c>
+      <c r="R55" s="22">
+        <v>6</v>
+      </c>
+      <c r="S55" s="18">
+        <v>6</v>
+      </c>
+      <c r="T55" s="18">
+        <v>6</v>
+      </c>
+      <c r="U55" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="17">
+        <v>9</v>
+      </c>
+      <c r="C56" s="17">
+        <v>4</v>
+      </c>
+      <c r="D56" s="17">
+        <v>10</v>
+      </c>
+      <c r="E56" s="17">
+        <v>10</v>
+      </c>
+      <c r="F56" s="17">
+        <v>10</v>
+      </c>
+      <c r="G56" s="17">
+        <v>10</v>
+      </c>
+      <c r="H56" s="17">
+        <v>10</v>
+      </c>
+      <c r="I56" s="17">
+        <v>10</v>
+      </c>
+      <c r="J56" s="17">
+        <v>10</v>
+      </c>
+      <c r="K56" s="17">
+        <v>10</v>
+      </c>
+      <c r="L56" s="17">
+        <v>4</v>
+      </c>
+      <c r="M56" s="17">
+        <v>6</v>
+      </c>
+      <c r="N56" s="21">
+        <v>6</v>
+      </c>
+      <c r="O56" s="21">
+        <v>6</v>
+      </c>
+      <c r="P56" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q56" s="21">
+        <v>6</v>
+      </c>
+      <c r="R56" s="17">
+        <v>2</v>
+      </c>
+      <c r="S56" s="17">
+        <v>6</v>
+      </c>
+      <c r="T56" s="17">
+        <v>6</v>
+      </c>
+      <c r="U56" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="17">
+        <v>6</v>
+      </c>
+      <c r="C57" s="17">
+        <v>6</v>
+      </c>
+      <c r="D57" s="17">
+        <v>6</v>
+      </c>
+      <c r="E57" s="17">
+        <v>6</v>
+      </c>
+      <c r="F57" s="17">
+        <v>6</v>
+      </c>
+      <c r="G57" s="17">
+        <v>6</v>
+      </c>
+      <c r="H57" s="17">
+        <v>6</v>
+      </c>
+      <c r="I57" s="17">
+        <v>6</v>
+      </c>
+      <c r="J57" s="21">
+        <v>6</v>
+      </c>
+      <c r="K57" s="17">
+        <v>6</v>
+      </c>
+      <c r="L57" s="17">
+        <v>6</v>
+      </c>
+      <c r="M57" s="17">
+        <v>6</v>
+      </c>
+      <c r="N57" s="17">
+        <v>6</v>
+      </c>
+      <c r="O57" s="17">
+        <v>6</v>
+      </c>
+      <c r="P57" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q57" s="17">
+        <v>6</v>
+      </c>
+      <c r="R57" s="17">
+        <v>6</v>
+      </c>
+      <c r="S57" s="21">
+        <v>6</v>
+      </c>
+      <c r="T57" s="21">
+        <v>6</v>
+      </c>
+      <c r="U57" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="17">
+        <v>6</v>
+      </c>
+      <c r="C58" s="17">
+        <v>6</v>
+      </c>
+      <c r="D58" s="17">
+        <v>6</v>
+      </c>
+      <c r="E58" s="17">
+        <v>6</v>
+      </c>
+      <c r="F58" s="17">
+        <v>14</v>
+      </c>
+      <c r="G58" s="17">
+        <v>1</v>
+      </c>
+      <c r="H58" s="17">
+        <v>6</v>
+      </c>
+      <c r="I58" s="17">
+        <v>6</v>
+      </c>
+      <c r="J58" s="21">
+        <v>6</v>
+      </c>
+      <c r="K58" s="21">
+        <v>6</v>
+      </c>
+      <c r="L58" s="21">
+        <v>6</v>
+      </c>
+      <c r="M58" s="21">
+        <v>6</v>
+      </c>
+      <c r="N58" s="17">
+        <v>6</v>
+      </c>
+      <c r="O58" s="17">
+        <v>6</v>
+      </c>
+      <c r="P58" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q58" s="17">
+        <v>6</v>
+      </c>
+      <c r="R58" s="17">
+        <v>6</v>
+      </c>
+      <c r="S58" s="21">
+        <v>6</v>
+      </c>
+      <c r="T58" s="21">
+        <v>6</v>
+      </c>
+      <c r="U58" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="17">
+        <v>6</v>
+      </c>
+      <c r="C59" s="17">
+        <v>6</v>
+      </c>
+      <c r="D59" s="21">
+        <v>6</v>
+      </c>
+      <c r="E59" s="21">
+        <v>6</v>
+      </c>
+      <c r="F59" s="21">
+        <v>6</v>
+      </c>
+      <c r="G59" s="21">
+        <v>6</v>
+      </c>
+      <c r="H59" s="17">
+        <v>6</v>
+      </c>
+      <c r="I59" s="17">
+        <v>6</v>
+      </c>
+      <c r="J59" s="17">
+        <v>6</v>
+      </c>
+      <c r="K59" s="17">
+        <v>6</v>
+      </c>
+      <c r="L59" s="17">
+        <v>6</v>
+      </c>
+      <c r="M59" s="21">
+        <v>6</v>
+      </c>
+      <c r="N59" s="21">
+        <v>6</v>
+      </c>
+      <c r="O59" s="21">
+        <v>6</v>
+      </c>
+      <c r="P59" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q59" s="17">
+        <v>6</v>
+      </c>
+      <c r="R59" s="17">
+        <v>6</v>
+      </c>
+      <c r="S59" s="17">
+        <v>6</v>
+      </c>
+      <c r="T59" s="17">
+        <v>6</v>
+      </c>
+      <c r="U59" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="17">
+        <v>6</v>
+      </c>
+      <c r="C60" s="17">
+        <v>6</v>
+      </c>
+      <c r="D60" s="21">
+        <v>6</v>
+      </c>
+      <c r="E60" s="21">
+        <v>6</v>
+      </c>
+      <c r="F60" s="21">
+        <v>6</v>
+      </c>
+      <c r="G60" s="21">
+        <v>6</v>
+      </c>
+      <c r="H60" s="17">
+        <v>6</v>
+      </c>
+      <c r="I60" s="17">
+        <v>6</v>
+      </c>
+      <c r="J60" s="17">
+        <v>6</v>
+      </c>
+      <c r="K60" s="17">
+        <v>6</v>
+      </c>
+      <c r="L60" s="17">
+        <v>6</v>
+      </c>
+      <c r="M60" s="21">
+        <v>6</v>
+      </c>
+      <c r="N60" s="21">
+        <v>6</v>
+      </c>
+      <c r="O60" s="21">
+        <v>6</v>
+      </c>
+      <c r="P60" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q60" s="17">
+        <v>6</v>
+      </c>
+      <c r="R60" s="17">
+        <v>6</v>
+      </c>
+      <c r="S60" s="17">
+        <v>6</v>
+      </c>
+      <c r="T60" s="17">
+        <v>6</v>
+      </c>
+      <c r="U60" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="17">
+        <v>6</v>
+      </c>
+      <c r="C61" s="17">
+        <v>6</v>
+      </c>
+      <c r="D61" s="21">
+        <v>6</v>
+      </c>
+      <c r="E61" s="21">
+        <v>6</v>
+      </c>
+      <c r="F61" s="21">
+        <v>6</v>
+      </c>
+      <c r="G61" s="21">
+        <v>6</v>
+      </c>
+      <c r="H61" s="17">
+        <v>6</v>
+      </c>
+      <c r="I61" s="17">
+        <v>6</v>
+      </c>
+      <c r="J61" s="17">
+        <v>6</v>
+      </c>
+      <c r="K61" s="17">
+        <v>6</v>
+      </c>
+      <c r="L61" s="17">
+        <v>6</v>
+      </c>
+      <c r="M61" s="21">
+        <v>6</v>
+      </c>
+      <c r="N61" s="21">
+        <v>6</v>
+      </c>
+      <c r="O61" s="21">
+        <v>6</v>
+      </c>
+      <c r="P61" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q61" s="17">
+        <v>6</v>
+      </c>
+      <c r="R61" s="17">
+        <v>6</v>
+      </c>
+      <c r="S61" s="17">
+        <v>6</v>
+      </c>
+      <c r="T61" s="17">
+        <v>6</v>
+      </c>
+      <c r="U61" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="17">
+        <v>6</v>
+      </c>
+      <c r="C62" s="17">
+        <v>6</v>
+      </c>
+      <c r="D62" s="21">
+        <v>6</v>
+      </c>
+      <c r="E62" s="21">
+        <v>6</v>
+      </c>
+      <c r="F62" s="21">
+        <v>6</v>
+      </c>
+      <c r="G62" s="21">
+        <v>6</v>
+      </c>
+      <c r="H62" s="17">
+        <v>6</v>
+      </c>
+      <c r="I62" s="17">
+        <v>6</v>
+      </c>
+      <c r="J62" s="17">
+        <v>6</v>
+      </c>
+      <c r="K62" s="17">
+        <v>6</v>
+      </c>
+      <c r="L62" s="17">
+        <v>6</v>
+      </c>
+      <c r="M62" s="21">
+        <v>6</v>
+      </c>
+      <c r="N62" s="21">
+        <v>6</v>
+      </c>
+      <c r="O62" s="21">
+        <v>6</v>
+      </c>
+      <c r="P62" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q62" s="17">
+        <v>6</v>
+      </c>
+      <c r="R62" s="17">
+        <v>6</v>
+      </c>
+      <c r="S62" s="17">
+        <v>6</v>
+      </c>
+      <c r="T62" s="17">
+        <v>6</v>
+      </c>
+      <c r="U62" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="17">
+        <v>6</v>
+      </c>
+      <c r="C63" s="17">
+        <v>6</v>
+      </c>
+      <c r="D63" s="21">
+        <v>6</v>
+      </c>
+      <c r="E63" s="21">
+        <v>6</v>
+      </c>
+      <c r="F63" s="21">
+        <v>6</v>
+      </c>
+      <c r="G63" s="21">
+        <v>6</v>
+      </c>
+      <c r="H63" s="17">
+        <v>6</v>
+      </c>
+      <c r="I63" s="17">
+        <v>6</v>
+      </c>
+      <c r="J63" s="17">
+        <v>6</v>
+      </c>
+      <c r="K63" s="17">
+        <v>6</v>
+      </c>
+      <c r="L63" s="17">
+        <v>6</v>
+      </c>
+      <c r="M63" s="21">
+        <v>6</v>
+      </c>
+      <c r="N63" s="21">
+        <v>6</v>
+      </c>
+      <c r="O63" s="21">
+        <v>6</v>
+      </c>
+      <c r="P63" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q63" s="17">
+        <v>6</v>
+      </c>
+      <c r="R63" s="17">
+        <v>6</v>
+      </c>
+      <c r="S63" s="17">
+        <v>6</v>
+      </c>
+      <c r="T63" s="17">
+        <v>6</v>
+      </c>
+      <c r="U63" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="17">
+        <v>6</v>
+      </c>
+      <c r="C64" s="17">
+        <v>6</v>
+      </c>
+      <c r="D64" s="21">
+        <v>6</v>
+      </c>
+      <c r="E64" s="21">
+        <v>6</v>
+      </c>
+      <c r="F64" s="21">
+        <v>6</v>
+      </c>
+      <c r="G64" s="21">
+        <v>6</v>
+      </c>
+      <c r="H64" s="17">
+        <v>6</v>
+      </c>
+      <c r="I64" s="17">
+        <v>6</v>
+      </c>
+      <c r="J64" s="17">
+        <v>6</v>
+      </c>
+      <c r="K64" s="17">
+        <v>6</v>
+      </c>
+      <c r="L64" s="17">
+        <v>6</v>
+      </c>
+      <c r="M64" s="21">
+        <v>6</v>
+      </c>
+      <c r="N64" s="21">
+        <v>6</v>
+      </c>
+      <c r="O64" s="21">
+        <v>6</v>
+      </c>
+      <c r="P64" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q64" s="17">
+        <v>6</v>
+      </c>
+      <c r="R64" s="17">
+        <v>6</v>
+      </c>
+      <c r="S64" s="17">
+        <v>6</v>
+      </c>
+      <c r="T64" s="17">
+        <v>6</v>
+      </c>
+      <c r="U64" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="17">
+        <v>6</v>
+      </c>
+      <c r="C65" s="17">
+        <v>6</v>
+      </c>
+      <c r="D65" s="21">
+        <v>6</v>
+      </c>
+      <c r="E65" s="21">
+        <v>6</v>
+      </c>
+      <c r="F65" s="21">
+        <v>6</v>
+      </c>
+      <c r="G65" s="21">
+        <v>6</v>
+      </c>
+      <c r="H65" s="17">
+        <v>6</v>
+      </c>
+      <c r="I65" s="17">
+        <v>6</v>
+      </c>
+      <c r="J65" s="17">
+        <v>6</v>
+      </c>
+      <c r="K65" s="17">
+        <v>6</v>
+      </c>
+      <c r="L65" s="17">
+        <v>6</v>
+      </c>
+      <c r="M65" s="21">
+        <v>6</v>
+      </c>
+      <c r="N65" s="21">
+        <v>6</v>
+      </c>
+      <c r="O65" s="21">
+        <v>6</v>
+      </c>
+      <c r="P65" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q65" s="17">
+        <v>6</v>
+      </c>
+      <c r="R65" s="17">
+        <v>6</v>
+      </c>
+      <c r="S65" s="17">
+        <v>6</v>
+      </c>
+      <c r="T65" s="17">
+        <v>6</v>
+      </c>
+      <c r="U65" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="17">
+        <v>6</v>
+      </c>
+      <c r="C66" s="17">
+        <v>6</v>
+      </c>
+      <c r="D66" s="21">
+        <v>6</v>
+      </c>
+      <c r="E66" s="21">
+        <v>6</v>
+      </c>
+      <c r="F66" s="21">
+        <v>6</v>
+      </c>
+      <c r="G66" s="21">
+        <v>6</v>
+      </c>
+      <c r="H66" s="17">
+        <v>6</v>
+      </c>
+      <c r="I66" s="17">
+        <v>6</v>
+      </c>
+      <c r="J66" s="17">
+        <v>6</v>
+      </c>
+      <c r="K66" s="17">
+        <v>6</v>
+      </c>
+      <c r="L66" s="17">
+        <v>6</v>
+      </c>
+      <c r="M66" s="21">
+        <v>6</v>
+      </c>
+      <c r="N66" s="21">
+        <v>6</v>
+      </c>
+      <c r="O66" s="21">
+        <v>6</v>
+      </c>
+      <c r="P66" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q66" s="17">
+        <v>6</v>
+      </c>
+      <c r="R66" s="17">
+        <v>6</v>
+      </c>
+      <c r="S66" s="17">
+        <v>6</v>
+      </c>
+      <c r="T66" s="17">
+        <v>6</v>
+      </c>
+      <c r="U66" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="17">
+        <v>6</v>
+      </c>
+      <c r="C67" s="17">
+        <v>6</v>
+      </c>
+      <c r="D67" s="21">
+        <v>6</v>
+      </c>
+      <c r="E67" s="21">
+        <v>6</v>
+      </c>
+      <c r="F67" s="21">
+        <v>6</v>
+      </c>
+      <c r="G67" s="21">
+        <v>6</v>
+      </c>
+      <c r="H67" s="17">
+        <v>6</v>
+      </c>
+      <c r="I67" s="17">
+        <v>6</v>
+      </c>
+      <c r="J67" s="17">
+        <v>6</v>
+      </c>
+      <c r="K67" s="17">
+        <v>6</v>
+      </c>
+      <c r="L67" s="17">
+        <v>6</v>
+      </c>
+      <c r="M67" s="21">
+        <v>6</v>
+      </c>
+      <c r="N67" s="21">
+        <v>6</v>
+      </c>
+      <c r="O67" s="21">
+        <v>6</v>
+      </c>
+      <c r="P67" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q67" s="17">
+        <v>6</v>
+      </c>
+      <c r="R67" s="17">
+        <v>6</v>
+      </c>
+      <c r="S67" s="17">
+        <v>6</v>
+      </c>
+      <c r="T67" s="17">
+        <v>6</v>
+      </c>
+      <c r="U67" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="17">
+        <v>6</v>
+      </c>
+      <c r="C68" s="17">
+        <v>6</v>
+      </c>
+      <c r="D68" s="21">
+        <v>6</v>
+      </c>
+      <c r="E68" s="21">
+        <v>6</v>
+      </c>
+      <c r="F68" s="21">
+        <v>6</v>
+      </c>
+      <c r="G68" s="21">
+        <v>6</v>
+      </c>
+      <c r="H68" s="17">
+        <v>6</v>
+      </c>
+      <c r="I68" s="17">
+        <v>6</v>
+      </c>
+      <c r="J68" s="17">
+        <v>6</v>
+      </c>
+      <c r="K68" s="17">
+        <v>6</v>
+      </c>
+      <c r="L68" s="17">
+        <v>6</v>
+      </c>
+      <c r="M68" s="21">
+        <v>6</v>
+      </c>
+      <c r="N68" s="21">
+        <v>6</v>
+      </c>
+      <c r="O68" s="21">
+        <v>6</v>
+      </c>
+      <c r="P68" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q68" s="17">
+        <v>6</v>
+      </c>
+      <c r="R68" s="17">
+        <v>6</v>
+      </c>
+      <c r="S68" s="17">
+        <v>6</v>
+      </c>
+      <c r="T68" s="17">
+        <v>6</v>
+      </c>
+      <c r="U68" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="17">
+        <v>6</v>
+      </c>
+      <c r="C69" s="17">
+        <v>6</v>
+      </c>
+      <c r="D69" s="21">
+        <v>6</v>
+      </c>
+      <c r="E69" s="21">
+        <v>6</v>
+      </c>
+      <c r="F69" s="21">
+        <v>6</v>
+      </c>
+      <c r="G69" s="21">
+        <v>6</v>
+      </c>
+      <c r="H69" s="17">
+        <v>6</v>
+      </c>
+      <c r="I69" s="17">
+        <v>6</v>
+      </c>
+      <c r="J69" s="17">
+        <v>6</v>
+      </c>
+      <c r="K69" s="17">
+        <v>6</v>
+      </c>
+      <c r="L69" s="17">
+        <v>6</v>
+      </c>
+      <c r="M69" s="21">
+        <v>6</v>
+      </c>
+      <c r="N69" s="21">
+        <v>6</v>
+      </c>
+      <c r="O69" s="21">
+        <v>6</v>
+      </c>
+      <c r="P69" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q69" s="17">
+        <v>6</v>
+      </c>
+      <c r="R69" s="17">
+        <v>6</v>
+      </c>
+      <c r="S69" s="17">
+        <v>6</v>
+      </c>
+      <c r="T69" s="17">
+        <v>6</v>
+      </c>
+      <c r="U69" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" s="17">
+        <v>6</v>
+      </c>
+      <c r="C70" s="17">
+        <v>6</v>
+      </c>
+      <c r="D70" s="21">
+        <v>6</v>
+      </c>
+      <c r="E70" s="21">
+        <v>6</v>
+      </c>
+      <c r="F70" s="21">
+        <v>6</v>
+      </c>
+      <c r="G70" s="21">
+        <v>6</v>
+      </c>
+      <c r="H70" s="17">
+        <v>6</v>
+      </c>
+      <c r="I70" s="17">
+        <v>6</v>
+      </c>
+      <c r="J70" s="17">
+        <v>6</v>
+      </c>
+      <c r="K70" s="17">
+        <v>6</v>
+      </c>
+      <c r="L70" s="17">
+        <v>6</v>
+      </c>
+      <c r="M70" s="21">
+        <v>6</v>
+      </c>
+      <c r="N70" s="21">
+        <v>6</v>
+      </c>
+      <c r="O70" s="21">
+        <v>6</v>
+      </c>
+      <c r="P70" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q70" s="17">
+        <v>6</v>
+      </c>
+      <c r="R70" s="17">
+        <v>6</v>
+      </c>
+      <c r="S70" s="17">
+        <v>6</v>
+      </c>
+      <c r="T70" s="17">
+        <v>6</v>
+      </c>
+      <c r="U70" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="17">
+        <v>6</v>
+      </c>
+      <c r="C71" s="17">
+        <v>6</v>
+      </c>
+      <c r="D71" s="21">
+        <v>6</v>
+      </c>
+      <c r="E71" s="21">
+        <v>6</v>
+      </c>
+      <c r="F71" s="21">
+        <v>6</v>
+      </c>
+      <c r="G71" s="21">
+        <v>6</v>
+      </c>
+      <c r="H71" s="17">
+        <v>6</v>
+      </c>
+      <c r="I71" s="17">
+        <v>6</v>
+      </c>
+      <c r="J71" s="17">
+        <v>6</v>
+      </c>
+      <c r="K71" s="17">
+        <v>6</v>
+      </c>
+      <c r="L71" s="17">
+        <v>6</v>
+      </c>
+      <c r="M71" s="21">
+        <v>6</v>
+      </c>
+      <c r="N71" s="21">
+        <v>6</v>
+      </c>
+      <c r="O71" s="21">
+        <v>6</v>
+      </c>
+      <c r="P71" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q71" s="17">
+        <v>6</v>
+      </c>
+      <c r="R71" s="17">
+        <v>6</v>
+      </c>
+      <c r="S71" s="17">
+        <v>6</v>
+      </c>
+      <c r="T71" s="17">
+        <v>6</v>
+      </c>
+      <c r="U71" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" s="17">
+        <v>6</v>
+      </c>
+      <c r="C72" s="17">
+        <v>6</v>
+      </c>
+      <c r="D72" s="21">
+        <v>6</v>
+      </c>
+      <c r="E72" s="21">
+        <v>6</v>
+      </c>
+      <c r="F72" s="21">
+        <v>6</v>
+      </c>
+      <c r="G72" s="21">
+        <v>6</v>
+      </c>
+      <c r="H72" s="17">
+        <v>6</v>
+      </c>
+      <c r="I72" s="17">
+        <v>6</v>
+      </c>
+      <c r="J72" s="17">
+        <v>6</v>
+      </c>
+      <c r="K72" s="17">
+        <v>6</v>
+      </c>
+      <c r="L72" s="17">
+        <v>6</v>
+      </c>
+      <c r="M72" s="21">
+        <v>6</v>
+      </c>
+      <c r="N72" s="21">
+        <v>6</v>
+      </c>
+      <c r="O72" s="21">
+        <v>6</v>
+      </c>
+      <c r="P72" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q72" s="17">
+        <v>6</v>
+      </c>
+      <c r="R72" s="17">
+        <v>6</v>
+      </c>
+      <c r="S72" s="17">
+        <v>6</v>
+      </c>
+      <c r="T72" s="17">
+        <v>6</v>
+      </c>
+      <c r="U72" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="17">
+        <v>6</v>
+      </c>
+      <c r="C73" s="17">
+        <v>6</v>
+      </c>
+      <c r="D73" s="21">
+        <v>6</v>
+      </c>
+      <c r="E73" s="21">
+        <v>6</v>
+      </c>
+      <c r="F73" s="21">
+        <v>6</v>
+      </c>
+      <c r="G73" s="21">
+        <v>6</v>
+      </c>
+      <c r="H73" s="17">
+        <v>6</v>
+      </c>
+      <c r="I73" s="17">
+        <v>6</v>
+      </c>
+      <c r="J73" s="17">
+        <v>6</v>
+      </c>
+      <c r="K73" s="17">
+        <v>6</v>
+      </c>
+      <c r="L73" s="17">
+        <v>6</v>
+      </c>
+      <c r="M73" s="21">
+        <v>6</v>
+      </c>
+      <c r="N73" s="21">
+        <v>6</v>
+      </c>
+      <c r="O73" s="21">
+        <v>6</v>
+      </c>
+      <c r="P73" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q73" s="17">
+        <v>6</v>
+      </c>
+      <c r="R73" s="17">
+        <v>6</v>
+      </c>
+      <c r="S73" s="17">
+        <v>6</v>
+      </c>
+      <c r="T73" s="17">
+        <v>6</v>
+      </c>
+      <c r="U73" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="17">
+        <v>6</v>
+      </c>
+      <c r="C74" s="17">
+        <v>6</v>
+      </c>
+      <c r="D74" s="21">
+        <v>6</v>
+      </c>
+      <c r="E74" s="21">
+        <v>6</v>
+      </c>
+      <c r="F74" s="21">
+        <v>6</v>
+      </c>
+      <c r="G74" s="21">
+        <v>6</v>
+      </c>
+      <c r="H74" s="17">
+        <v>6</v>
+      </c>
+      <c r="I74" s="17">
+        <v>6</v>
+      </c>
+      <c r="J74" s="17">
+        <v>6</v>
+      </c>
+      <c r="K74" s="17">
+        <v>6</v>
+      </c>
+      <c r="L74" s="17">
+        <v>6</v>
+      </c>
+      <c r="M74" s="21">
+        <v>6</v>
+      </c>
+      <c r="N74" s="21">
+        <v>6</v>
+      </c>
+      <c r="O74" s="21">
+        <v>6</v>
+      </c>
+      <c r="P74" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q74" s="17">
+        <v>6</v>
+      </c>
+      <c r="R74" s="17">
+        <v>6</v>
+      </c>
+      <c r="S74" s="17">
+        <v>6</v>
+      </c>
+      <c r="T74" s="17">
+        <v>6</v>
+      </c>
+      <c r="U74" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="17">
+        <v>13</v>
+      </c>
+      <c r="C75" s="17">
+        <v>13</v>
+      </c>
+      <c r="D75" s="21">
+        <v>6</v>
+      </c>
+      <c r="E75" s="21">
+        <v>6</v>
+      </c>
+      <c r="F75" s="21">
+        <v>6</v>
+      </c>
+      <c r="G75" s="21">
+        <v>6</v>
+      </c>
+      <c r="H75" s="21">
+        <v>6</v>
+      </c>
+      <c r="I75" s="21">
+        <v>6</v>
+      </c>
+      <c r="J75" s="21">
+        <v>6</v>
+      </c>
+      <c r="K75" s="21">
+        <v>6</v>
+      </c>
+      <c r="L75" s="21">
+        <v>6</v>
+      </c>
+      <c r="M75" s="21">
+        <v>6</v>
+      </c>
+      <c r="N75" s="21">
+        <v>6</v>
+      </c>
+      <c r="O75" s="21">
+        <v>13</v>
+      </c>
+      <c r="P75" s="21">
+        <v>13</v>
+      </c>
+      <c r="Q75" s="21">
+        <v>13</v>
+      </c>
+      <c r="R75" s="21">
+        <v>6</v>
+      </c>
+      <c r="S75" s="21">
+        <v>6</v>
+      </c>
+      <c r="T75" s="21">
+        <v>6</v>
+      </c>
+      <c r="U75" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" s="17">
+        <v>6</v>
+      </c>
+      <c r="C76" s="17">
+        <v>6</v>
+      </c>
+      <c r="D76" s="21">
+        <v>6</v>
+      </c>
+      <c r="E76" s="21">
+        <v>6</v>
+      </c>
+      <c r="F76" s="21">
+        <v>6</v>
+      </c>
+      <c r="G76" s="21">
+        <v>6</v>
+      </c>
+      <c r="H76" s="21">
+        <v>6</v>
+      </c>
+      <c r="I76" s="21">
+        <v>6</v>
+      </c>
+      <c r="J76" s="21">
+        <v>6</v>
+      </c>
+      <c r="K76" s="21">
+        <v>6</v>
+      </c>
+      <c r="L76" s="21">
+        <v>6</v>
+      </c>
+      <c r="M76" s="21">
+        <v>6</v>
+      </c>
+      <c r="N76" s="21">
+        <v>6</v>
+      </c>
+      <c r="O76" s="21">
+        <v>6</v>
+      </c>
+      <c r="P76" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q76" s="21">
+        <v>6</v>
+      </c>
+      <c r="R76" s="21">
+        <v>6</v>
+      </c>
+      <c r="S76" s="21">
+        <v>6</v>
+      </c>
+      <c r="T76" s="21">
+        <v>6</v>
+      </c>
+      <c r="U76" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" s="17">
+        <v>6</v>
+      </c>
+      <c r="C77" s="17">
+        <v>6</v>
+      </c>
+      <c r="D77" s="21">
+        <v>6</v>
+      </c>
+      <c r="E77" s="21">
+        <v>6</v>
+      </c>
+      <c r="F77" s="21">
+        <v>6</v>
+      </c>
+      <c r="G77" s="21">
+        <v>6</v>
+      </c>
+      <c r="H77" s="21">
+        <v>6</v>
+      </c>
+      <c r="I77" s="21">
+        <v>6</v>
+      </c>
+      <c r="J77" s="21">
+        <v>6</v>
+      </c>
+      <c r="K77" s="21">
+        <v>6</v>
+      </c>
+      <c r="L77" s="21">
+        <v>6</v>
+      </c>
+      <c r="M77" s="21">
+        <v>6</v>
+      </c>
+      <c r="N77" s="21">
+        <v>6</v>
+      </c>
+      <c r="O77" s="21">
+        <v>6</v>
+      </c>
+      <c r="P77" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q77" s="21">
+        <v>6</v>
+      </c>
+      <c r="R77" s="21">
+        <v>6</v>
+      </c>
+      <c r="S77" s="21">
+        <v>6</v>
+      </c>
+      <c r="T77" s="21">
+        <v>6</v>
+      </c>
+      <c r="U77" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" s="17">
+        <v>6</v>
+      </c>
+      <c r="C78" s="17">
+        <v>6</v>
+      </c>
+      <c r="D78" s="21">
+        <v>6</v>
+      </c>
+      <c r="E78" s="21">
+        <v>6</v>
+      </c>
+      <c r="F78" s="21">
+        <v>6</v>
+      </c>
+      <c r="G78" s="21">
+        <v>6</v>
+      </c>
+      <c r="H78" s="21">
+        <v>6</v>
+      </c>
+      <c r="I78" s="21">
+        <v>6</v>
+      </c>
+      <c r="J78" s="21">
+        <v>6</v>
+      </c>
+      <c r="K78" s="21">
+        <v>6</v>
+      </c>
+      <c r="L78" s="21">
+        <v>6</v>
+      </c>
+      <c r="M78" s="21">
+        <v>6</v>
+      </c>
+      <c r="N78" s="21">
+        <v>6</v>
+      </c>
+      <c r="O78" s="21">
+        <v>6</v>
+      </c>
+      <c r="P78" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q78" s="21">
+        <v>6</v>
+      </c>
+      <c r="R78" s="21">
+        <v>6</v>
+      </c>
+      <c r="S78" s="21">
+        <v>6</v>
+      </c>
+      <c r="T78" s="21">
+        <v>6</v>
+      </c>
+      <c r="U78" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>51</v>
+      </c>
+      <c r="B79" s="17">
+        <v>6</v>
+      </c>
+      <c r="C79" s="17">
+        <v>6</v>
+      </c>
+      <c r="D79" s="21">
+        <v>6</v>
+      </c>
+      <c r="E79" s="21">
+        <v>6</v>
+      </c>
+      <c r="F79" s="21">
+        <v>6</v>
+      </c>
+      <c r="G79" s="21">
+        <v>6</v>
+      </c>
+      <c r="H79" s="21">
+        <v>6</v>
+      </c>
+      <c r="I79" s="21">
+        <v>6</v>
+      </c>
+      <c r="J79" s="21">
+        <v>6</v>
+      </c>
+      <c r="K79" s="21">
+        <v>6</v>
+      </c>
+      <c r="L79" s="21">
+        <v>6</v>
+      </c>
+      <c r="M79" s="21">
+        <v>6</v>
+      </c>
+      <c r="N79" s="21">
+        <v>6</v>
+      </c>
+      <c r="O79" s="21">
+        <v>6</v>
+      </c>
+      <c r="P79" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q79" s="21">
+        <v>6</v>
+      </c>
+      <c r="R79" s="21">
+        <v>6</v>
+      </c>
+      <c r="S79" s="21">
+        <v>6</v>
+      </c>
+      <c r="T79" s="21">
+        <v>6</v>
+      </c>
+      <c r="U79" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80" s="17">
+        <v>6</v>
+      </c>
+      <c r="C80" s="17">
+        <v>6</v>
+      </c>
+      <c r="D80" s="21">
+        <v>6</v>
+      </c>
+      <c r="E80" s="21">
+        <v>6</v>
+      </c>
+      <c r="F80" s="21">
+        <v>6</v>
+      </c>
+      <c r="G80" s="21">
+        <v>6</v>
+      </c>
+      <c r="H80" s="21">
+        <v>6</v>
+      </c>
+      <c r="I80" s="21">
+        <v>6</v>
+      </c>
+      <c r="J80" s="21">
+        <v>6</v>
+      </c>
+      <c r="K80" s="21">
+        <v>6</v>
+      </c>
+      <c r="L80" s="21">
+        <v>6</v>
+      </c>
+      <c r="M80" s="21">
+        <v>6</v>
+      </c>
+      <c r="N80" s="21">
+        <v>6</v>
+      </c>
+      <c r="O80" s="21">
+        <v>6</v>
+      </c>
+      <c r="P80" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q80" s="21">
+        <v>6</v>
+      </c>
+      <c r="R80" s="21">
+        <v>6</v>
+      </c>
+      <c r="S80" s="21">
+        <v>6</v>
+      </c>
+      <c r="T80" s="21">
+        <v>6</v>
+      </c>
+      <c r="U80" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>53</v>
+      </c>
+      <c r="B81" s="17">
+        <v>6</v>
+      </c>
+      <c r="C81" s="17">
+        <v>6</v>
+      </c>
+      <c r="D81" s="21">
+        <v>6</v>
+      </c>
+      <c r="E81" s="21">
+        <v>6</v>
+      </c>
+      <c r="F81" s="21">
+        <v>6</v>
+      </c>
+      <c r="G81" s="21">
+        <v>6</v>
+      </c>
+      <c r="H81" s="21">
+        <v>6</v>
+      </c>
+      <c r="I81" s="21">
+        <v>6</v>
+      </c>
+      <c r="J81" s="21">
+        <v>6</v>
+      </c>
+      <c r="K81" s="21">
+        <v>6</v>
+      </c>
+      <c r="L81" s="21">
+        <v>6</v>
+      </c>
+      <c r="M81" s="21">
+        <v>6</v>
+      </c>
+      <c r="N81" s="21">
+        <v>6</v>
+      </c>
+      <c r="O81" s="21">
+        <v>6</v>
+      </c>
+      <c r="P81" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q81" s="21">
+        <v>6</v>
+      </c>
+      <c r="R81" s="21">
+        <v>6</v>
+      </c>
+      <c r="S81" s="21">
+        <v>6</v>
+      </c>
+      <c r="T81" s="21">
+        <v>6</v>
+      </c>
+      <c r="U81" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" s="17">
+        <v>6</v>
+      </c>
+      <c r="C82" s="17">
+        <v>6</v>
+      </c>
+      <c r="D82" s="21">
+        <v>6</v>
+      </c>
+      <c r="E82" s="21">
+        <v>6</v>
+      </c>
+      <c r="F82" s="21">
+        <v>6</v>
+      </c>
+      <c r="G82" s="21">
+        <v>6</v>
+      </c>
+      <c r="H82" s="21">
+        <v>6</v>
+      </c>
+      <c r="I82" s="21">
+        <v>6</v>
+      </c>
+      <c r="J82" s="21">
+        <v>6</v>
+      </c>
+      <c r="K82" s="21">
+        <v>6</v>
+      </c>
+      <c r="L82" s="21">
+        <v>6</v>
+      </c>
+      <c r="M82" s="21">
+        <v>6</v>
+      </c>
+      <c r="N82" s="21">
+        <v>6</v>
+      </c>
+      <c r="O82" s="21">
+        <v>6</v>
+      </c>
+      <c r="P82" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q82" s="21">
+        <v>6</v>
+      </c>
+      <c r="R82" s="21">
+        <v>6</v>
+      </c>
+      <c r="S82" s="21">
+        <v>6</v>
+      </c>
+      <c r="T82" s="21">
+        <v>6</v>
+      </c>
+      <c r="U82" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" s="17">
+        <v>6</v>
+      </c>
+      <c r="C83" s="17">
+        <v>6</v>
+      </c>
+      <c r="D83" s="21">
+        <v>6</v>
+      </c>
+      <c r="E83" s="21">
+        <v>6</v>
+      </c>
+      <c r="F83" s="21">
+        <v>6</v>
+      </c>
+      <c r="G83" s="21">
+        <v>6</v>
+      </c>
+      <c r="H83" s="21">
+        <v>6</v>
+      </c>
+      <c r="I83" s="21">
+        <v>6</v>
+      </c>
+      <c r="J83" s="21">
+        <v>6</v>
+      </c>
+      <c r="K83" s="21">
+        <v>6</v>
+      </c>
+      <c r="L83" s="21">
+        <v>6</v>
+      </c>
+      <c r="M83" s="21">
+        <v>6</v>
+      </c>
+      <c r="N83" s="21">
+        <v>6</v>
+      </c>
+      <c r="O83" s="21">
+        <v>6</v>
+      </c>
+      <c r="P83" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q83" s="21">
+        <v>6</v>
+      </c>
+      <c r="R83" s="21">
+        <v>6</v>
+      </c>
+      <c r="S83" s="21">
+        <v>6</v>
+      </c>
+      <c r="T83" s="21">
+        <v>6</v>
+      </c>
+      <c r="U83" s="17">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4673,6 +7030,5218 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X56" sqref="X56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="23" max="23" width="17" customWidth="1"/>
+    <col min="24" max="24" width="10.75" customWidth="1"/>
+    <col min="25" max="25" width="18.375" customWidth="1"/>
+    <col min="26" max="26" width="19.375" customWidth="1"/>
+    <col min="27" max="27" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="17">
+        <f>699-28</f>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="W2" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="X2" s="17">
+        <f>COUNTIF(B2:U36,"1")+COUNTIF(B2:U36,"2")+COUNTIF(B2:U36,"3")+COUNTIF(B2:U36,"4")+COUNTIF(B2:U36,"5")+COUNTIF(B2:U36,"6")+COUNTIF(B2:U36,"7")+COUNTIF(B2:U36,"8")</f>
+        <v>613</v>
+      </c>
+      <c r="Y2" s="25">
+        <f>613/671</f>
+        <v>0.91356184798807749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="19">
+        <v>12</v>
+      </c>
+      <c r="K3" s="19">
+        <v>12</v>
+      </c>
+      <c r="L3" s="19">
+        <v>12</v>
+      </c>
+      <c r="M3" s="19">
+        <v>12</v>
+      </c>
+      <c r="N3" s="19">
+        <v>12</v>
+      </c>
+      <c r="O3" s="19">
+        <v>12</v>
+      </c>
+      <c r="P3" s="19">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>14</v>
+      </c>
+      <c r="R3" s="21">
+        <v>14</v>
+      </c>
+      <c r="S3" s="21">
+        <v>14</v>
+      </c>
+      <c r="T3" s="21">
+        <v>14</v>
+      </c>
+      <c r="U3" s="21">
+        <v>14</v>
+      </c>
+      <c r="V3" s="17"/>
+      <c r="W3" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="X3" s="17">
+        <f>COUNTIF(B2:U36,"9")+COUNTIF(B2:U36,"10")+COUNTIF(B2:U36,"11")+COUNTIF(B2:U36,"12")</f>
+        <v>42</v>
+      </c>
+      <c r="Y3" s="25">
+        <f>42/671</f>
+        <v>6.259314456035768E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="19">
+        <v>12</v>
+      </c>
+      <c r="C4" s="19">
+        <v>12</v>
+      </c>
+      <c r="D4" s="20">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20">
+        <v>3</v>
+      </c>
+      <c r="F4" s="20">
+        <v>4</v>
+      </c>
+      <c r="G4" s="19">
+        <v>12</v>
+      </c>
+      <c r="H4" s="19">
+        <v>12</v>
+      </c>
+      <c r="I4" s="19">
+        <v>12</v>
+      </c>
+      <c r="J4" s="19">
+        <v>12</v>
+      </c>
+      <c r="K4" s="19">
+        <v>12</v>
+      </c>
+      <c r="L4" s="19">
+        <v>12</v>
+      </c>
+      <c r="M4" s="19">
+        <v>12</v>
+      </c>
+      <c r="N4" s="21">
+        <v>8</v>
+      </c>
+      <c r="O4" s="19">
+        <v>12</v>
+      </c>
+      <c r="P4" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>6</v>
+      </c>
+      <c r="R4" s="20">
+        <v>6</v>
+      </c>
+      <c r="S4" s="20">
+        <v>2</v>
+      </c>
+      <c r="T4" s="20">
+        <v>2</v>
+      </c>
+      <c r="U4" s="20">
+        <v>6</v>
+      </c>
+      <c r="V4" s="17"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="25"/>
+      <c r="AB4">
+        <v>16</v>
+      </c>
+      <c r="AC4">
+        <v>17</v>
+      </c>
+      <c r="AD4">
+        <v>18</v>
+      </c>
+      <c r="AE4">
+        <v>19</v>
+      </c>
+      <c r="AF4">
+        <v>20</v>
+      </c>
+      <c r="AG4">
+        <v>21</v>
+      </c>
+      <c r="AH4">
+        <v>22</v>
+      </c>
+      <c r="AI4">
+        <v>23</v>
+      </c>
+      <c r="AJ4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="17">
+        <v>4</v>
+      </c>
+      <c r="C5" s="17">
+        <v>14</v>
+      </c>
+      <c r="D5" s="17">
+        <v>13</v>
+      </c>
+      <c r="E5" s="17">
+        <v>13</v>
+      </c>
+      <c r="F5" s="17">
+        <v>13</v>
+      </c>
+      <c r="G5" s="17">
+        <v>6</v>
+      </c>
+      <c r="H5" s="17">
+        <v>6</v>
+      </c>
+      <c r="I5" s="17">
+        <v>6</v>
+      </c>
+      <c r="J5" s="17">
+        <v>6</v>
+      </c>
+      <c r="K5" s="17">
+        <v>6</v>
+      </c>
+      <c r="L5" s="17">
+        <v>4</v>
+      </c>
+      <c r="M5" s="17">
+        <v>10</v>
+      </c>
+      <c r="N5" s="21">
+        <v>10</v>
+      </c>
+      <c r="O5" s="21">
+        <v>1</v>
+      </c>
+      <c r="P5" s="21">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>6</v>
+      </c>
+      <c r="R5" s="21">
+        <v>6</v>
+      </c>
+      <c r="S5" s="21">
+        <v>6</v>
+      </c>
+      <c r="T5" s="21">
+        <v>6</v>
+      </c>
+      <c r="U5" s="21">
+        <v>6</v>
+      </c>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA5">
+        <f>COUNTIF(B2:U36,"1")</f>
+        <v>4</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="17">
+        <v>6</v>
+      </c>
+      <c r="C6" s="17">
+        <v>6</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17">
+        <v>6</v>
+      </c>
+      <c r="F6" s="17">
+        <v>18</v>
+      </c>
+      <c r="G6" s="17">
+        <v>6</v>
+      </c>
+      <c r="H6" s="20">
+        <v>3</v>
+      </c>
+      <c r="I6" s="20">
+        <v>8</v>
+      </c>
+      <c r="J6" s="17">
+        <v>3</v>
+      </c>
+      <c r="K6" s="20">
+        <v>10</v>
+      </c>
+      <c r="L6" s="20">
+        <v>6</v>
+      </c>
+      <c r="M6" s="20">
+        <v>6</v>
+      </c>
+      <c r="N6" s="20">
+        <v>6</v>
+      </c>
+      <c r="O6" s="20">
+        <v>6</v>
+      </c>
+      <c r="P6" s="20">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>6</v>
+      </c>
+      <c r="R6" s="20">
+        <v>6</v>
+      </c>
+      <c r="S6" s="20">
+        <v>6</v>
+      </c>
+      <c r="T6" s="20">
+        <v>6</v>
+      </c>
+      <c r="U6" s="20">
+        <v>6</v>
+      </c>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="X6" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA6">
+        <f>COUNTIF(B2:U36,"2")</f>
+        <v>5</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="17">
+        <v>4</v>
+      </c>
+      <c r="C7" s="17">
+        <v>9</v>
+      </c>
+      <c r="D7" s="17">
+        <v>9</v>
+      </c>
+      <c r="E7" s="17">
+        <v>9</v>
+      </c>
+      <c r="F7" s="17">
+        <v>9</v>
+      </c>
+      <c r="G7" s="17">
+        <v>9</v>
+      </c>
+      <c r="H7" s="17">
+        <v>9</v>
+      </c>
+      <c r="I7" s="17">
+        <v>9</v>
+      </c>
+      <c r="J7" s="17">
+        <v>9</v>
+      </c>
+      <c r="K7" s="17">
+        <v>9</v>
+      </c>
+      <c r="L7" s="17">
+        <v>9</v>
+      </c>
+      <c r="M7" s="17">
+        <v>9</v>
+      </c>
+      <c r="N7" s="21">
+        <v>2</v>
+      </c>
+      <c r="O7" s="21">
+        <v>2</v>
+      </c>
+      <c r="P7" s="21">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>4</v>
+      </c>
+      <c r="R7" s="21">
+        <v>4</v>
+      </c>
+      <c r="S7" s="21">
+        <v>4</v>
+      </c>
+      <c r="T7" s="21">
+        <v>9</v>
+      </c>
+      <c r="U7" s="21">
+        <v>4</v>
+      </c>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA7">
+        <f>COUNTIF(B2:U36,"3")</f>
+        <v>3</v>
+      </c>
+      <c r="AD7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="17">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17">
+        <v>6</v>
+      </c>
+      <c r="D8" s="17">
+        <v>6</v>
+      </c>
+      <c r="E8" s="17">
+        <v>10</v>
+      </c>
+      <c r="F8" s="17">
+        <v>6</v>
+      </c>
+      <c r="G8" s="17">
+        <v>6</v>
+      </c>
+      <c r="H8" s="17">
+        <v>6</v>
+      </c>
+      <c r="I8" s="17">
+        <v>6</v>
+      </c>
+      <c r="J8" s="17">
+        <v>6</v>
+      </c>
+      <c r="K8" s="17">
+        <v>6</v>
+      </c>
+      <c r="L8" s="17">
+        <v>6</v>
+      </c>
+      <c r="M8" s="17">
+        <v>6</v>
+      </c>
+      <c r="N8" s="21">
+        <v>6</v>
+      </c>
+      <c r="O8" s="22">
+        <v>6</v>
+      </c>
+      <c r="P8" s="22">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>6</v>
+      </c>
+      <c r="R8" s="22">
+        <v>6</v>
+      </c>
+      <c r="S8" s="18">
+        <v>6</v>
+      </c>
+      <c r="T8" s="18">
+        <v>6</v>
+      </c>
+      <c r="U8" s="18">
+        <v>4</v>
+      </c>
+      <c r="V8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA8">
+        <f>COUNTIF(B2:U36,"4")</f>
+        <v>12</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="17">
+        <v>9</v>
+      </c>
+      <c r="C9" s="17">
+        <v>4</v>
+      </c>
+      <c r="D9" s="17">
+        <v>10</v>
+      </c>
+      <c r="E9" s="17">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17">
+        <v>10</v>
+      </c>
+      <c r="G9" s="17">
+        <v>10</v>
+      </c>
+      <c r="H9" s="17">
+        <v>10</v>
+      </c>
+      <c r="I9" s="17">
+        <v>10</v>
+      </c>
+      <c r="J9" s="17">
+        <v>10</v>
+      </c>
+      <c r="K9" s="17">
+        <v>10</v>
+      </c>
+      <c r="L9" s="17">
+        <v>4</v>
+      </c>
+      <c r="M9" s="17">
+        <v>6</v>
+      </c>
+      <c r="N9" s="21">
+        <v>6</v>
+      </c>
+      <c r="O9" s="21">
+        <v>6</v>
+      </c>
+      <c r="P9" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>6</v>
+      </c>
+      <c r="R9" s="17">
+        <v>2</v>
+      </c>
+      <c r="S9" s="17">
+        <v>6</v>
+      </c>
+      <c r="T9" s="17">
+        <v>6</v>
+      </c>
+      <c r="U9" s="17">
+        <v>6</v>
+      </c>
+      <c r="V9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA9">
+        <f>COUNTIF(B2:U36,"5")</f>
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="17">
+        <v>6</v>
+      </c>
+      <c r="C10" s="17">
+        <v>6</v>
+      </c>
+      <c r="D10" s="17">
+        <v>6</v>
+      </c>
+      <c r="E10" s="17">
+        <v>6</v>
+      </c>
+      <c r="F10" s="17">
+        <v>6</v>
+      </c>
+      <c r="G10" s="17">
+        <v>6</v>
+      </c>
+      <c r="H10" s="17">
+        <v>6</v>
+      </c>
+      <c r="I10" s="17">
+        <v>6</v>
+      </c>
+      <c r="J10" s="21">
+        <v>6</v>
+      </c>
+      <c r="K10" s="17">
+        <v>6</v>
+      </c>
+      <c r="L10" s="17">
+        <v>6</v>
+      </c>
+      <c r="M10" s="17">
+        <v>6</v>
+      </c>
+      <c r="N10" s="17">
+        <v>6</v>
+      </c>
+      <c r="O10" s="17">
+        <v>6</v>
+      </c>
+      <c r="P10" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>6</v>
+      </c>
+      <c r="R10" s="17">
+        <v>6</v>
+      </c>
+      <c r="S10" s="21">
+        <v>6</v>
+      </c>
+      <c r="T10" s="21">
+        <v>6</v>
+      </c>
+      <c r="U10" s="21">
+        <v>6</v>
+      </c>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA10">
+        <f>COUNTIF(B2:U36,"6")</f>
+        <v>586</v>
+      </c>
+      <c r="AB10">
+        <v>4</v>
+      </c>
+      <c r="AD10">
+        <v>13</v>
+      </c>
+      <c r="AE10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="17">
+        <v>6</v>
+      </c>
+      <c r="C11" s="17">
+        <v>6</v>
+      </c>
+      <c r="D11" s="17">
+        <v>6</v>
+      </c>
+      <c r="E11" s="17">
+        <v>6</v>
+      </c>
+      <c r="F11" s="17">
+        <v>14</v>
+      </c>
+      <c r="G11" s="17">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17">
+        <v>6</v>
+      </c>
+      <c r="I11" s="17">
+        <v>6</v>
+      </c>
+      <c r="J11" s="21">
+        <v>6</v>
+      </c>
+      <c r="K11" s="21">
+        <v>6</v>
+      </c>
+      <c r="L11" s="21">
+        <v>6</v>
+      </c>
+      <c r="M11" s="21">
+        <v>6</v>
+      </c>
+      <c r="N11" s="17">
+        <v>6</v>
+      </c>
+      <c r="O11" s="17">
+        <v>6</v>
+      </c>
+      <c r="P11" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>6</v>
+      </c>
+      <c r="R11" s="17">
+        <v>6</v>
+      </c>
+      <c r="S11" s="21">
+        <v>6</v>
+      </c>
+      <c r="T11" s="21">
+        <v>6</v>
+      </c>
+      <c r="U11" s="21">
+        <v>6</v>
+      </c>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z11" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA11">
+        <f>COUNTIF(B2:U36,"7")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="17">
+        <v>6</v>
+      </c>
+      <c r="C12" s="17">
+        <v>6</v>
+      </c>
+      <c r="D12" s="21">
+        <v>6</v>
+      </c>
+      <c r="E12" s="21">
+        <v>6</v>
+      </c>
+      <c r="F12" s="21">
+        <v>6</v>
+      </c>
+      <c r="G12" s="21">
+        <v>6</v>
+      </c>
+      <c r="H12" s="17">
+        <v>6</v>
+      </c>
+      <c r="I12" s="17">
+        <v>6</v>
+      </c>
+      <c r="J12" s="17">
+        <v>6</v>
+      </c>
+      <c r="K12" s="17">
+        <v>6</v>
+      </c>
+      <c r="L12" s="17">
+        <v>6</v>
+      </c>
+      <c r="M12" s="21">
+        <v>6</v>
+      </c>
+      <c r="N12" s="21">
+        <v>6</v>
+      </c>
+      <c r="O12" s="21">
+        <v>6</v>
+      </c>
+      <c r="P12" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>6</v>
+      </c>
+      <c r="R12" s="17">
+        <v>6</v>
+      </c>
+      <c r="S12" s="17">
+        <v>6</v>
+      </c>
+      <c r="T12" s="17">
+        <v>6</v>
+      </c>
+      <c r="U12" s="21">
+        <v>6</v>
+      </c>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA12">
+        <f>COUNTIF(B2:U36,"8")</f>
+        <v>3</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="17">
+        <v>6</v>
+      </c>
+      <c r="C13" s="17">
+        <v>6</v>
+      </c>
+      <c r="D13" s="21">
+        <v>6</v>
+      </c>
+      <c r="E13" s="21">
+        <v>6</v>
+      </c>
+      <c r="F13" s="21">
+        <v>6</v>
+      </c>
+      <c r="G13" s="21">
+        <v>6</v>
+      </c>
+      <c r="H13" s="17">
+        <v>6</v>
+      </c>
+      <c r="I13" s="17">
+        <v>6</v>
+      </c>
+      <c r="J13" s="17">
+        <v>6</v>
+      </c>
+      <c r="K13" s="17">
+        <v>6</v>
+      </c>
+      <c r="L13" s="17">
+        <v>6</v>
+      </c>
+      <c r="M13" s="21">
+        <v>6</v>
+      </c>
+      <c r="N13" s="21">
+        <v>6</v>
+      </c>
+      <c r="O13" s="21">
+        <v>6</v>
+      </c>
+      <c r="P13" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>6</v>
+      </c>
+      <c r="R13" s="17">
+        <v>6</v>
+      </c>
+      <c r="S13" s="17">
+        <v>6</v>
+      </c>
+      <c r="T13" s="17">
+        <v>6</v>
+      </c>
+      <c r="U13" s="21">
+        <v>6</v>
+      </c>
+      <c r="V13" s="17"/>
+      <c r="W13" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="X13" s="17">
+        <v>613</v>
+      </c>
+      <c r="Y13" s="25">
+        <v>0.91356184798807749</v>
+      </c>
+      <c r="Z13" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA13">
+        <f>COUNTIF(B2:U36,"9")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="17">
+        <v>6</v>
+      </c>
+      <c r="C14" s="17">
+        <v>6</v>
+      </c>
+      <c r="D14" s="21">
+        <v>6</v>
+      </c>
+      <c r="E14" s="21">
+        <v>6</v>
+      </c>
+      <c r="F14" s="21">
+        <v>6</v>
+      </c>
+      <c r="G14" s="21">
+        <v>6</v>
+      </c>
+      <c r="H14" s="17">
+        <v>6</v>
+      </c>
+      <c r="I14" s="17">
+        <v>6</v>
+      </c>
+      <c r="J14" s="17">
+        <v>6</v>
+      </c>
+      <c r="K14" s="17">
+        <v>6</v>
+      </c>
+      <c r="L14" s="17">
+        <v>6</v>
+      </c>
+      <c r="M14" s="21">
+        <v>6</v>
+      </c>
+      <c r="N14" s="21">
+        <v>6</v>
+      </c>
+      <c r="O14" s="21">
+        <v>6</v>
+      </c>
+      <c r="P14" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>6</v>
+      </c>
+      <c r="R14" s="17">
+        <v>6</v>
+      </c>
+      <c r="S14" s="17">
+        <v>6</v>
+      </c>
+      <c r="T14" s="17">
+        <v>6</v>
+      </c>
+      <c r="U14" s="21">
+        <v>6</v>
+      </c>
+      <c r="V14" s="17"/>
+      <c r="W14" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="X14" s="17">
+        <v>42</v>
+      </c>
+      <c r="Y14" s="25">
+        <v>6.259314456035768E-2</v>
+      </c>
+      <c r="Z14" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA14">
+        <f>COUNTIF(B2:U36,"10")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="17">
+        <v>6</v>
+      </c>
+      <c r="C15" s="17">
+        <v>6</v>
+      </c>
+      <c r="D15" s="21">
+        <v>6</v>
+      </c>
+      <c r="E15" s="21">
+        <v>6</v>
+      </c>
+      <c r="F15" s="21">
+        <v>6</v>
+      </c>
+      <c r="G15" s="21">
+        <v>6</v>
+      </c>
+      <c r="H15" s="17">
+        <v>6</v>
+      </c>
+      <c r="I15" s="17">
+        <v>6</v>
+      </c>
+      <c r="J15" s="17">
+        <v>6</v>
+      </c>
+      <c r="K15" s="17">
+        <v>6</v>
+      </c>
+      <c r="L15" s="17">
+        <v>6</v>
+      </c>
+      <c r="M15" s="21">
+        <v>6</v>
+      </c>
+      <c r="N15" s="21">
+        <v>6</v>
+      </c>
+      <c r="O15" s="21">
+        <v>6</v>
+      </c>
+      <c r="P15" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>6</v>
+      </c>
+      <c r="R15" s="17">
+        <v>6</v>
+      </c>
+      <c r="S15" s="17">
+        <v>6</v>
+      </c>
+      <c r="T15" s="17">
+        <v>6</v>
+      </c>
+      <c r="U15" s="21">
+        <v>6</v>
+      </c>
+      <c r="V15" s="17"/>
+      <c r="W15" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="X15" s="17">
+        <f>COUNTIF(B2:U36,"13")</f>
+        <v>8</v>
+      </c>
+      <c r="Y15" s="25">
+        <f>8/671</f>
+        <v>1.1922503725782414E-2</v>
+      </c>
+      <c r="Z15" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA15">
+        <f>COUNTIF(B2:U36,"11")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="17">
+        <v>6</v>
+      </c>
+      <c r="C16" s="17">
+        <v>6</v>
+      </c>
+      <c r="D16" s="21">
+        <v>6</v>
+      </c>
+      <c r="E16" s="21">
+        <v>6</v>
+      </c>
+      <c r="F16" s="21">
+        <v>6</v>
+      </c>
+      <c r="G16" s="21">
+        <v>6</v>
+      </c>
+      <c r="H16" s="17">
+        <v>6</v>
+      </c>
+      <c r="I16" s="17">
+        <v>6</v>
+      </c>
+      <c r="J16" s="17">
+        <v>6</v>
+      </c>
+      <c r="K16" s="17">
+        <v>6</v>
+      </c>
+      <c r="L16" s="17">
+        <v>6</v>
+      </c>
+      <c r="M16" s="21">
+        <v>6</v>
+      </c>
+      <c r="N16" s="21">
+        <v>6</v>
+      </c>
+      <c r="O16" s="21">
+        <v>6</v>
+      </c>
+      <c r="P16" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="17">
+        <v>6</v>
+      </c>
+      <c r="R16" s="17">
+        <v>6</v>
+      </c>
+      <c r="S16" s="17">
+        <v>6</v>
+      </c>
+      <c r="T16" s="17">
+        <v>6</v>
+      </c>
+      <c r="U16" s="21">
+        <v>6</v>
+      </c>
+      <c r="V16" s="17"/>
+      <c r="W16" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="X16" s="17">
+        <f>COUNTIF(B2:U36,"15")</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="25">
+        <f>0/699</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA16">
+        <f>COUNTIF(B2:U36,"12")</f>
+        <v>17</v>
+      </c>
+      <c r="AG16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="17">
+        <v>6</v>
+      </c>
+      <c r="C17" s="17">
+        <v>6</v>
+      </c>
+      <c r="D17" s="21">
+        <v>6</v>
+      </c>
+      <c r="E17" s="21">
+        <v>6</v>
+      </c>
+      <c r="F17" s="21">
+        <v>6</v>
+      </c>
+      <c r="G17" s="21">
+        <v>6</v>
+      </c>
+      <c r="H17" s="17">
+        <v>6</v>
+      </c>
+      <c r="I17" s="17">
+        <v>6</v>
+      </c>
+      <c r="J17" s="17">
+        <v>6</v>
+      </c>
+      <c r="K17" s="17">
+        <v>6</v>
+      </c>
+      <c r="L17" s="17">
+        <v>6</v>
+      </c>
+      <c r="M17" s="21">
+        <v>6</v>
+      </c>
+      <c r="N17" s="21">
+        <v>6</v>
+      </c>
+      <c r="O17" s="21">
+        <v>6</v>
+      </c>
+      <c r="P17" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>6</v>
+      </c>
+      <c r="R17" s="17">
+        <v>6</v>
+      </c>
+      <c r="S17" s="17">
+        <v>6</v>
+      </c>
+      <c r="T17" s="17">
+        <v>6</v>
+      </c>
+      <c r="U17" s="21">
+        <v>6</v>
+      </c>
+      <c r="V17" s="17"/>
+      <c r="W17" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="X17" s="17">
+        <v>28</v>
+      </c>
+      <c r="Y17" s="25">
+        <f>28/671</f>
+        <v>4.1728763040238454E-2</v>
+      </c>
+      <c r="Z17" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA17" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="17">
+        <v>6</v>
+      </c>
+      <c r="C18" s="17">
+        <v>6</v>
+      </c>
+      <c r="D18" s="21">
+        <v>6</v>
+      </c>
+      <c r="E18" s="21">
+        <v>6</v>
+      </c>
+      <c r="F18" s="21">
+        <v>6</v>
+      </c>
+      <c r="G18" s="21">
+        <v>6</v>
+      </c>
+      <c r="H18" s="17">
+        <v>6</v>
+      </c>
+      <c r="I18" s="17">
+        <v>6</v>
+      </c>
+      <c r="J18" s="17">
+        <v>6</v>
+      </c>
+      <c r="K18" s="17">
+        <v>6</v>
+      </c>
+      <c r="L18" s="17">
+        <v>6</v>
+      </c>
+      <c r="M18" s="21">
+        <v>6</v>
+      </c>
+      <c r="N18" s="21">
+        <v>6</v>
+      </c>
+      <c r="O18" s="21">
+        <v>6</v>
+      </c>
+      <c r="P18" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>6</v>
+      </c>
+      <c r="R18" s="17">
+        <v>6</v>
+      </c>
+      <c r="S18" s="17">
+        <v>6</v>
+      </c>
+      <c r="T18" s="17">
+        <v>6</v>
+      </c>
+      <c r="U18" s="21">
+        <v>6</v>
+      </c>
+      <c r="V18" s="17"/>
+      <c r="W18" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="X18" s="17">
+        <v>17</v>
+      </c>
+      <c r="Y18" s="25">
+        <f>17/671</f>
+        <v>2.533532041728763E-2</v>
+      </c>
+      <c r="Z18" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA18">
+        <f>COUNTIF(B2:U36,"14")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="17">
+        <v>6</v>
+      </c>
+      <c r="C19" s="17">
+        <v>6</v>
+      </c>
+      <c r="D19" s="21">
+        <v>6</v>
+      </c>
+      <c r="E19" s="21">
+        <v>6</v>
+      </c>
+      <c r="F19" s="21">
+        <v>6</v>
+      </c>
+      <c r="G19" s="21">
+        <v>6</v>
+      </c>
+      <c r="H19" s="17">
+        <v>6</v>
+      </c>
+      <c r="I19" s="17">
+        <v>6</v>
+      </c>
+      <c r="J19" s="17">
+        <v>6</v>
+      </c>
+      <c r="K19" s="17">
+        <v>6</v>
+      </c>
+      <c r="L19" s="17">
+        <v>6</v>
+      </c>
+      <c r="M19" s="21">
+        <v>6</v>
+      </c>
+      <c r="N19" s="21">
+        <v>6</v>
+      </c>
+      <c r="O19" s="21">
+        <v>6</v>
+      </c>
+      <c r="P19" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>6</v>
+      </c>
+      <c r="R19" s="17">
+        <v>6</v>
+      </c>
+      <c r="S19" s="17">
+        <v>6</v>
+      </c>
+      <c r="T19" s="17">
+        <v>6</v>
+      </c>
+      <c r="U19" s="21">
+        <v>6</v>
+      </c>
+      <c r="W19" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="X19" s="21">
+        <f>SUM(X17:X18)</f>
+        <v>45</v>
+      </c>
+      <c r="Y19" s="25">
+        <f>45/671</f>
+        <v>6.7064083457526083E-2</v>
+      </c>
+      <c r="Z19" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA19">
+        <v>7</v>
+      </c>
+      <c r="AG19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="17">
+        <v>6</v>
+      </c>
+      <c r="C20" s="17">
+        <v>6</v>
+      </c>
+      <c r="D20" s="21">
+        <v>6</v>
+      </c>
+      <c r="E20" s="21">
+        <v>6</v>
+      </c>
+      <c r="F20" s="21">
+        <v>6</v>
+      </c>
+      <c r="G20" s="21">
+        <v>6</v>
+      </c>
+      <c r="H20" s="17">
+        <v>6</v>
+      </c>
+      <c r="I20" s="17">
+        <v>6</v>
+      </c>
+      <c r="J20" s="17">
+        <v>6</v>
+      </c>
+      <c r="K20" s="17">
+        <v>6</v>
+      </c>
+      <c r="L20" s="17">
+        <v>6</v>
+      </c>
+      <c r="M20" s="21">
+        <v>6</v>
+      </c>
+      <c r="N20" s="21">
+        <v>6</v>
+      </c>
+      <c r="O20" s="21">
+        <v>6</v>
+      </c>
+      <c r="P20" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>6</v>
+      </c>
+      <c r="R20" s="17">
+        <v>6</v>
+      </c>
+      <c r="S20" s="17">
+        <v>6</v>
+      </c>
+      <c r="T20" s="17">
+        <v>6</v>
+      </c>
+      <c r="U20" s="21">
+        <v>6</v>
+      </c>
+      <c r="X20" s="17"/>
+      <c r="Z20" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="17">
+        <v>6</v>
+      </c>
+      <c r="C21" s="17">
+        <v>6</v>
+      </c>
+      <c r="D21" s="21">
+        <v>6</v>
+      </c>
+      <c r="E21" s="21">
+        <v>6</v>
+      </c>
+      <c r="F21" s="21">
+        <v>6</v>
+      </c>
+      <c r="G21" s="21">
+        <v>6</v>
+      </c>
+      <c r="H21" s="17">
+        <v>6</v>
+      </c>
+      <c r="I21" s="17">
+        <v>6</v>
+      </c>
+      <c r="J21" s="17">
+        <v>6</v>
+      </c>
+      <c r="K21" s="17">
+        <v>6</v>
+      </c>
+      <c r="L21" s="17">
+        <v>6</v>
+      </c>
+      <c r="M21" s="21">
+        <v>6</v>
+      </c>
+      <c r="N21" s="21">
+        <v>6</v>
+      </c>
+      <c r="O21" s="21">
+        <v>6</v>
+      </c>
+      <c r="P21" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>6</v>
+      </c>
+      <c r="R21" s="17">
+        <v>6</v>
+      </c>
+      <c r="S21" s="17">
+        <v>6</v>
+      </c>
+      <c r="T21" s="17">
+        <v>6</v>
+      </c>
+      <c r="U21" s="21">
+        <v>6</v>
+      </c>
+      <c r="AA21">
+        <f>SUM(AA5:AA20)</f>
+        <v>678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="17">
+        <v>6</v>
+      </c>
+      <c r="C22" s="17">
+        <v>6</v>
+      </c>
+      <c r="D22" s="21">
+        <v>6</v>
+      </c>
+      <c r="E22" s="21">
+        <v>6</v>
+      </c>
+      <c r="F22" s="21">
+        <v>6</v>
+      </c>
+      <c r="G22" s="21">
+        <v>6</v>
+      </c>
+      <c r="H22" s="17">
+        <v>6</v>
+      </c>
+      <c r="I22" s="17">
+        <v>6</v>
+      </c>
+      <c r="J22" s="17">
+        <v>6</v>
+      </c>
+      <c r="K22" s="17">
+        <v>6</v>
+      </c>
+      <c r="L22" s="17">
+        <v>6</v>
+      </c>
+      <c r="M22" s="21">
+        <v>6</v>
+      </c>
+      <c r="N22" s="21">
+        <v>6</v>
+      </c>
+      <c r="O22" s="21">
+        <v>6</v>
+      </c>
+      <c r="P22" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>6</v>
+      </c>
+      <c r="R22" s="17">
+        <v>6</v>
+      </c>
+      <c r="S22" s="17">
+        <v>6</v>
+      </c>
+      <c r="T22" s="17">
+        <v>6</v>
+      </c>
+      <c r="U22" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="17">
+        <v>6</v>
+      </c>
+      <c r="C23" s="17">
+        <v>6</v>
+      </c>
+      <c r="D23" s="21">
+        <v>6</v>
+      </c>
+      <c r="E23" s="21">
+        <v>6</v>
+      </c>
+      <c r="F23" s="21">
+        <v>6</v>
+      </c>
+      <c r="G23" s="21">
+        <v>6</v>
+      </c>
+      <c r="H23" s="17">
+        <v>6</v>
+      </c>
+      <c r="I23" s="17">
+        <v>6</v>
+      </c>
+      <c r="J23" s="17">
+        <v>6</v>
+      </c>
+      <c r="K23" s="17">
+        <v>6</v>
+      </c>
+      <c r="L23" s="17">
+        <v>6</v>
+      </c>
+      <c r="M23" s="21">
+        <v>6</v>
+      </c>
+      <c r="N23" s="21">
+        <v>6</v>
+      </c>
+      <c r="O23" s="21">
+        <v>6</v>
+      </c>
+      <c r="P23" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>6</v>
+      </c>
+      <c r="R23" s="17">
+        <v>6</v>
+      </c>
+      <c r="S23" s="17">
+        <v>6</v>
+      </c>
+      <c r="T23" s="17">
+        <v>6</v>
+      </c>
+      <c r="U23" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="17">
+        <v>6</v>
+      </c>
+      <c r="C24" s="17">
+        <v>6</v>
+      </c>
+      <c r="D24" s="21">
+        <v>6</v>
+      </c>
+      <c r="E24" s="21">
+        <v>6</v>
+      </c>
+      <c r="F24" s="21">
+        <v>6</v>
+      </c>
+      <c r="G24" s="21">
+        <v>6</v>
+      </c>
+      <c r="H24" s="17">
+        <v>6</v>
+      </c>
+      <c r="I24" s="17">
+        <v>6</v>
+      </c>
+      <c r="J24" s="17">
+        <v>6</v>
+      </c>
+      <c r="K24" s="17">
+        <v>6</v>
+      </c>
+      <c r="L24" s="17">
+        <v>6</v>
+      </c>
+      <c r="M24" s="21">
+        <v>6</v>
+      </c>
+      <c r="N24" s="21">
+        <v>6</v>
+      </c>
+      <c r="O24" s="21">
+        <v>6</v>
+      </c>
+      <c r="P24" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>6</v>
+      </c>
+      <c r="R24" s="17">
+        <v>6</v>
+      </c>
+      <c r="S24" s="17">
+        <v>6</v>
+      </c>
+      <c r="T24" s="17">
+        <v>6</v>
+      </c>
+      <c r="U24" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="17">
+        <v>6</v>
+      </c>
+      <c r="C25" s="17">
+        <v>6</v>
+      </c>
+      <c r="D25" s="21">
+        <v>6</v>
+      </c>
+      <c r="E25" s="21">
+        <v>6</v>
+      </c>
+      <c r="F25" s="21">
+        <v>6</v>
+      </c>
+      <c r="G25" s="21">
+        <v>6</v>
+      </c>
+      <c r="H25" s="17">
+        <v>6</v>
+      </c>
+      <c r="I25" s="17">
+        <v>6</v>
+      </c>
+      <c r="J25" s="17">
+        <v>6</v>
+      </c>
+      <c r="K25" s="17">
+        <v>6</v>
+      </c>
+      <c r="L25" s="17">
+        <v>6</v>
+      </c>
+      <c r="M25" s="21">
+        <v>6</v>
+      </c>
+      <c r="N25" s="21">
+        <v>6</v>
+      </c>
+      <c r="O25" s="21">
+        <v>6</v>
+      </c>
+      <c r="P25" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="17">
+        <v>6</v>
+      </c>
+      <c r="R25" s="17">
+        <v>6</v>
+      </c>
+      <c r="S25" s="17">
+        <v>6</v>
+      </c>
+      <c r="T25" s="17">
+        <v>6</v>
+      </c>
+      <c r="U25" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="17">
+        <v>6</v>
+      </c>
+      <c r="C26" s="17">
+        <v>6</v>
+      </c>
+      <c r="D26" s="21">
+        <v>6</v>
+      </c>
+      <c r="E26" s="21">
+        <v>6</v>
+      </c>
+      <c r="F26" s="21">
+        <v>6</v>
+      </c>
+      <c r="G26" s="21">
+        <v>6</v>
+      </c>
+      <c r="H26" s="17">
+        <v>6</v>
+      </c>
+      <c r="I26" s="17">
+        <v>6</v>
+      </c>
+      <c r="J26" s="17">
+        <v>6</v>
+      </c>
+      <c r="K26" s="17">
+        <v>6</v>
+      </c>
+      <c r="L26" s="17">
+        <v>6</v>
+      </c>
+      <c r="M26" s="21">
+        <v>6</v>
+      </c>
+      <c r="N26" s="21">
+        <v>6</v>
+      </c>
+      <c r="O26" s="21">
+        <v>6</v>
+      </c>
+      <c r="P26" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q26" s="17">
+        <v>6</v>
+      </c>
+      <c r="R26" s="17">
+        <v>6</v>
+      </c>
+      <c r="S26" s="17">
+        <v>6</v>
+      </c>
+      <c r="T26" s="17">
+        <v>6</v>
+      </c>
+      <c r="U26" s="21">
+        <v>6</v>
+      </c>
+      <c r="W26" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="17">
+        <v>6</v>
+      </c>
+      <c r="C27" s="17">
+        <v>6</v>
+      </c>
+      <c r="D27" s="21">
+        <v>6</v>
+      </c>
+      <c r="E27" s="21">
+        <v>6</v>
+      </c>
+      <c r="F27" s="21">
+        <v>6</v>
+      </c>
+      <c r="G27" s="21">
+        <v>6</v>
+      </c>
+      <c r="H27" s="17">
+        <v>6</v>
+      </c>
+      <c r="I27" s="17">
+        <v>6</v>
+      </c>
+      <c r="J27" s="17">
+        <v>6</v>
+      </c>
+      <c r="K27" s="17">
+        <v>6</v>
+      </c>
+      <c r="L27" s="17">
+        <v>6</v>
+      </c>
+      <c r="M27" s="21">
+        <v>6</v>
+      </c>
+      <c r="N27" s="21">
+        <v>6</v>
+      </c>
+      <c r="O27" s="21">
+        <v>6</v>
+      </c>
+      <c r="P27" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="17">
+        <v>6</v>
+      </c>
+      <c r="R27" s="17">
+        <v>6</v>
+      </c>
+      <c r="S27" s="17">
+        <v>6</v>
+      </c>
+      <c r="T27" s="17">
+        <v>6</v>
+      </c>
+      <c r="U27" s="21">
+        <v>6</v>
+      </c>
+      <c r="W27" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="X27" s="25">
+        <v>0.91356184798807749</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="17">
+        <v>13</v>
+      </c>
+      <c r="C28" s="17">
+        <v>13</v>
+      </c>
+      <c r="D28" s="21">
+        <v>6</v>
+      </c>
+      <c r="E28" s="21">
+        <v>6</v>
+      </c>
+      <c r="F28" s="21">
+        <v>6</v>
+      </c>
+      <c r="G28" s="21">
+        <v>6</v>
+      </c>
+      <c r="H28" s="21">
+        <v>6</v>
+      </c>
+      <c r="I28" s="21">
+        <v>6</v>
+      </c>
+      <c r="J28" s="21">
+        <v>6</v>
+      </c>
+      <c r="K28" s="21">
+        <v>6</v>
+      </c>
+      <c r="L28" s="21">
+        <v>6</v>
+      </c>
+      <c r="M28" s="21">
+        <v>6</v>
+      </c>
+      <c r="N28" s="21">
+        <v>6</v>
+      </c>
+      <c r="O28" s="21">
+        <v>13</v>
+      </c>
+      <c r="P28" s="21">
+        <v>13</v>
+      </c>
+      <c r="Q28" s="21">
+        <v>13</v>
+      </c>
+      <c r="R28" s="21">
+        <v>6</v>
+      </c>
+      <c r="S28" s="21">
+        <v>6</v>
+      </c>
+      <c r="T28" s="21">
+        <v>6</v>
+      </c>
+      <c r="U28" s="21">
+        <v>6</v>
+      </c>
+      <c r="W28" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="X28" s="25">
+        <v>6.259314456035768E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="17">
+        <v>6</v>
+      </c>
+      <c r="C29" s="17">
+        <v>6</v>
+      </c>
+      <c r="D29" s="21">
+        <v>6</v>
+      </c>
+      <c r="E29" s="21">
+        <v>6</v>
+      </c>
+      <c r="F29" s="21">
+        <v>6</v>
+      </c>
+      <c r="G29" s="21">
+        <v>6</v>
+      </c>
+      <c r="H29" s="21">
+        <v>6</v>
+      </c>
+      <c r="I29" s="21">
+        <v>6</v>
+      </c>
+      <c r="J29" s="21">
+        <v>6</v>
+      </c>
+      <c r="K29" s="21">
+        <v>6</v>
+      </c>
+      <c r="L29" s="21">
+        <v>6</v>
+      </c>
+      <c r="M29" s="21">
+        <v>6</v>
+      </c>
+      <c r="N29" s="21">
+        <v>6</v>
+      </c>
+      <c r="O29" s="21">
+        <v>6</v>
+      </c>
+      <c r="P29" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="21">
+        <v>6</v>
+      </c>
+      <c r="R29" s="21">
+        <v>6</v>
+      </c>
+      <c r="S29" s="21">
+        <v>6</v>
+      </c>
+      <c r="T29" s="21">
+        <v>6</v>
+      </c>
+      <c r="U29" s="21">
+        <v>6</v>
+      </c>
+      <c r="W29" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="X29" s="25">
+        <f>8/671</f>
+        <v>1.1922503725782414E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="17">
+        <v>6</v>
+      </c>
+      <c r="C30" s="17">
+        <v>6</v>
+      </c>
+      <c r="D30" s="21">
+        <v>6</v>
+      </c>
+      <c r="E30" s="21">
+        <v>6</v>
+      </c>
+      <c r="F30" s="21">
+        <v>6</v>
+      </c>
+      <c r="G30" s="21">
+        <v>6</v>
+      </c>
+      <c r="H30" s="21">
+        <v>6</v>
+      </c>
+      <c r="I30" s="21">
+        <v>6</v>
+      </c>
+      <c r="J30" s="21">
+        <v>6</v>
+      </c>
+      <c r="K30" s="21">
+        <v>6</v>
+      </c>
+      <c r="L30" s="21">
+        <v>6</v>
+      </c>
+      <c r="M30" s="21">
+        <v>6</v>
+      </c>
+      <c r="N30" s="21">
+        <v>6</v>
+      </c>
+      <c r="O30" s="21">
+        <v>6</v>
+      </c>
+      <c r="P30" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="21">
+        <v>6</v>
+      </c>
+      <c r="R30" s="21">
+        <v>6</v>
+      </c>
+      <c r="S30" s="21">
+        <v>6</v>
+      </c>
+      <c r="T30" s="21">
+        <v>6</v>
+      </c>
+      <c r="U30" s="21">
+        <v>6</v>
+      </c>
+      <c r="W30" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="X30" s="25">
+        <f>0/699</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="17">
+        <v>6</v>
+      </c>
+      <c r="C31" s="17">
+        <v>6</v>
+      </c>
+      <c r="D31" s="21">
+        <v>6</v>
+      </c>
+      <c r="E31" s="21">
+        <v>6</v>
+      </c>
+      <c r="F31" s="21">
+        <v>6</v>
+      </c>
+      <c r="G31" s="21">
+        <v>6</v>
+      </c>
+      <c r="H31" s="21">
+        <v>6</v>
+      </c>
+      <c r="I31" s="21">
+        <v>6</v>
+      </c>
+      <c r="J31" s="21">
+        <v>6</v>
+      </c>
+      <c r="K31" s="21">
+        <v>6</v>
+      </c>
+      <c r="L31" s="21">
+        <v>6</v>
+      </c>
+      <c r="M31" s="21">
+        <v>6</v>
+      </c>
+      <c r="N31" s="21">
+        <v>6</v>
+      </c>
+      <c r="O31" s="21">
+        <v>6</v>
+      </c>
+      <c r="P31" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="21">
+        <v>6</v>
+      </c>
+      <c r="R31" s="21">
+        <v>6</v>
+      </c>
+      <c r="S31" s="21">
+        <v>6</v>
+      </c>
+      <c r="T31" s="21">
+        <v>6</v>
+      </c>
+      <c r="U31" s="21">
+        <v>6</v>
+      </c>
+      <c r="W31" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="X31" s="25">
+        <f>28/671</f>
+        <v>4.1728763040238454E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="17">
+        <v>6</v>
+      </c>
+      <c r="C32" s="17">
+        <v>6</v>
+      </c>
+      <c r="D32" s="21">
+        <v>6</v>
+      </c>
+      <c r="E32" s="21">
+        <v>6</v>
+      </c>
+      <c r="F32" s="21">
+        <v>6</v>
+      </c>
+      <c r="G32" s="21">
+        <v>6</v>
+      </c>
+      <c r="H32" s="21">
+        <v>6</v>
+      </c>
+      <c r="I32" s="21">
+        <v>6</v>
+      </c>
+      <c r="J32" s="21">
+        <v>6</v>
+      </c>
+      <c r="K32" s="21">
+        <v>6</v>
+      </c>
+      <c r="L32" s="21">
+        <v>6</v>
+      </c>
+      <c r="M32" s="21">
+        <v>6</v>
+      </c>
+      <c r="N32" s="21">
+        <v>6</v>
+      </c>
+      <c r="O32" s="21">
+        <v>6</v>
+      </c>
+      <c r="P32" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="21">
+        <v>6</v>
+      </c>
+      <c r="R32" s="21">
+        <v>6</v>
+      </c>
+      <c r="S32" s="21">
+        <v>6</v>
+      </c>
+      <c r="T32" s="21">
+        <v>6</v>
+      </c>
+      <c r="U32" s="21">
+        <v>6</v>
+      </c>
+      <c r="W32" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="X32" s="25">
+        <f>17/671</f>
+        <v>2.533532041728763E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="17">
+        <v>6</v>
+      </c>
+      <c r="C33" s="17">
+        <v>6</v>
+      </c>
+      <c r="D33" s="21">
+        <v>6</v>
+      </c>
+      <c r="E33" s="21">
+        <v>6</v>
+      </c>
+      <c r="F33" s="21">
+        <v>6</v>
+      </c>
+      <c r="G33" s="21">
+        <v>6</v>
+      </c>
+      <c r="H33" s="21">
+        <v>6</v>
+      </c>
+      <c r="I33" s="21">
+        <v>6</v>
+      </c>
+      <c r="J33" s="21">
+        <v>6</v>
+      </c>
+      <c r="K33" s="21">
+        <v>6</v>
+      </c>
+      <c r="L33" s="21">
+        <v>6</v>
+      </c>
+      <c r="M33" s="21">
+        <v>6</v>
+      </c>
+      <c r="N33" s="21">
+        <v>6</v>
+      </c>
+      <c r="O33" s="21">
+        <v>6</v>
+      </c>
+      <c r="P33" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="21">
+        <v>6</v>
+      </c>
+      <c r="R33" s="21">
+        <v>6</v>
+      </c>
+      <c r="S33" s="21">
+        <v>6</v>
+      </c>
+      <c r="T33" s="21">
+        <v>6</v>
+      </c>
+      <c r="U33" s="21">
+        <v>6</v>
+      </c>
+      <c r="W33" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="X33" s="25">
+        <f>45/671</f>
+        <v>6.7064083457526083E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="17">
+        <v>6</v>
+      </c>
+      <c r="C34" s="17">
+        <v>6</v>
+      </c>
+      <c r="D34" s="21">
+        <v>6</v>
+      </c>
+      <c r="E34" s="21">
+        <v>6</v>
+      </c>
+      <c r="F34" s="21">
+        <v>6</v>
+      </c>
+      <c r="G34" s="21">
+        <v>6</v>
+      </c>
+      <c r="H34" s="21">
+        <v>6</v>
+      </c>
+      <c r="I34" s="21">
+        <v>6</v>
+      </c>
+      <c r="J34" s="21">
+        <v>6</v>
+      </c>
+      <c r="K34" s="21">
+        <v>6</v>
+      </c>
+      <c r="L34" s="21">
+        <v>6</v>
+      </c>
+      <c r="M34" s="21">
+        <v>6</v>
+      </c>
+      <c r="N34" s="21">
+        <v>6</v>
+      </c>
+      <c r="O34" s="21">
+        <v>6</v>
+      </c>
+      <c r="P34" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="21">
+        <v>6</v>
+      </c>
+      <c r="R34" s="21">
+        <v>6</v>
+      </c>
+      <c r="S34" s="21">
+        <v>6</v>
+      </c>
+      <c r="T34" s="21">
+        <v>6</v>
+      </c>
+      <c r="U34" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="17">
+        <v>6</v>
+      </c>
+      <c r="C35" s="17">
+        <v>6</v>
+      </c>
+      <c r="D35" s="21">
+        <v>6</v>
+      </c>
+      <c r="E35" s="21">
+        <v>6</v>
+      </c>
+      <c r="F35" s="21">
+        <v>6</v>
+      </c>
+      <c r="G35" s="21">
+        <v>6</v>
+      </c>
+      <c r="H35" s="21">
+        <v>6</v>
+      </c>
+      <c r="I35" s="21">
+        <v>6</v>
+      </c>
+      <c r="J35" s="21">
+        <v>6</v>
+      </c>
+      <c r="K35" s="21">
+        <v>6</v>
+      </c>
+      <c r="L35" s="21">
+        <v>6</v>
+      </c>
+      <c r="M35" s="21">
+        <v>6</v>
+      </c>
+      <c r="N35" s="21">
+        <v>6</v>
+      </c>
+      <c r="O35" s="21">
+        <v>6</v>
+      </c>
+      <c r="P35" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q35" s="21">
+        <v>6</v>
+      </c>
+      <c r="R35" s="21">
+        <v>6</v>
+      </c>
+      <c r="S35" s="21">
+        <v>6</v>
+      </c>
+      <c r="T35" s="21">
+        <v>6</v>
+      </c>
+      <c r="U35" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="17">
+        <v>6</v>
+      </c>
+      <c r="C36" s="17">
+        <v>6</v>
+      </c>
+      <c r="D36" s="21">
+        <v>6</v>
+      </c>
+      <c r="E36" s="21">
+        <v>6</v>
+      </c>
+      <c r="F36" s="21">
+        <v>6</v>
+      </c>
+      <c r="G36" s="21">
+        <v>6</v>
+      </c>
+      <c r="H36" s="21">
+        <v>6</v>
+      </c>
+      <c r="I36" s="21">
+        <v>6</v>
+      </c>
+      <c r="J36" s="21">
+        <v>6</v>
+      </c>
+      <c r="K36" s="21">
+        <v>6</v>
+      </c>
+      <c r="L36" s="21">
+        <v>6</v>
+      </c>
+      <c r="M36" s="21">
+        <v>6</v>
+      </c>
+      <c r="N36" s="21">
+        <v>6</v>
+      </c>
+      <c r="O36" s="21">
+        <v>6</v>
+      </c>
+      <c r="P36" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q36" s="21">
+        <v>6</v>
+      </c>
+      <c r="R36" s="21">
+        <v>6</v>
+      </c>
+      <c r="S36" s="21">
+        <v>6</v>
+      </c>
+      <c r="T36" s="21">
+        <v>6</v>
+      </c>
+      <c r="U36" s="17"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B39" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y39" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB39" s="27"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B40" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y40" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z40" s="43"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Y41" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z41" s="45"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="H42" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y42" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z42" s="47"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="H43" t="s">
+        <v>88</v>
+      </c>
+      <c r="K43" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y43" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z43" s="49"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Y44" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z44" s="44"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Y45" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z45" s="46"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Y46" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z46" s="48"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Y47" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z47" s="50"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" t="s">
+        <v>10</v>
+      </c>
+      <c r="M48" t="s">
+        <v>11</v>
+      </c>
+      <c r="N48" t="s">
+        <v>12</v>
+      </c>
+      <c r="O48" t="s">
+        <v>13</v>
+      </c>
+      <c r="P48" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>15</v>
+      </c>
+      <c r="R48" t="s">
+        <v>16</v>
+      </c>
+      <c r="S48" t="s">
+        <v>17</v>
+      </c>
+      <c r="T48" t="s">
+        <v>18</v>
+      </c>
+      <c r="U48" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y48" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z48" s="51"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="67">
+        <v>5</v>
+      </c>
+      <c r="J50" s="19">
+        <v>14</v>
+      </c>
+      <c r="K50" s="19">
+        <v>14</v>
+      </c>
+      <c r="L50" s="19">
+        <v>14</v>
+      </c>
+      <c r="M50" s="21">
+        <v>14</v>
+      </c>
+      <c r="N50" s="21">
+        <v>14</v>
+      </c>
+      <c r="O50" s="21">
+        <v>14</v>
+      </c>
+      <c r="P50" s="21">
+        <v>4</v>
+      </c>
+      <c r="Q50" s="21">
+        <v>14</v>
+      </c>
+      <c r="R50" s="21">
+        <v>14</v>
+      </c>
+      <c r="S50" s="21">
+        <v>14</v>
+      </c>
+      <c r="T50" s="21">
+        <v>12</v>
+      </c>
+      <c r="U50" s="21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="21">
+        <v>12</v>
+      </c>
+      <c r="C51" s="20">
+        <v>12</v>
+      </c>
+      <c r="D51" s="21">
+        <v>12</v>
+      </c>
+      <c r="E51" s="21">
+        <v>12</v>
+      </c>
+      <c r="F51" s="21">
+        <v>12</v>
+      </c>
+      <c r="G51" s="21">
+        <v>14</v>
+      </c>
+      <c r="H51" s="21">
+        <v>14</v>
+      </c>
+      <c r="I51" s="21">
+        <v>14</v>
+      </c>
+      <c r="J51" s="21">
+        <v>14</v>
+      </c>
+      <c r="K51" s="21">
+        <v>14</v>
+      </c>
+      <c r="L51" s="21">
+        <v>14</v>
+      </c>
+      <c r="M51" s="21">
+        <v>14</v>
+      </c>
+      <c r="N51" s="21">
+        <v>14</v>
+      </c>
+      <c r="O51" s="21">
+        <v>12</v>
+      </c>
+      <c r="P51" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q51" s="21">
+        <v>6</v>
+      </c>
+      <c r="R51" s="21">
+        <v>6</v>
+      </c>
+      <c r="S51" s="21">
+        <v>2</v>
+      </c>
+      <c r="T51" s="19">
+        <v>2</v>
+      </c>
+      <c r="U51" s="19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="19">
+        <v>4</v>
+      </c>
+      <c r="C52" s="19">
+        <v>14</v>
+      </c>
+      <c r="D52" s="19">
+        <v>15</v>
+      </c>
+      <c r="E52" s="19">
+        <v>15</v>
+      </c>
+      <c r="F52" s="19">
+        <v>15</v>
+      </c>
+      <c r="G52" s="19">
+        <v>6</v>
+      </c>
+      <c r="H52" s="19">
+        <v>6</v>
+      </c>
+      <c r="I52" s="19">
+        <v>6</v>
+      </c>
+      <c r="J52" s="19">
+        <v>6</v>
+      </c>
+      <c r="K52" s="19">
+        <v>6</v>
+      </c>
+      <c r="L52" s="19">
+        <v>4</v>
+      </c>
+      <c r="M52" s="19">
+        <v>14</v>
+      </c>
+      <c r="N52" s="19">
+        <v>14</v>
+      </c>
+      <c r="O52" s="19">
+        <v>1</v>
+      </c>
+      <c r="P52" s="19">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="69">
+        <v>6</v>
+      </c>
+      <c r="R52" s="69">
+        <v>6</v>
+      </c>
+      <c r="S52" s="69">
+        <v>6</v>
+      </c>
+      <c r="T52" s="21">
+        <v>6</v>
+      </c>
+      <c r="U52" s="21">
+        <v>6</v>
+      </c>
+      <c r="W52">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="17">
+        <v>6</v>
+      </c>
+      <c r="C53" s="17">
+        <v>6</v>
+      </c>
+      <c r="D53" s="17">
+        <v>1</v>
+      </c>
+      <c r="E53" s="17">
+        <v>6</v>
+      </c>
+      <c r="F53" s="17">
+        <v>14</v>
+      </c>
+      <c r="G53" s="17">
+        <v>6</v>
+      </c>
+      <c r="H53" s="20">
+        <v>3</v>
+      </c>
+      <c r="I53" s="20">
+        <v>8</v>
+      </c>
+      <c r="J53" s="17">
+        <v>3</v>
+      </c>
+      <c r="K53" s="20">
+        <v>10</v>
+      </c>
+      <c r="L53" s="20">
+        <v>6</v>
+      </c>
+      <c r="M53" s="20">
+        <v>6</v>
+      </c>
+      <c r="N53" s="20">
+        <v>6</v>
+      </c>
+      <c r="O53" s="20">
+        <v>6</v>
+      </c>
+      <c r="P53" s="20">
+        <v>6</v>
+      </c>
+      <c r="Q53" s="20">
+        <v>6</v>
+      </c>
+      <c r="R53" s="20">
+        <v>6</v>
+      </c>
+      <c r="S53" s="20">
+        <v>6</v>
+      </c>
+      <c r="T53" s="20">
+        <v>6</v>
+      </c>
+      <c r="U53" s="20">
+        <v>6</v>
+      </c>
+      <c r="W53" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="X53" s="17"/>
+      <c r="Y53" s="17"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="17">
+        <v>4</v>
+      </c>
+      <c r="C54" s="17">
+        <v>9</v>
+      </c>
+      <c r="D54" s="17">
+        <v>9</v>
+      </c>
+      <c r="E54" s="17">
+        <v>9</v>
+      </c>
+      <c r="F54" s="17">
+        <v>9</v>
+      </c>
+      <c r="G54" s="17">
+        <v>9</v>
+      </c>
+      <c r="H54" s="17">
+        <v>9</v>
+      </c>
+      <c r="I54" s="17">
+        <v>9</v>
+      </c>
+      <c r="J54" s="68">
+        <v>9</v>
+      </c>
+      <c r="K54" s="68">
+        <v>9</v>
+      </c>
+      <c r="L54" s="68">
+        <v>9</v>
+      </c>
+      <c r="M54" s="68">
+        <v>9</v>
+      </c>
+      <c r="N54" s="68">
+        <v>2</v>
+      </c>
+      <c r="O54" s="21">
+        <v>2</v>
+      </c>
+      <c r="P54" s="21">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="21">
+        <v>4</v>
+      </c>
+      <c r="R54" s="21">
+        <v>4</v>
+      </c>
+      <c r="S54" s="21">
+        <v>4</v>
+      </c>
+      <c r="T54" s="21">
+        <v>9</v>
+      </c>
+      <c r="U54" s="21">
+        <v>4</v>
+      </c>
+      <c r="W54" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="X54" s="17">
+        <f>COUNTIF(B49:U83,"1")+COUNTIF(B49:U83,"2")+COUNTIF(B49:U83,"3")+COUNTIF(B49:U83,"4")+COUNTIF(B49:U83,"5")+COUNTIF(B49:U83,"6")+COUNTIF(B49:U83,"7")+COUNTIF(B49:U83,"8")</f>
+        <v>610</v>
+      </c>
+      <c r="Y54" s="25">
+        <f>610/671</f>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="17">
+        <v>6</v>
+      </c>
+      <c r="C55" s="17">
+        <v>6</v>
+      </c>
+      <c r="D55" s="17">
+        <v>6</v>
+      </c>
+      <c r="E55" s="17">
+        <v>10</v>
+      </c>
+      <c r="F55" s="17">
+        <v>6</v>
+      </c>
+      <c r="G55" s="17">
+        <v>6</v>
+      </c>
+      <c r="H55" s="17">
+        <v>6</v>
+      </c>
+      <c r="I55" s="17">
+        <v>6</v>
+      </c>
+      <c r="J55" s="17">
+        <v>6</v>
+      </c>
+      <c r="K55" s="17">
+        <v>6</v>
+      </c>
+      <c r="L55" s="17">
+        <v>6</v>
+      </c>
+      <c r="M55" s="17">
+        <v>6</v>
+      </c>
+      <c r="N55" s="21">
+        <v>6</v>
+      </c>
+      <c r="O55" s="22">
+        <v>6</v>
+      </c>
+      <c r="P55" s="22">
+        <v>6</v>
+      </c>
+      <c r="Q55" s="22">
+        <v>6</v>
+      </c>
+      <c r="R55" s="22">
+        <v>6</v>
+      </c>
+      <c r="S55" s="18">
+        <v>6</v>
+      </c>
+      <c r="T55" s="18">
+        <v>6</v>
+      </c>
+      <c r="U55" s="18">
+        <v>4</v>
+      </c>
+      <c r="W55" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="X55" s="17">
+        <f>COUNTIF(B49:U83,"9")+COUNTIF(B49:U83,"10")+COUNTIF(B49:U83,"11")+COUNTIF(B49:U83,"12")</f>
+        <v>31</v>
+      </c>
+      <c r="Y55" s="25">
+        <f>31/671</f>
+        <v>4.6199701937406856E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="17">
+        <v>9</v>
+      </c>
+      <c r="C56" s="17">
+        <v>4</v>
+      </c>
+      <c r="D56" s="17">
+        <v>10</v>
+      </c>
+      <c r="E56" s="17">
+        <v>10</v>
+      </c>
+      <c r="F56" s="17">
+        <v>10</v>
+      </c>
+      <c r="G56" s="17">
+        <v>10</v>
+      </c>
+      <c r="H56" s="17">
+        <v>10</v>
+      </c>
+      <c r="I56" s="17">
+        <v>10</v>
+      </c>
+      <c r="J56" s="17">
+        <v>10</v>
+      </c>
+      <c r="K56" s="17">
+        <v>10</v>
+      </c>
+      <c r="L56" s="17">
+        <v>4</v>
+      </c>
+      <c r="M56" s="17">
+        <v>6</v>
+      </c>
+      <c r="N56" s="21">
+        <v>6</v>
+      </c>
+      <c r="O56" s="21">
+        <v>6</v>
+      </c>
+      <c r="P56" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q56" s="21">
+        <v>6</v>
+      </c>
+      <c r="R56" s="17">
+        <v>2</v>
+      </c>
+      <c r="S56" s="17">
+        <v>6</v>
+      </c>
+      <c r="T56" s="17">
+        <v>6</v>
+      </c>
+      <c r="U56" s="17">
+        <v>6</v>
+      </c>
+      <c r="W56" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="X56" s="17">
+        <f>COUNTIF(B49:U83,"13")</f>
+        <v>6</v>
+      </c>
+      <c r="Y56" s="25">
+        <f>6/671</f>
+        <v>8.9418777943368107E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="17">
+        <v>6</v>
+      </c>
+      <c r="C57" s="17">
+        <v>6</v>
+      </c>
+      <c r="D57" s="17">
+        <v>6</v>
+      </c>
+      <c r="E57" s="17">
+        <v>6</v>
+      </c>
+      <c r="F57" s="17">
+        <v>6</v>
+      </c>
+      <c r="G57" s="17">
+        <v>6</v>
+      </c>
+      <c r="H57" s="17">
+        <v>6</v>
+      </c>
+      <c r="I57" s="17">
+        <v>6</v>
+      </c>
+      <c r="J57" s="21">
+        <v>6</v>
+      </c>
+      <c r="K57" s="17">
+        <v>6</v>
+      </c>
+      <c r="L57" s="17">
+        <v>6</v>
+      </c>
+      <c r="M57" s="17">
+        <v>6</v>
+      </c>
+      <c r="N57" s="17">
+        <v>6</v>
+      </c>
+      <c r="O57" s="17">
+        <v>6</v>
+      </c>
+      <c r="P57" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q57" s="17">
+        <v>6</v>
+      </c>
+      <c r="R57" s="17">
+        <v>6</v>
+      </c>
+      <c r="S57" s="21">
+        <v>6</v>
+      </c>
+      <c r="T57" s="21">
+        <v>6</v>
+      </c>
+      <c r="U57" s="21">
+        <v>6</v>
+      </c>
+      <c r="W57" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="X57" s="17">
+        <f>COUNTIF(B49:U83,"15")</f>
+        <v>3</v>
+      </c>
+      <c r="Y57" s="25">
+        <f>3/671</f>
+        <v>4.4709388971684054E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="17">
+        <v>6</v>
+      </c>
+      <c r="C58" s="17">
+        <v>6</v>
+      </c>
+      <c r="D58" s="17">
+        <v>6</v>
+      </c>
+      <c r="E58" s="17">
+        <v>6</v>
+      </c>
+      <c r="F58" s="17">
+        <v>14</v>
+      </c>
+      <c r="G58" s="17">
+        <v>1</v>
+      </c>
+      <c r="H58" s="17">
+        <v>6</v>
+      </c>
+      <c r="I58" s="17">
+        <v>6</v>
+      </c>
+      <c r="J58" s="21">
+        <v>6</v>
+      </c>
+      <c r="K58" s="21">
+        <v>6</v>
+      </c>
+      <c r="L58" s="21">
+        <v>6</v>
+      </c>
+      <c r="M58" s="21">
+        <v>6</v>
+      </c>
+      <c r="N58" s="17">
+        <v>6</v>
+      </c>
+      <c r="O58" s="17">
+        <v>6</v>
+      </c>
+      <c r="P58" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q58" s="17">
+        <v>6</v>
+      </c>
+      <c r="R58" s="17">
+        <v>6</v>
+      </c>
+      <c r="S58" s="21">
+        <v>6</v>
+      </c>
+      <c r="T58" s="21">
+        <v>6</v>
+      </c>
+      <c r="U58" s="21">
+        <v>6</v>
+      </c>
+      <c r="W58" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="X58" s="17">
+        <v>21</v>
+      </c>
+      <c r="Y58" s="25">
+        <f>21/671</f>
+        <v>3.129657228017884E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="17">
+        <v>6</v>
+      </c>
+      <c r="C59" s="17">
+        <v>6</v>
+      </c>
+      <c r="D59" s="21">
+        <v>6</v>
+      </c>
+      <c r="E59" s="21">
+        <v>6</v>
+      </c>
+      <c r="F59" s="21">
+        <v>6</v>
+      </c>
+      <c r="G59" s="21">
+        <v>6</v>
+      </c>
+      <c r="H59" s="17">
+        <v>6</v>
+      </c>
+      <c r="I59" s="17">
+        <v>6</v>
+      </c>
+      <c r="J59" s="17">
+        <v>6</v>
+      </c>
+      <c r="K59" s="17">
+        <v>6</v>
+      </c>
+      <c r="L59" s="17">
+        <v>6</v>
+      </c>
+      <c r="M59" s="21">
+        <v>6</v>
+      </c>
+      <c r="N59" s="21">
+        <v>6</v>
+      </c>
+      <c r="O59" s="21">
+        <v>6</v>
+      </c>
+      <c r="P59" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q59" s="17">
+        <v>6</v>
+      </c>
+      <c r="R59" s="17">
+        <v>6</v>
+      </c>
+      <c r="S59" s="17">
+        <v>6</v>
+      </c>
+      <c r="T59" s="17">
+        <v>6</v>
+      </c>
+      <c r="U59" s="21">
+        <v>6</v>
+      </c>
+      <c r="W59" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="X59" s="17">
+        <v>29</v>
+      </c>
+      <c r="Y59" s="25">
+        <f>29/671</f>
+        <v>4.3219076005961254E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="17">
+        <v>6</v>
+      </c>
+      <c r="C60" s="17">
+        <v>6</v>
+      </c>
+      <c r="D60" s="21">
+        <v>6</v>
+      </c>
+      <c r="E60" s="21">
+        <v>6</v>
+      </c>
+      <c r="F60" s="21">
+        <v>6</v>
+      </c>
+      <c r="G60" s="21">
+        <v>6</v>
+      </c>
+      <c r="H60" s="17">
+        <v>6</v>
+      </c>
+      <c r="I60" s="17">
+        <v>6</v>
+      </c>
+      <c r="J60" s="17">
+        <v>6</v>
+      </c>
+      <c r="K60" s="17">
+        <v>6</v>
+      </c>
+      <c r="L60" s="17">
+        <v>6</v>
+      </c>
+      <c r="M60" s="21">
+        <v>6</v>
+      </c>
+      <c r="N60" s="21">
+        <v>6</v>
+      </c>
+      <c r="O60" s="21">
+        <v>6</v>
+      </c>
+      <c r="P60" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q60" s="17">
+        <v>6</v>
+      </c>
+      <c r="R60" s="17">
+        <v>6</v>
+      </c>
+      <c r="S60" s="17">
+        <v>6</v>
+      </c>
+      <c r="T60" s="17">
+        <v>6</v>
+      </c>
+      <c r="U60" s="21">
+        <v>6</v>
+      </c>
+      <c r="W60" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="X60" s="21">
+        <f>SUM(X58:X59)</f>
+        <v>50</v>
+      </c>
+      <c r="Y60" s="25">
+        <f>50/671</f>
+        <v>7.4515648286140088E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="17">
+        <v>6</v>
+      </c>
+      <c r="C61" s="17">
+        <v>6</v>
+      </c>
+      <c r="D61" s="21">
+        <v>6</v>
+      </c>
+      <c r="E61" s="21">
+        <v>6</v>
+      </c>
+      <c r="F61" s="21">
+        <v>6</v>
+      </c>
+      <c r="G61" s="21">
+        <v>6</v>
+      </c>
+      <c r="H61" s="17">
+        <v>6</v>
+      </c>
+      <c r="I61" s="17">
+        <v>6</v>
+      </c>
+      <c r="J61" s="17">
+        <v>6</v>
+      </c>
+      <c r="K61" s="17">
+        <v>6</v>
+      </c>
+      <c r="L61" s="17">
+        <v>6</v>
+      </c>
+      <c r="M61" s="21">
+        <v>6</v>
+      </c>
+      <c r="N61" s="21">
+        <v>6</v>
+      </c>
+      <c r="O61" s="21">
+        <v>6</v>
+      </c>
+      <c r="P61" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q61" s="17">
+        <v>6</v>
+      </c>
+      <c r="R61" s="17">
+        <v>6</v>
+      </c>
+      <c r="S61" s="17">
+        <v>6</v>
+      </c>
+      <c r="T61" s="17">
+        <v>6</v>
+      </c>
+      <c r="U61" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="17">
+        <v>6</v>
+      </c>
+      <c r="C62" s="17">
+        <v>6</v>
+      </c>
+      <c r="D62" s="21">
+        <v>6</v>
+      </c>
+      <c r="E62" s="21">
+        <v>6</v>
+      </c>
+      <c r="F62" s="21">
+        <v>6</v>
+      </c>
+      <c r="G62" s="21">
+        <v>6</v>
+      </c>
+      <c r="H62" s="17">
+        <v>6</v>
+      </c>
+      <c r="I62" s="17">
+        <v>6</v>
+      </c>
+      <c r="J62" s="17">
+        <v>6</v>
+      </c>
+      <c r="K62" s="17">
+        <v>6</v>
+      </c>
+      <c r="L62" s="17">
+        <v>6</v>
+      </c>
+      <c r="M62" s="21">
+        <v>6</v>
+      </c>
+      <c r="N62" s="21">
+        <v>6</v>
+      </c>
+      <c r="O62" s="21">
+        <v>6</v>
+      </c>
+      <c r="P62" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q62" s="17">
+        <v>6</v>
+      </c>
+      <c r="R62" s="17">
+        <v>6</v>
+      </c>
+      <c r="S62" s="17">
+        <v>6</v>
+      </c>
+      <c r="T62" s="17">
+        <v>6</v>
+      </c>
+      <c r="U62" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="17">
+        <v>6</v>
+      </c>
+      <c r="C63" s="17">
+        <v>6</v>
+      </c>
+      <c r="D63" s="21">
+        <v>6</v>
+      </c>
+      <c r="E63" s="21">
+        <v>6</v>
+      </c>
+      <c r="F63" s="21">
+        <v>6</v>
+      </c>
+      <c r="G63" s="21">
+        <v>6</v>
+      </c>
+      <c r="H63" s="17">
+        <v>6</v>
+      </c>
+      <c r="I63" s="17">
+        <v>6</v>
+      </c>
+      <c r="J63" s="17">
+        <v>6</v>
+      </c>
+      <c r="K63" s="17">
+        <v>6</v>
+      </c>
+      <c r="L63" s="17">
+        <v>6</v>
+      </c>
+      <c r="M63" s="21">
+        <v>6</v>
+      </c>
+      <c r="N63" s="21">
+        <v>6</v>
+      </c>
+      <c r="O63" s="21">
+        <v>6</v>
+      </c>
+      <c r="P63" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q63" s="17">
+        <v>6</v>
+      </c>
+      <c r="R63" s="17">
+        <v>6</v>
+      </c>
+      <c r="S63" s="17">
+        <v>6</v>
+      </c>
+      <c r="T63" s="17">
+        <v>6</v>
+      </c>
+      <c r="U63" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="17">
+        <v>6</v>
+      </c>
+      <c r="C64" s="17">
+        <v>6</v>
+      </c>
+      <c r="D64" s="21">
+        <v>6</v>
+      </c>
+      <c r="E64" s="21">
+        <v>6</v>
+      </c>
+      <c r="F64" s="21">
+        <v>6</v>
+      </c>
+      <c r="G64" s="21">
+        <v>6</v>
+      </c>
+      <c r="H64" s="17">
+        <v>6</v>
+      </c>
+      <c r="I64" s="17">
+        <v>6</v>
+      </c>
+      <c r="J64" s="17">
+        <v>6</v>
+      </c>
+      <c r="K64" s="17">
+        <v>6</v>
+      </c>
+      <c r="L64" s="17">
+        <v>6</v>
+      </c>
+      <c r="M64" s="21">
+        <v>6</v>
+      </c>
+      <c r="N64" s="21">
+        <v>6</v>
+      </c>
+      <c r="O64" s="21">
+        <v>6</v>
+      </c>
+      <c r="P64" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q64" s="17">
+        <v>6</v>
+      </c>
+      <c r="R64" s="17">
+        <v>6</v>
+      </c>
+      <c r="S64" s="17">
+        <v>6</v>
+      </c>
+      <c r="T64" s="17">
+        <v>6</v>
+      </c>
+      <c r="U64" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="17">
+        <v>6</v>
+      </c>
+      <c r="C65" s="17">
+        <v>6</v>
+      </c>
+      <c r="D65" s="21">
+        <v>6</v>
+      </c>
+      <c r="E65" s="21">
+        <v>6</v>
+      </c>
+      <c r="F65" s="21">
+        <v>6</v>
+      </c>
+      <c r="G65" s="21">
+        <v>6</v>
+      </c>
+      <c r="H65" s="17">
+        <v>6</v>
+      </c>
+      <c r="I65" s="17">
+        <v>6</v>
+      </c>
+      <c r="J65" s="17">
+        <v>6</v>
+      </c>
+      <c r="K65" s="17">
+        <v>6</v>
+      </c>
+      <c r="L65" s="17">
+        <v>6</v>
+      </c>
+      <c r="M65" s="21">
+        <v>6</v>
+      </c>
+      <c r="N65" s="21">
+        <v>6</v>
+      </c>
+      <c r="O65" s="21">
+        <v>6</v>
+      </c>
+      <c r="P65" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q65" s="17">
+        <v>6</v>
+      </c>
+      <c r="R65" s="17">
+        <v>6</v>
+      </c>
+      <c r="S65" s="17">
+        <v>6</v>
+      </c>
+      <c r="T65" s="17">
+        <v>6</v>
+      </c>
+      <c r="U65" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="17">
+        <v>6</v>
+      </c>
+      <c r="C66" s="17">
+        <v>6</v>
+      </c>
+      <c r="D66" s="21">
+        <v>6</v>
+      </c>
+      <c r="E66" s="21">
+        <v>6</v>
+      </c>
+      <c r="F66" s="21">
+        <v>6</v>
+      </c>
+      <c r="G66" s="21">
+        <v>6</v>
+      </c>
+      <c r="H66" s="17">
+        <v>6</v>
+      </c>
+      <c r="I66" s="17">
+        <v>6</v>
+      </c>
+      <c r="J66" s="17">
+        <v>6</v>
+      </c>
+      <c r="K66" s="17">
+        <v>6</v>
+      </c>
+      <c r="L66" s="17">
+        <v>6</v>
+      </c>
+      <c r="M66" s="21">
+        <v>6</v>
+      </c>
+      <c r="N66" s="21">
+        <v>6</v>
+      </c>
+      <c r="O66" s="21">
+        <v>6</v>
+      </c>
+      <c r="P66" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q66" s="17">
+        <v>6</v>
+      </c>
+      <c r="R66" s="17">
+        <v>6</v>
+      </c>
+      <c r="S66" s="17">
+        <v>6</v>
+      </c>
+      <c r="T66" s="17">
+        <v>6</v>
+      </c>
+      <c r="U66" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="17">
+        <v>6</v>
+      </c>
+      <c r="C67" s="17">
+        <v>6</v>
+      </c>
+      <c r="D67" s="21">
+        <v>6</v>
+      </c>
+      <c r="E67" s="21">
+        <v>6</v>
+      </c>
+      <c r="F67" s="21">
+        <v>6</v>
+      </c>
+      <c r="G67" s="21">
+        <v>6</v>
+      </c>
+      <c r="H67" s="17">
+        <v>6</v>
+      </c>
+      <c r="I67" s="17">
+        <v>6</v>
+      </c>
+      <c r="J67" s="17">
+        <v>6</v>
+      </c>
+      <c r="K67" s="17">
+        <v>6</v>
+      </c>
+      <c r="L67" s="17">
+        <v>6</v>
+      </c>
+      <c r="M67" s="21">
+        <v>6</v>
+      </c>
+      <c r="N67" s="21">
+        <v>6</v>
+      </c>
+      <c r="O67" s="21">
+        <v>6</v>
+      </c>
+      <c r="P67" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q67" s="17">
+        <v>6</v>
+      </c>
+      <c r="R67" s="17">
+        <v>6</v>
+      </c>
+      <c r="S67" s="17">
+        <v>6</v>
+      </c>
+      <c r="T67" s="17">
+        <v>6</v>
+      </c>
+      <c r="U67" s="21">
+        <v>6</v>
+      </c>
+      <c r="W67" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="X67" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="17">
+        <v>6</v>
+      </c>
+      <c r="C68" s="17">
+        <v>6</v>
+      </c>
+      <c r="D68" s="21">
+        <v>6</v>
+      </c>
+      <c r="E68" s="21">
+        <v>6</v>
+      </c>
+      <c r="F68" s="21">
+        <v>6</v>
+      </c>
+      <c r="G68" s="21">
+        <v>6</v>
+      </c>
+      <c r="H68" s="17">
+        <v>6</v>
+      </c>
+      <c r="I68" s="17">
+        <v>6</v>
+      </c>
+      <c r="J68" s="17">
+        <v>6</v>
+      </c>
+      <c r="K68" s="17">
+        <v>6</v>
+      </c>
+      <c r="L68" s="17">
+        <v>6</v>
+      </c>
+      <c r="M68" s="21">
+        <v>6</v>
+      </c>
+      <c r="N68" s="21">
+        <v>6</v>
+      </c>
+      <c r="O68" s="21">
+        <v>6</v>
+      </c>
+      <c r="P68" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q68" s="17">
+        <v>6</v>
+      </c>
+      <c r="R68" s="17">
+        <v>6</v>
+      </c>
+      <c r="S68" s="17">
+        <v>6</v>
+      </c>
+      <c r="T68" s="17">
+        <v>6</v>
+      </c>
+      <c r="U68" s="21">
+        <v>6</v>
+      </c>
+      <c r="W68" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="X68" s="25">
+        <v>0.91356184798807749</v>
+      </c>
+      <c r="Y68" s="25">
+        <f>610/671</f>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="17">
+        <v>6</v>
+      </c>
+      <c r="C69" s="17">
+        <v>6</v>
+      </c>
+      <c r="D69" s="21">
+        <v>6</v>
+      </c>
+      <c r="E69" s="21">
+        <v>6</v>
+      </c>
+      <c r="F69" s="21">
+        <v>6</v>
+      </c>
+      <c r="G69" s="21">
+        <v>6</v>
+      </c>
+      <c r="H69" s="17">
+        <v>6</v>
+      </c>
+      <c r="I69" s="17">
+        <v>6</v>
+      </c>
+      <c r="J69" s="17">
+        <v>6</v>
+      </c>
+      <c r="K69" s="17">
+        <v>6</v>
+      </c>
+      <c r="L69" s="17">
+        <v>6</v>
+      </c>
+      <c r="M69" s="21">
+        <v>6</v>
+      </c>
+      <c r="N69" s="21">
+        <v>6</v>
+      </c>
+      <c r="O69" s="21">
+        <v>6</v>
+      </c>
+      <c r="P69" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q69" s="17">
+        <v>6</v>
+      </c>
+      <c r="R69" s="17">
+        <v>6</v>
+      </c>
+      <c r="S69" s="17">
+        <v>6</v>
+      </c>
+      <c r="T69" s="17">
+        <v>6</v>
+      </c>
+      <c r="U69" s="21">
+        <v>6</v>
+      </c>
+      <c r="W69" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="X69" s="25">
+        <v>6.259314456035768E-2</v>
+      </c>
+      <c r="Y69" s="25">
+        <f>31/671</f>
+        <v>4.6199701937406856E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" s="17">
+        <v>6</v>
+      </c>
+      <c r="C70" s="17">
+        <v>6</v>
+      </c>
+      <c r="D70" s="21">
+        <v>6</v>
+      </c>
+      <c r="E70" s="21">
+        <v>6</v>
+      </c>
+      <c r="F70" s="21">
+        <v>6</v>
+      </c>
+      <c r="G70" s="21">
+        <v>6</v>
+      </c>
+      <c r="H70" s="17">
+        <v>6</v>
+      </c>
+      <c r="I70" s="17">
+        <v>6</v>
+      </c>
+      <c r="J70" s="17">
+        <v>6</v>
+      </c>
+      <c r="K70" s="17">
+        <v>6</v>
+      </c>
+      <c r="L70" s="17">
+        <v>6</v>
+      </c>
+      <c r="M70" s="21">
+        <v>6</v>
+      </c>
+      <c r="N70" s="21">
+        <v>6</v>
+      </c>
+      <c r="O70" s="21">
+        <v>6</v>
+      </c>
+      <c r="P70" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q70" s="17">
+        <v>6</v>
+      </c>
+      <c r="R70" s="17">
+        <v>6</v>
+      </c>
+      <c r="S70" s="17">
+        <v>6</v>
+      </c>
+      <c r="T70" s="17">
+        <v>6</v>
+      </c>
+      <c r="U70" s="21">
+        <v>6</v>
+      </c>
+      <c r="W70" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="X70" s="25">
+        <f>8/671</f>
+        <v>1.1922503725782414E-2</v>
+      </c>
+      <c r="Y70" s="25">
+        <f>6/671</f>
+        <v>8.9418777943368107E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="17">
+        <v>6</v>
+      </c>
+      <c r="C71" s="17">
+        <v>6</v>
+      </c>
+      <c r="D71" s="21">
+        <v>6</v>
+      </c>
+      <c r="E71" s="21">
+        <v>6</v>
+      </c>
+      <c r="F71" s="21">
+        <v>6</v>
+      </c>
+      <c r="G71" s="21">
+        <v>6</v>
+      </c>
+      <c r="H71" s="17">
+        <v>6</v>
+      </c>
+      <c r="I71" s="17">
+        <v>6</v>
+      </c>
+      <c r="J71" s="17">
+        <v>6</v>
+      </c>
+      <c r="K71" s="17">
+        <v>6</v>
+      </c>
+      <c r="L71" s="17">
+        <v>6</v>
+      </c>
+      <c r="M71" s="21">
+        <v>6</v>
+      </c>
+      <c r="N71" s="21">
+        <v>6</v>
+      </c>
+      <c r="O71" s="21">
+        <v>6</v>
+      </c>
+      <c r="P71" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q71" s="17">
+        <v>6</v>
+      </c>
+      <c r="R71" s="17">
+        <v>6</v>
+      </c>
+      <c r="S71" s="17">
+        <v>6</v>
+      </c>
+      <c r="T71" s="17">
+        <v>6</v>
+      </c>
+      <c r="U71" s="21">
+        <v>6</v>
+      </c>
+      <c r="W71" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="X71" s="25">
+        <f>0/699</f>
+        <v>0</v>
+      </c>
+      <c r="Y71" s="25">
+        <f>3/671</f>
+        <v>4.4709388971684054E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" s="17">
+        <v>6</v>
+      </c>
+      <c r="C72" s="17">
+        <v>6</v>
+      </c>
+      <c r="D72" s="21">
+        <v>6</v>
+      </c>
+      <c r="E72" s="21">
+        <v>6</v>
+      </c>
+      <c r="F72" s="21">
+        <v>6</v>
+      </c>
+      <c r="G72" s="21">
+        <v>6</v>
+      </c>
+      <c r="H72" s="17">
+        <v>6</v>
+      </c>
+      <c r="I72" s="17">
+        <v>6</v>
+      </c>
+      <c r="J72" s="17">
+        <v>6</v>
+      </c>
+      <c r="K72" s="17">
+        <v>6</v>
+      </c>
+      <c r="L72" s="17">
+        <v>6</v>
+      </c>
+      <c r="M72" s="21">
+        <v>6</v>
+      </c>
+      <c r="N72" s="21">
+        <v>6</v>
+      </c>
+      <c r="O72" s="21">
+        <v>6</v>
+      </c>
+      <c r="P72" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q72" s="17">
+        <v>6</v>
+      </c>
+      <c r="R72" s="17">
+        <v>6</v>
+      </c>
+      <c r="S72" s="17">
+        <v>6</v>
+      </c>
+      <c r="T72" s="17">
+        <v>6</v>
+      </c>
+      <c r="U72" s="21">
+        <v>6</v>
+      </c>
+      <c r="W72" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="X72" s="25">
+        <f>28/671</f>
+        <v>4.1728763040238454E-2</v>
+      </c>
+      <c r="Y72" s="25">
+        <f>21/671</f>
+        <v>3.129657228017884E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="17">
+        <v>6</v>
+      </c>
+      <c r="C73" s="17">
+        <v>6</v>
+      </c>
+      <c r="D73" s="21">
+        <v>6</v>
+      </c>
+      <c r="E73" s="21">
+        <v>6</v>
+      </c>
+      <c r="F73" s="21">
+        <v>6</v>
+      </c>
+      <c r="G73" s="21">
+        <v>6</v>
+      </c>
+      <c r="H73" s="17">
+        <v>6</v>
+      </c>
+      <c r="I73" s="17">
+        <v>6</v>
+      </c>
+      <c r="J73" s="17">
+        <v>6</v>
+      </c>
+      <c r="K73" s="17">
+        <v>6</v>
+      </c>
+      <c r="L73" s="17">
+        <v>6</v>
+      </c>
+      <c r="M73" s="21">
+        <v>6</v>
+      </c>
+      <c r="N73" s="21">
+        <v>6</v>
+      </c>
+      <c r="O73" s="21">
+        <v>6</v>
+      </c>
+      <c r="P73" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q73" s="17">
+        <v>6</v>
+      </c>
+      <c r="R73" s="17">
+        <v>6</v>
+      </c>
+      <c r="S73" s="17">
+        <v>6</v>
+      </c>
+      <c r="T73" s="17">
+        <v>6</v>
+      </c>
+      <c r="U73" s="21">
+        <v>6</v>
+      </c>
+      <c r="W73" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="X73" s="25">
+        <f>17/671</f>
+        <v>2.533532041728763E-2</v>
+      </c>
+      <c r="Y73" s="25">
+        <f>29/671</f>
+        <v>4.3219076005961254E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="17">
+        <v>6</v>
+      </c>
+      <c r="C74" s="17">
+        <v>6</v>
+      </c>
+      <c r="D74" s="21">
+        <v>6</v>
+      </c>
+      <c r="E74" s="21">
+        <v>6</v>
+      </c>
+      <c r="F74" s="21">
+        <v>6</v>
+      </c>
+      <c r="G74" s="21">
+        <v>6</v>
+      </c>
+      <c r="H74" s="17">
+        <v>6</v>
+      </c>
+      <c r="I74" s="17">
+        <v>6</v>
+      </c>
+      <c r="J74" s="17">
+        <v>6</v>
+      </c>
+      <c r="K74" s="17">
+        <v>6</v>
+      </c>
+      <c r="L74" s="17">
+        <v>6</v>
+      </c>
+      <c r="M74" s="21">
+        <v>6</v>
+      </c>
+      <c r="N74" s="21">
+        <v>6</v>
+      </c>
+      <c r="O74" s="21">
+        <v>6</v>
+      </c>
+      <c r="P74" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q74" s="17">
+        <v>6</v>
+      </c>
+      <c r="R74" s="17">
+        <v>6</v>
+      </c>
+      <c r="S74" s="17">
+        <v>6</v>
+      </c>
+      <c r="T74" s="17">
+        <v>6</v>
+      </c>
+      <c r="U74" s="21">
+        <v>6</v>
+      </c>
+      <c r="W74" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="X74" s="25">
+        <f>45/671</f>
+        <v>6.7064083457526083E-2</v>
+      </c>
+      <c r="Y74" s="25">
+        <f>50/671</f>
+        <v>7.4515648286140088E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="17">
+        <v>13</v>
+      </c>
+      <c r="C75" s="17">
+        <v>13</v>
+      </c>
+      <c r="D75" s="21">
+        <v>6</v>
+      </c>
+      <c r="E75" s="21">
+        <v>6</v>
+      </c>
+      <c r="F75" s="21">
+        <v>6</v>
+      </c>
+      <c r="G75" s="21">
+        <v>6</v>
+      </c>
+      <c r="H75" s="21">
+        <v>6</v>
+      </c>
+      <c r="I75" s="21">
+        <v>6</v>
+      </c>
+      <c r="J75" s="21">
+        <v>6</v>
+      </c>
+      <c r="K75" s="21">
+        <v>6</v>
+      </c>
+      <c r="L75" s="21">
+        <v>6</v>
+      </c>
+      <c r="M75" s="21">
+        <v>6</v>
+      </c>
+      <c r="N75" s="21">
+        <v>6</v>
+      </c>
+      <c r="O75" s="21">
+        <v>13</v>
+      </c>
+      <c r="P75" s="21">
+        <v>13</v>
+      </c>
+      <c r="Q75" s="21">
+        <v>13</v>
+      </c>
+      <c r="R75" s="21">
+        <v>6</v>
+      </c>
+      <c r="S75" s="21">
+        <v>6</v>
+      </c>
+      <c r="T75" s="21">
+        <v>6</v>
+      </c>
+      <c r="U75" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" s="17">
+        <v>6</v>
+      </c>
+      <c r="C76" s="17">
+        <v>6</v>
+      </c>
+      <c r="D76" s="21">
+        <v>6</v>
+      </c>
+      <c r="E76" s="21">
+        <v>6</v>
+      </c>
+      <c r="F76" s="21">
+        <v>6</v>
+      </c>
+      <c r="G76" s="21">
+        <v>6</v>
+      </c>
+      <c r="H76" s="21">
+        <v>6</v>
+      </c>
+      <c r="I76" s="21">
+        <v>6</v>
+      </c>
+      <c r="J76" s="21">
+        <v>6</v>
+      </c>
+      <c r="K76" s="21">
+        <v>6</v>
+      </c>
+      <c r="L76" s="21">
+        <v>6</v>
+      </c>
+      <c r="M76" s="21">
+        <v>6</v>
+      </c>
+      <c r="N76" s="21">
+        <v>6</v>
+      </c>
+      <c r="O76" s="21">
+        <v>6</v>
+      </c>
+      <c r="P76" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q76" s="21">
+        <v>6</v>
+      </c>
+      <c r="R76" s="21">
+        <v>6</v>
+      </c>
+      <c r="S76" s="21">
+        <v>6</v>
+      </c>
+      <c r="T76" s="21">
+        <v>6</v>
+      </c>
+      <c r="U76" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" s="17">
+        <v>6</v>
+      </c>
+      <c r="C77" s="17">
+        <v>6</v>
+      </c>
+      <c r="D77" s="21">
+        <v>6</v>
+      </c>
+      <c r="E77" s="21">
+        <v>6</v>
+      </c>
+      <c r="F77" s="21">
+        <v>6</v>
+      </c>
+      <c r="G77" s="21">
+        <v>6</v>
+      </c>
+      <c r="H77" s="21">
+        <v>6</v>
+      </c>
+      <c r="I77" s="21">
+        <v>6</v>
+      </c>
+      <c r="J77" s="21">
+        <v>6</v>
+      </c>
+      <c r="K77" s="21">
+        <v>6</v>
+      </c>
+      <c r="L77" s="21">
+        <v>6</v>
+      </c>
+      <c r="M77" s="21">
+        <v>6</v>
+      </c>
+      <c r="N77" s="21">
+        <v>6</v>
+      </c>
+      <c r="O77" s="21">
+        <v>6</v>
+      </c>
+      <c r="P77" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q77" s="21">
+        <v>6</v>
+      </c>
+      <c r="R77" s="21">
+        <v>6</v>
+      </c>
+      <c r="S77" s="21">
+        <v>6</v>
+      </c>
+      <c r="T77" s="21">
+        <v>6</v>
+      </c>
+      <c r="U77" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" s="17">
+        <v>6</v>
+      </c>
+      <c r="C78" s="17">
+        <v>6</v>
+      </c>
+      <c r="D78" s="21">
+        <v>6</v>
+      </c>
+      <c r="E78" s="21">
+        <v>6</v>
+      </c>
+      <c r="F78" s="21">
+        <v>6</v>
+      </c>
+      <c r="G78" s="21">
+        <v>6</v>
+      </c>
+      <c r="H78" s="21">
+        <v>6</v>
+      </c>
+      <c r="I78" s="21">
+        <v>6</v>
+      </c>
+      <c r="J78" s="21">
+        <v>6</v>
+      </c>
+      <c r="K78" s="21">
+        <v>6</v>
+      </c>
+      <c r="L78" s="21">
+        <v>6</v>
+      </c>
+      <c r="M78" s="21">
+        <v>6</v>
+      </c>
+      <c r="N78" s="21">
+        <v>6</v>
+      </c>
+      <c r="O78" s="21">
+        <v>6</v>
+      </c>
+      <c r="P78" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q78" s="21">
+        <v>6</v>
+      </c>
+      <c r="R78" s="21">
+        <v>6</v>
+      </c>
+      <c r="S78" s="21">
+        <v>6</v>
+      </c>
+      <c r="T78" s="21">
+        <v>6</v>
+      </c>
+      <c r="U78" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>51</v>
+      </c>
+      <c r="B79" s="17">
+        <v>6</v>
+      </c>
+      <c r="C79" s="17">
+        <v>6</v>
+      </c>
+      <c r="D79" s="21">
+        <v>6</v>
+      </c>
+      <c r="E79" s="21">
+        <v>6</v>
+      </c>
+      <c r="F79" s="21">
+        <v>6</v>
+      </c>
+      <c r="G79" s="21">
+        <v>6</v>
+      </c>
+      <c r="H79" s="21">
+        <v>6</v>
+      </c>
+      <c r="I79" s="21">
+        <v>6</v>
+      </c>
+      <c r="J79" s="21">
+        <v>6</v>
+      </c>
+      <c r="K79" s="21">
+        <v>6</v>
+      </c>
+      <c r="L79" s="21">
+        <v>6</v>
+      </c>
+      <c r="M79" s="21">
+        <v>6</v>
+      </c>
+      <c r="N79" s="21">
+        <v>6</v>
+      </c>
+      <c r="O79" s="21">
+        <v>6</v>
+      </c>
+      <c r="P79" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q79" s="21">
+        <v>6</v>
+      </c>
+      <c r="R79" s="21">
+        <v>6</v>
+      </c>
+      <c r="S79" s="21">
+        <v>6</v>
+      </c>
+      <c r="T79" s="21">
+        <v>6</v>
+      </c>
+      <c r="U79" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80" s="17">
+        <v>6</v>
+      </c>
+      <c r="C80" s="17">
+        <v>6</v>
+      </c>
+      <c r="D80" s="21">
+        <v>6</v>
+      </c>
+      <c r="E80" s="21">
+        <v>6</v>
+      </c>
+      <c r="F80" s="21">
+        <v>6</v>
+      </c>
+      <c r="G80" s="21">
+        <v>6</v>
+      </c>
+      <c r="H80" s="21">
+        <v>6</v>
+      </c>
+      <c r="I80" s="21">
+        <v>6</v>
+      </c>
+      <c r="J80" s="21">
+        <v>6</v>
+      </c>
+      <c r="K80" s="21">
+        <v>6</v>
+      </c>
+      <c r="L80" s="21">
+        <v>6</v>
+      </c>
+      <c r="M80" s="21">
+        <v>6</v>
+      </c>
+      <c r="N80" s="21">
+        <v>6</v>
+      </c>
+      <c r="O80" s="21">
+        <v>6</v>
+      </c>
+      <c r="P80" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q80" s="21">
+        <v>6</v>
+      </c>
+      <c r="R80" s="21">
+        <v>6</v>
+      </c>
+      <c r="S80" s="21">
+        <v>6</v>
+      </c>
+      <c r="T80" s="21">
+        <v>6</v>
+      </c>
+      <c r="U80" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>53</v>
+      </c>
+      <c r="B81" s="17">
+        <v>6</v>
+      </c>
+      <c r="C81" s="17">
+        <v>6</v>
+      </c>
+      <c r="D81" s="21">
+        <v>6</v>
+      </c>
+      <c r="E81" s="21">
+        <v>6</v>
+      </c>
+      <c r="F81" s="21">
+        <v>6</v>
+      </c>
+      <c r="G81" s="21">
+        <v>6</v>
+      </c>
+      <c r="H81" s="21">
+        <v>6</v>
+      </c>
+      <c r="I81" s="21">
+        <v>6</v>
+      </c>
+      <c r="J81" s="21">
+        <v>6</v>
+      </c>
+      <c r="K81" s="21">
+        <v>6</v>
+      </c>
+      <c r="L81" s="21">
+        <v>6</v>
+      </c>
+      <c r="M81" s="21">
+        <v>6</v>
+      </c>
+      <c r="N81" s="21">
+        <v>6</v>
+      </c>
+      <c r="O81" s="21">
+        <v>6</v>
+      </c>
+      <c r="P81" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q81" s="21">
+        <v>6</v>
+      </c>
+      <c r="R81" s="21">
+        <v>6</v>
+      </c>
+      <c r="S81" s="21">
+        <v>6</v>
+      </c>
+      <c r="T81" s="21">
+        <v>6</v>
+      </c>
+      <c r="U81" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" s="17">
+        <v>6</v>
+      </c>
+      <c r="C82" s="17">
+        <v>6</v>
+      </c>
+      <c r="D82" s="21">
+        <v>6</v>
+      </c>
+      <c r="E82" s="21">
+        <v>6</v>
+      </c>
+      <c r="F82" s="21">
+        <v>6</v>
+      </c>
+      <c r="G82" s="21">
+        <v>6</v>
+      </c>
+      <c r="H82" s="21">
+        <v>6</v>
+      </c>
+      <c r="I82" s="21">
+        <v>6</v>
+      </c>
+      <c r="J82" s="21">
+        <v>6</v>
+      </c>
+      <c r="K82" s="21">
+        <v>6</v>
+      </c>
+      <c r="L82" s="21">
+        <v>6</v>
+      </c>
+      <c r="M82" s="21">
+        <v>6</v>
+      </c>
+      <c r="N82" s="21">
+        <v>6</v>
+      </c>
+      <c r="O82" s="21">
+        <v>6</v>
+      </c>
+      <c r="P82" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q82" s="21">
+        <v>6</v>
+      </c>
+      <c r="R82" s="21">
+        <v>6</v>
+      </c>
+      <c r="S82" s="21">
+        <v>6</v>
+      </c>
+      <c r="T82" s="21">
+        <v>6</v>
+      </c>
+      <c r="U82" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" s="17">
+        <v>6</v>
+      </c>
+      <c r="C83" s="17">
+        <v>6</v>
+      </c>
+      <c r="D83" s="21">
+        <v>6</v>
+      </c>
+      <c r="E83" s="21">
+        <v>6</v>
+      </c>
+      <c r="F83" s="21">
+        <v>6</v>
+      </c>
+      <c r="G83" s="21">
+        <v>6</v>
+      </c>
+      <c r="H83" s="21">
+        <v>6</v>
+      </c>
+      <c r="I83" s="21">
+        <v>6</v>
+      </c>
+      <c r="J83" s="21">
+        <v>6</v>
+      </c>
+      <c r="K83" s="21">
+        <v>6</v>
+      </c>
+      <c r="L83" s="21">
+        <v>6</v>
+      </c>
+      <c r="M83" s="21">
+        <v>6</v>
+      </c>
+      <c r="N83" s="21">
+        <v>6</v>
+      </c>
+      <c r="O83" s="21">
+        <v>6</v>
+      </c>
+      <c r="P83" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q83" s="21">
+        <v>6</v>
+      </c>
+      <c r="R83" s="21">
+        <v>6</v>
+      </c>
+      <c r="S83" s="21">
+        <v>6</v>
+      </c>
+      <c r="T83" s="21">
+        <v>6</v>
+      </c>
+      <c r="U83" s="17"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="I86" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U48"/>
   <sheetViews>
@@ -5338,7 +12907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH93"/>
   <sheetViews>
@@ -10110,7 +17679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V116"/>
   <sheetViews>
@@ -14802,12 +22371,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH122"/>
   <sheetViews>
-    <sheetView topLeftCell="J97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF101" sqref="AF101"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/12140127李锋-课堂注视焦点采集表格2.1.xlsx
+++ b/12140127李锋-课堂注视焦点采集表格2.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="594" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="594" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="OOTIAS" sheetId="1" r:id="rId1"/>
@@ -1100,7 +1100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1144,6 +1144,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="19">
@@ -1387,7 +1394,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1499,9 +1506,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1597,6 +1601,18 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4606,7 +4622,7 @@
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="65" t="s">
         <v>179</v>
       </c>
       <c r="Y39" s="27" t="s">
@@ -4619,19 +4635,19 @@
       <c r="AB39" s="27"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="65" t="s">
         <v>180</v>
       </c>
       <c r="Y40" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="Z40" s="43"/>
+      <c r="Z40" s="42"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.15">
       <c r="Y41" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="Z41" s="45"/>
+      <c r="Z41" s="44"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.15">
       <c r="H42" t="s">
@@ -4640,7 +4656,7 @@
       <c r="Y42" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="Z42" s="47"/>
+      <c r="Z42" s="46"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.15">
       <c r="H43" t="s">
@@ -4652,31 +4668,31 @@
       <c r="Y43" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="Z43" s="49"/>
+      <c r="Z43" s="48"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.15">
       <c r="Y44" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="Z44" s="44"/>
+      <c r="Z44" s="43"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.15">
       <c r="Y45" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="Z45" s="46"/>
+      <c r="Z45" s="45"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.15">
       <c r="Y46" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="Z46" s="48"/>
+      <c r="Z46" s="47"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.15">
       <c r="Y47" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="Z47" s="50"/>
+      <c r="Z47" s="49"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
@@ -4745,7 +4761,7 @@
       <c r="Y48" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="Z48" s="51"/>
+      <c r="Z48" s="50"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
@@ -7033,9 +7049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X56" sqref="X56"/>
+    <sheetView topLeftCell="Q1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB80" sqref="AB80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9702,7 +9718,7 @@
       <c r="U36" s="17"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="65" t="s">
         <v>179</v>
       </c>
       <c r="Y39" s="27" t="s">
@@ -9715,19 +9731,19 @@
       <c r="AB39" s="27"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="65" t="s">
         <v>180</v>
       </c>
       <c r="Y40" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="Z40" s="43"/>
+      <c r="Z40" s="42"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.15">
       <c r="Y41" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="Z41" s="45"/>
+      <c r="Z41" s="44"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.15">
       <c r="H42" t="s">
@@ -9736,7 +9752,7 @@
       <c r="Y42" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="Z42" s="47"/>
+      <c r="Z42" s="46"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.15">
       <c r="H43" t="s">
@@ -9748,31 +9764,31 @@
       <c r="Y43" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="Z43" s="49"/>
+      <c r="Z43" s="48"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.15">
       <c r="Y44" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="Z44" s="44"/>
+      <c r="Z44" s="43"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.15">
       <c r="Y45" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="Z45" s="46"/>
+      <c r="Z45" s="45"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.15">
       <c r="Y46" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="Z46" s="48"/>
+      <c r="Z46" s="47"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.15">
       <c r="Y47" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="Z47" s="50"/>
+      <c r="Z47" s="49"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
@@ -9841,7 +9857,7 @@
       <c r="Y48" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="Z48" s="51"/>
+      <c r="Z48" s="50"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
@@ -9879,7 +9895,7 @@
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
-      <c r="I50" s="67">
+      <c r="I50" s="66">
         <v>5</v>
       </c>
       <c r="J50" s="19">
@@ -10033,13 +10049,13 @@
       <c r="P52" s="19">
         <v>8</v>
       </c>
-      <c r="Q52" s="69">
-        <v>6</v>
-      </c>
-      <c r="R52" s="69">
-        <v>6</v>
-      </c>
-      <c r="S52" s="69">
+      <c r="Q52" s="68">
+        <v>6</v>
+      </c>
+      <c r="R52" s="68">
+        <v>6</v>
+      </c>
+      <c r="S52" s="68">
         <v>6</v>
       </c>
       <c r="T52" s="21">
@@ -10150,19 +10166,19 @@
       <c r="I54" s="17">
         <v>9</v>
       </c>
-      <c r="J54" s="68">
-        <v>9</v>
-      </c>
-      <c r="K54" s="68">
-        <v>9</v>
-      </c>
-      <c r="L54" s="68">
-        <v>9</v>
-      </c>
-      <c r="M54" s="68">
-        <v>9</v>
-      </c>
-      <c r="N54" s="68">
+      <c r="J54" s="67">
+        <v>9</v>
+      </c>
+      <c r="K54" s="67">
+        <v>9</v>
+      </c>
+      <c r="L54" s="67">
+        <v>9</v>
+      </c>
+      <c r="M54" s="67">
+        <v>9</v>
+      </c>
+      <c r="N54" s="67">
         <v>2</v>
       </c>
       <c r="O54" s="21">
@@ -22375,8 +22391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH122"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="H79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27349,7 +27365,7 @@
       <c r="W86" s="34">
         <v>9</v>
       </c>
-      <c r="X86" s="37" t="s">
+      <c r="X86" s="71" t="s">
         <v>132</v>
       </c>
       <c r="Y86">
@@ -27426,7 +27442,7 @@
       <c r="W91" s="32">
         <v>14</v>
       </c>
-      <c r="X91" s="33" t="s">
+      <c r="X91" s="70" t="s">
         <v>137</v>
       </c>
       <c r="Y91">
@@ -27438,7 +27454,7 @@
       <c r="W92" s="32">
         <v>15</v>
       </c>
-      <c r="X92" s="38" t="s">
+      <c r="X92" s="37" t="s">
         <v>138</v>
       </c>
       <c r="Y92">
@@ -27450,7 +27466,7 @@
       <c r="W93" s="32">
         <v>16</v>
       </c>
-      <c r="X93" s="38" t="s">
+      <c r="X93" s="37" t="s">
         <v>139</v>
       </c>
       <c r="Y93">
@@ -27462,7 +27478,7 @@
       <c r="W94" s="32">
         <v>17</v>
       </c>
-      <c r="X94" s="38" t="s">
+      <c r="X94" s="72" t="s">
         <v>140</v>
       </c>
       <c r="Y94">
@@ -27477,7 +27493,7 @@
       <c r="W95" s="32">
         <v>18</v>
       </c>
-      <c r="X95" s="38" t="s">
+      <c r="X95" s="72" t="s">
         <v>141</v>
       </c>
       <c r="Y95">
@@ -27492,7 +27508,7 @@
       <c r="W96" s="34">
         <v>19</v>
       </c>
-      <c r="X96" s="37" t="s">
+      <c r="X96" s="71" t="s">
         <v>142</v>
       </c>
       <c r="Y96">
@@ -27504,7 +27520,7 @@
       <c r="W97" s="36">
         <v>20</v>
       </c>
-      <c r="X97" s="39" t="s">
+      <c r="X97" s="38" t="s">
         <v>143</v>
       </c>
       <c r="Y97">
@@ -27522,54 +27538,54 @@
       </c>
     </row>
     <row r="101" spans="23:30" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="W101" s="53"/>
-      <c r="X101" s="56" t="s">
+      <c r="W101" s="52"/>
+      <c r="X101" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="Y101" s="65" t="s">
+      <c r="Y101" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="Z101" s="54" t="s">
+      <c r="Z101" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="AA101" s="54" t="s">
+      <c r="AA101" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="AB101" s="54" t="s">
+      <c r="AB101" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="AC101" s="54" t="s">
+      <c r="AC101" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="AD101" s="55" t="s">
+      <c r="AD101" s="54" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="102" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="W102" s="41">
+      <c r="W102" s="40">
         <v>1</v>
       </c>
       <c r="X102" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="Y102" s="57">
+      <c r="Y102" s="56">
         <f>COUNTIF(B42:U76,1)</f>
         <v>0</v>
       </c>
-      <c r="Z102" s="58"/>
-      <c r="AA102" s="59"/>
-      <c r="AB102" s="59"/>
-      <c r="AC102" s="59"/>
-      <c r="AD102" s="60"/>
+      <c r="Z102" s="57"/>
+      <c r="AA102" s="58"/>
+      <c r="AB102" s="58"/>
+      <c r="AC102" s="58"/>
+      <c r="AD102" s="59"/>
     </row>
     <row r="103" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="W103" s="41">
+      <c r="W103" s="40">
         <v>2</v>
       </c>
       <c r="X103" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="Y103" s="61">
+      <c r="Y103" s="60">
         <f>COUNTIF(B42:U76,2)</f>
         <v>0</v>
       </c>
@@ -27577,16 +27593,16 @@
       <c r="AA103" s="27"/>
       <c r="AB103" s="27"/>
       <c r="AC103" s="27"/>
-      <c r="AD103" s="62"/>
+      <c r="AD103" s="61"/>
     </row>
     <row r="104" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="W104" s="41">
+      <c r="W104" s="40">
         <v>3</v>
       </c>
       <c r="X104" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="Y104" s="61">
+      <c r="Y104" s="60">
         <f>COUNTIF(B42:U76,3)</f>
         <v>1</v>
       </c>
@@ -27594,16 +27610,16 @@
       <c r="AA104" s="27"/>
       <c r="AB104" s="27"/>
       <c r="AC104" s="27"/>
-      <c r="AD104" s="62"/>
+      <c r="AD104" s="61"/>
     </row>
     <row r="105" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="W105" s="41">
+      <c r="W105" s="40">
         <v>4</v>
       </c>
       <c r="X105" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="Y105" s="61">
+      <c r="Y105" s="60">
         <f>COUNTIF(B42:U76,4)</f>
         <v>7</v>
       </c>
@@ -27611,16 +27627,16 @@
       <c r="AA105" s="27"/>
       <c r="AB105" s="27"/>
       <c r="AC105" s="27"/>
-      <c r="AD105" s="62"/>
+      <c r="AD105" s="61"/>
     </row>
     <row r="106" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="W106" s="41">
+      <c r="W106" s="40">
         <v>5</v>
       </c>
-      <c r="X106" s="33" t="s">
+      <c r="X106" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="Y106" s="61">
+      <c r="Y106" s="60">
         <f>COUNTIF(B42:U76,5)</f>
         <v>3</v>
       </c>
@@ -27628,16 +27644,16 @@
       <c r="AA106" s="27"/>
       <c r="AB106" s="27"/>
       <c r="AC106" s="27"/>
-      <c r="AD106" s="62"/>
+      <c r="AD106" s="61"/>
     </row>
     <row r="107" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="W107" s="41">
+      <c r="W107" s="40">
         <v>6</v>
       </c>
       <c r="X107" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="Y107" s="61">
+      <c r="Y107" s="60">
         <f>COUNTIF(B42:U76,6)</f>
         <v>16</v>
       </c>
@@ -27645,16 +27661,16 @@
       <c r="AA107" s="27"/>
       <c r="AB107" s="27"/>
       <c r="AC107" s="27"/>
-      <c r="AD107" s="62"/>
+      <c r="AD107" s="61"/>
     </row>
     <row r="108" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="W108" s="41">
+      <c r="W108" s="40">
         <v>7</v>
       </c>
       <c r="X108" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="Y108" s="61">
+      <c r="Y108" s="60">
         <f>COUNTIF(B42:U76,7)</f>
         <v>29</v>
       </c>
@@ -27666,16 +27682,16 @@
       </c>
       <c r="AB108" s="27"/>
       <c r="AC108" s="27"/>
-      <c r="AD108" s="62"/>
+      <c r="AD108" s="61"/>
     </row>
     <row r="109" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="W109" s="41">
+      <c r="W109" s="40">
         <v>8</v>
       </c>
       <c r="X109" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="Y109" s="61">
+      <c r="Y109" s="60">
         <f>COUNTIF(B42:U76,8)</f>
         <v>16</v>
       </c>
@@ -27687,16 +27703,16 @@
       </c>
       <c r="AB109" s="27"/>
       <c r="AC109" s="27"/>
-      <c r="AD109" s="62"/>
+      <c r="AD109" s="61"/>
     </row>
     <row r="110" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="W110" s="41">
-        <v>9</v>
-      </c>
-      <c r="X110" s="33" t="s">
+      <c r="W110" s="40">
+        <v>9</v>
+      </c>
+      <c r="X110" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="Y110" s="61">
+      <c r="Y110" s="60">
         <f>COUNTIF(B42:U76,9)</f>
         <v>546</v>
       </c>
@@ -27708,16 +27724,16 @@
       </c>
       <c r="AB110" s="27"/>
       <c r="AC110" s="27"/>
-      <c r="AD110" s="62"/>
+      <c r="AD110" s="61"/>
     </row>
     <row r="111" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="W111" s="42">
+      <c r="W111" s="41">
         <v>10</v>
       </c>
-      <c r="X111" s="35" t="s">
+      <c r="X111" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="Y111" s="61">
+      <c r="Y111" s="60">
         <f>COUNTIF(B42:U76,10)</f>
         <v>43</v>
       </c>
@@ -27725,16 +27741,16 @@
       <c r="AA111" s="27"/>
       <c r="AB111" s="27"/>
       <c r="AC111" s="27"/>
-      <c r="AD111" s="62"/>
+      <c r="AD111" s="61"/>
     </row>
     <row r="112" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="W112" s="40">
+      <c r="W112" s="39">
         <v>11</v>
       </c>
       <c r="X112" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="Y112" s="61">
+      <c r="Y112" s="60">
         <f>COUNTIF(B42:U76,11)</f>
         <v>19</v>
       </c>
@@ -27744,16 +27760,16 @@
       <c r="AA112" s="27"/>
       <c r="AB112" s="27"/>
       <c r="AC112" s="27"/>
-      <c r="AD112" s="62"/>
+      <c r="AD112" s="61"/>
     </row>
     <row r="113" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="W113" s="41">
+      <c r="W113" s="40">
         <v>12</v>
       </c>
       <c r="X113" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="Y113" s="61">
+      <c r="Y113" s="60">
         <f>COUNTIF(B42:U76,12)</f>
         <v>2</v>
       </c>
@@ -27763,16 +27779,16 @@
       </c>
       <c r="AB113" s="27"/>
       <c r="AC113" s="27"/>
-      <c r="AD113" s="62"/>
+      <c r="AD113" s="61"/>
     </row>
     <row r="114" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="W114" s="41">
+      <c r="W114" s="40">
         <v>13</v>
       </c>
       <c r="X114" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="Y114" s="61">
+      <c r="Y114" s="60">
         <f>COUNTIF(B42:U76,13)</f>
         <v>0</v>
       </c>
@@ -27780,16 +27796,16 @@
       <c r="AA114" s="27"/>
       <c r="AB114" s="27"/>
       <c r="AC114" s="27"/>
-      <c r="AD114" s="62"/>
+      <c r="AD114" s="61"/>
     </row>
     <row r="115" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="W115" s="41">
+      <c r="W115" s="40">
         <v>14</v>
       </c>
       <c r="X115" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="Y115" s="61">
+      <c r="Y115" s="60">
         <f>COUNTIF(B42:U76,14)</f>
         <v>0</v>
       </c>
@@ -27797,24 +27813,24 @@
       <c r="AA115" s="27"/>
       <c r="AB115" s="27"/>
       <c r="AC115" s="27"/>
-      <c r="AD115" s="62"/>
+      <c r="AD115" s="61"/>
     </row>
     <row r="116" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="W116" s="42">
+      <c r="W116" s="41">
         <v>15</v>
       </c>
       <c r="X116" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="Y116" s="63">
+      <c r="Y116" s="62">
         <f>COUNTIF(B42:U76,15)</f>
         <v>0</v>
       </c>
-      <c r="Z116" s="52"/>
-      <c r="AA116" s="52"/>
-      <c r="AB116" s="52"/>
-      <c r="AC116" s="52"/>
-      <c r="AD116" s="64"/>
+      <c r="Z116" s="51"/>
+      <c r="AA116" s="51"/>
+      <c r="AB116" s="51"/>
+      <c r="AC116" s="51"/>
+      <c r="AD116" s="63"/>
     </row>
     <row r="117" spans="23:30" x14ac:dyDescent="0.15">
       <c r="Y117">

--- a/12140127李锋-课堂注视焦点采集表格2.1.xlsx
+++ b/12140127李锋-课堂注视焦点采集表格2.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="594" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="594" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="OOTIAS" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="185">
   <si>
     <t>3s</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1092,6 +1092,10 @@
     <t>旁观者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>编码参考毕业论文的表1和表2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1100,7 +1104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1151,6 +1155,21 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="19">
@@ -1394,7 +1413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1613,6 +1632,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1901,7 +1926,7 @@
       <selection pane="bottomLeft" activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="23" max="23" width="17" customWidth="1"/>
     <col min="24" max="24" width="10.75" customWidth="1"/>
@@ -1910,7 +1935,7 @@
     <col min="27" max="27" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1979,7 +2004,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -2055,7 +2080,7 @@
         <v>0.89985693848354797</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:36">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2132,7 +2157,7 @@
         <v>6.0085836909871244E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -2228,7 +2253,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2307,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -2390,7 +2415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:36">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2469,7 +2494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:36">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2549,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:36">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2628,7 +2653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:36">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2713,7 +2738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:36">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2791,7 +2816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:36">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -2872,7 +2897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:36">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2954,7 +2979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:36">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -3036,7 +3061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:36">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -3120,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:36">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -3207,7 +3232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -3289,7 +3314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -3372,7 +3397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -3456,7 +3481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -3527,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -3596,7 +3621,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -3661,7 +3686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -3726,7 +3751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -3791,7 +3816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -3856,7 +3881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -3924,7 +3949,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:33">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -3995,7 +4020,7 @@
         <v>0.89998999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:33">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -4066,7 +4091,7 @@
         <v>6.0100000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:33">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -4138,7 +4163,7 @@
         <v>1.1444921316165951E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:33">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -4210,7 +4235,7 @@
         <v>1.0014306151645207E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:33">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -4282,7 +4307,7 @@
         <v>4.2918454935622317E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:33">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -4354,7 +4379,7 @@
         <v>3.2904148783977114E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -4426,7 +4451,7 @@
         <v>7.5822603719599424E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -4491,7 +4516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -4556,7 +4581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:28">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -4621,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:28">
       <c r="B39" s="65" t="s">
         <v>179</v>
       </c>
@@ -4634,7 +4659,7 @@
       </c>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:28">
       <c r="B40" s="65" t="s">
         <v>180</v>
       </c>
@@ -4643,13 +4668,13 @@
       </c>
       <c r="Z40" s="42"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:28">
       <c r="Y41" s="27" t="s">
         <v>70</v>
       </c>
       <c r="Z41" s="44"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:28">
       <c r="H42" t="s">
         <v>90</v>
       </c>
@@ -4658,7 +4683,7 @@
       </c>
       <c r="Z42" s="46"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:28">
       <c r="H43" t="s">
         <v>88</v>
       </c>
@@ -4670,31 +4695,31 @@
       </c>
       <c r="Z43" s="48"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:28">
       <c r="Y44" s="27" t="s">
         <v>65</v>
       </c>
       <c r="Z44" s="43"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:28">
       <c r="Y45" s="27" t="s">
         <v>66</v>
       </c>
       <c r="Z45" s="45"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:28">
       <c r="Y46" s="27" t="s">
         <v>67</v>
       </c>
       <c r="Z46" s="47"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:28">
       <c r="Y47" s="27" t="s">
         <v>68</v>
       </c>
       <c r="Z47" s="49"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:28">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -4763,7 +4788,7 @@
       </c>
       <c r="Z48" s="50"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -4828,7 +4853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -4893,7 +4918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -4958,7 +4983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -5023,7 +5048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -5088,7 +5113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -5153,7 +5178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -5218,7 +5243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -5283,7 +5308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -5348,7 +5373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -5413,7 +5438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -5478,7 +5503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21">
       <c r="A60" t="s">
         <v>32</v>
       </c>
@@ -5543,7 +5568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -5608,7 +5633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -5673,7 +5698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21">
       <c r="A63" t="s">
         <v>35</v>
       </c>
@@ -5738,7 +5763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -5803,7 +5828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21">
       <c r="A65" t="s">
         <v>37</v>
       </c>
@@ -5868,7 +5893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -5933,7 +5958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -5998,7 +6023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -6063,7 +6088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -6128,7 +6153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21">
       <c r="A70" t="s">
         <v>42</v>
       </c>
@@ -6193,7 +6218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21">
       <c r="A71" t="s">
         <v>43</v>
       </c>
@@ -6258,7 +6283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21">
       <c r="A72" t="s">
         <v>44</v>
       </c>
@@ -6323,7 +6348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21">
       <c r="A73" t="s">
         <v>45</v>
       </c>
@@ -6388,7 +6413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -6453,7 +6478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21">
       <c r="A75" t="s">
         <v>47</v>
       </c>
@@ -6518,7 +6543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -6583,7 +6608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21">
       <c r="A77" t="s">
         <v>49</v>
       </c>
@@ -6648,7 +6673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21">
       <c r="A78" t="s">
         <v>50</v>
       </c>
@@ -6713,7 +6738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21">
       <c r="A79" t="s">
         <v>51</v>
       </c>
@@ -6778,7 +6803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21">
       <c r="A80" t="s">
         <v>52</v>
       </c>
@@ -6843,7 +6868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21">
       <c r="A81" t="s">
         <v>53</v>
       </c>
@@ -6908,7 +6933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21">
       <c r="A82" t="s">
         <v>54</v>
       </c>
@@ -6973,7 +6998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21">
       <c r="A83" t="s">
         <v>55</v>
       </c>
@@ -7054,7 +7079,7 @@
       <selection pane="bottomLeft" activeCell="AB80" sqref="AB80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="23" max="23" width="17" customWidth="1"/>
     <col min="24" max="24" width="10.75" customWidth="1"/>
@@ -7063,7 +7088,7 @@
     <col min="27" max="27" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -7132,7 +7157,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -7168,7 +7193,7 @@
         <v>0.91356184798807749</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:36">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -7229,7 +7254,7 @@
         <v>6.259314456035768E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -7325,7 +7350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -7404,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -7487,7 +7512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:36">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -7566,7 +7591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:36">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -7646,7 +7671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:36">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -7724,7 +7749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:36">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -7809,7 +7834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:36">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -7887,7 +7912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:36">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -7968,7 +7993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:36">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -8050,7 +8075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:36">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -8132,7 +8157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:36">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -8216,7 +8241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:36">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -8303,7 +8328,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -8385,7 +8410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -8468,7 +8493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -8553,7 +8578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -8625,7 +8650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -8694,7 +8719,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -8759,7 +8784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -8824,7 +8849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -8889,7 +8914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -8954,7 +8979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -9022,7 +9047,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:33">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -9093,7 +9118,7 @@
         <v>0.91356184798807749</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:33">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -9164,7 +9189,7 @@
         <v>6.259314456035768E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:33">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -9236,7 +9261,7 @@
         <v>1.1922503725782414E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:33">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -9308,7 +9333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:33">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -9380,7 +9405,7 @@
         <v>4.1728763040238454E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:33">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -9452,7 +9477,7 @@
         <v>2.533532041728763E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -9524,7 +9549,7 @@
         <v>6.7064083457526083E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -9589,7 +9614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -9654,7 +9679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:28">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -9717,7 +9742,7 @@
       </c>
       <c r="U36" s="17"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:28">
       <c r="B39" s="65" t="s">
         <v>179</v>
       </c>
@@ -9730,7 +9755,7 @@
       </c>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:28">
       <c r="B40" s="65" t="s">
         <v>180</v>
       </c>
@@ -9739,13 +9764,13 @@
       </c>
       <c r="Z40" s="42"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:28">
       <c r="Y41" s="27" t="s">
         <v>70</v>
       </c>
       <c r="Z41" s="44"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:28">
       <c r="H42" t="s">
         <v>87</v>
       </c>
@@ -9754,7 +9779,7 @@
       </c>
       <c r="Z42" s="46"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:28">
       <c r="H43" t="s">
         <v>88</v>
       </c>
@@ -9766,31 +9791,31 @@
       </c>
       <c r="Z43" s="48"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:28">
       <c r="Y44" s="27" t="s">
         <v>65</v>
       </c>
       <c r="Z44" s="43"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:28">
       <c r="Y45" s="27" t="s">
         <v>66</v>
       </c>
       <c r="Z45" s="45"/>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:28">
       <c r="Y46" s="27" t="s">
         <v>67</v>
       </c>
       <c r="Z46" s="47"/>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:28">
       <c r="Y47" s="27" t="s">
         <v>68</v>
       </c>
       <c r="Z47" s="49"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:28">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -9859,7 +9884,7 @@
       </c>
       <c r="Z48" s="50"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:25">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -9884,7 +9909,7 @@
       <c r="T49" s="17"/>
       <c r="U49" s="17"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -9935,7 +9960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -10000,7 +10025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -10068,7 +10093,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:25">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -10138,7 +10163,7 @@
       <c r="X53" s="17"/>
       <c r="Y53" s="17"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -10214,7 +10239,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:25">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -10290,7 +10315,7 @@
         <v>4.6199701937406856E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -10366,7 +10391,7 @@
         <v>8.9418777943368107E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:25">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -10442,7 +10467,7 @@
         <v>4.4709388971684054E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:25">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -10517,7 +10542,7 @@
         <v>3.129657228017884E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:25">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -10592,7 +10617,7 @@
         <v>4.3219076005961254E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:25">
       <c r="A60" t="s">
         <v>32</v>
       </c>
@@ -10668,7 +10693,7 @@
         <v>7.4515648286140088E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:25">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -10733,7 +10758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:25">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -10798,7 +10823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:25">
       <c r="A63" t="s">
         <v>35</v>
       </c>
@@ -10863,7 +10888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:25">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -10928,7 +10953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:25">
       <c r="A65" t="s">
         <v>37</v>
       </c>
@@ -10993,7 +11018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:25">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -11058,7 +11083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:25">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -11132,7 +11157,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:25">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -11207,7 +11232,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:25">
       <c r="A69" t="s">
         <v>41</v>
       </c>
@@ -11282,7 +11307,7 @@
         <v>4.6199701937406856E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:25">
       <c r="A70" t="s">
         <v>42</v>
       </c>
@@ -11358,7 +11383,7 @@
         <v>8.9418777943368107E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:25">
       <c r="A71" t="s">
         <v>43</v>
       </c>
@@ -11434,7 +11459,7 @@
         <v>4.4709388971684054E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:25">
       <c r="A72" t="s">
         <v>44</v>
       </c>
@@ -11510,7 +11535,7 @@
         <v>3.129657228017884E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:25">
       <c r="A73" t="s">
         <v>45</v>
       </c>
@@ -11586,7 +11611,7 @@
         <v>4.3219076005961254E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:25">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -11662,7 +11687,7 @@
         <v>7.4515648286140088E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:25">
       <c r="A75" t="s">
         <v>47</v>
       </c>
@@ -11727,7 +11752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:25">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -11792,7 +11817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:25">
       <c r="A77" t="s">
         <v>49</v>
       </c>
@@ -11857,7 +11882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:25">
       <c r="A78" t="s">
         <v>50</v>
       </c>
@@ -11922,7 +11947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:25">
       <c r="A79" t="s">
         <v>51</v>
       </c>
@@ -11987,7 +12012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:25">
       <c r="A80" t="s">
         <v>52</v>
       </c>
@@ -12052,7 +12077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21">
       <c r="A81" t="s">
         <v>53</v>
       </c>
@@ -12117,7 +12142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21">
       <c r="A82" t="s">
         <v>54</v>
       </c>
@@ -12182,7 +12207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21">
       <c r="A83" t="s">
         <v>55</v>
       </c>
@@ -12245,7 +12270,7 @@
       </c>
       <c r="U83" s="17"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21">
       <c r="I86" t="s">
         <v>181</v>
       </c>
@@ -12267,9 +12292,9 @@
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -12334,7 +12359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -12399,7 +12424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -12464,7 +12489,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -12529,7 +12554,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -12594,7 +12619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -12659,187 +12684,187 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
         <v>71</v>
       </c>
@@ -12850,7 +12875,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
         <v>62</v>
       </c>
@@ -12864,7 +12889,7 @@
       </c>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
         <v>70</v>
       </c>
@@ -12878,7 +12903,7 @@
       </c>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
         <v>63</v>
       </c>
@@ -12892,7 +12917,7 @@
       </c>
       <c r="I46" s="12"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9">
       <c r="B47" t="s">
         <v>64</v>
       </c>
@@ -12906,7 +12931,7 @@
       </c>
       <c r="I47" s="11"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9">
       <c r="E48" t="s">
         <v>69</v>
       </c>
@@ -12933,13 +12958,13 @@
       <selection pane="bottomLeft" activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="23" max="23" width="16" customWidth="1"/>
     <col min="24" max="24" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -13004,7 +13029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -13058,7 +13083,7 @@
       <c r="U2" s="16"/>
       <c r="X2" s="17"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24">
       <c r="B3" s="5">
         <v>9</v>
       </c>
@@ -13101,7 +13126,7 @@
       <c r="U3" s="16"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -13154,7 +13179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -13202,7 +13227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -13267,7 +13292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24">
       <c r="B7" s="5">
         <v>11</v>
       </c>
@@ -13329,7 +13354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -13394,7 +13419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24">
       <c r="B9" s="5">
         <v>8</v>
       </c>
@@ -13456,7 +13481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -13521,7 +13546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24">
       <c r="B11" s="5">
         <v>9</v>
       </c>
@@ -13583,7 +13608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -13648,7 +13673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24">
       <c r="B13" s="5">
         <v>9</v>
       </c>
@@ -13710,7 +13735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -13775,7 +13800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24">
       <c r="B15">
         <v>9</v>
       </c>
@@ -13837,7 +13862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -13902,7 +13927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21">
       <c r="B17">
         <v>9</v>
       </c>
@@ -13964,7 +13989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -14029,7 +14054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21">
       <c r="B19">
         <v>6</v>
       </c>
@@ -14091,7 +14116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -14156,7 +14181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21">
       <c r="B21">
         <v>10</v>
       </c>
@@ -14218,7 +14243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -14283,7 +14308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21">
       <c r="B23">
         <v>9</v>
       </c>
@@ -14345,7 +14370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -14410,7 +14435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21">
       <c r="B25">
         <v>9</v>
       </c>
@@ -14472,7 +14497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -14537,7 +14562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21">
       <c r="B27">
         <v>9</v>
       </c>
@@ -14599,7 +14624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -14664,7 +14689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21">
       <c r="B29">
         <v>9</v>
       </c>
@@ -14726,7 +14751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -14791,7 +14816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21">
       <c r="B31">
         <v>9</v>
       </c>
@@ -14853,7 +14878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -14918,7 +14943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:22">
       <c r="B33">
         <v>5</v>
       </c>
@@ -14980,7 +15005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -15045,7 +15070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:22">
       <c r="B35">
         <v>9</v>
       </c>
@@ -15107,7 +15132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -15172,7 +15197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:22">
       <c r="B37">
         <v>9</v>
       </c>
@@ -15234,7 +15259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -15299,7 +15324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:22">
       <c r="B39">
         <v>9</v>
       </c>
@@ -15361,7 +15386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -15426,7 +15451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:22">
       <c r="B41">
         <v>9</v>
       </c>
@@ -15488,7 +15513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -15553,7 +15578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:22">
       <c r="B43">
         <v>9</v>
       </c>
@@ -15615,7 +15640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -15680,7 +15705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:22">
       <c r="B45">
         <v>9</v>
       </c>
@@ -15742,7 +15767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -15808,7 +15833,7 @@
       </c>
       <c r="V46" s="5"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:22">
       <c r="B47">
         <v>9</v>
       </c>
@@ -15870,7 +15895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -15935,7 +15960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:24">
       <c r="B49">
         <v>9</v>
       </c>
@@ -15997,7 +16022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -16062,7 +16087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:24">
       <c r="B51">
         <v>9</v>
       </c>
@@ -16124,7 +16149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -16189,7 +16214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:24">
       <c r="B53">
         <v>9</v>
       </c>
@@ -16251,7 +16276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -16316,7 +16341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:24">
       <c r="B55">
         <v>10</v>
       </c>
@@ -16378,7 +16403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -16443,7 +16468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:24">
       <c r="B57">
         <v>10</v>
       </c>
@@ -16505,7 +16530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -16570,7 +16595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:24">
       <c r="B59">
         <v>9</v>
       </c>
@@ -16632,7 +16657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -16697,7 +16722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:24">
       <c r="B61">
         <v>9</v>
       </c>
@@ -16759,7 +16784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
         <v>51</v>
       </c>
@@ -16827,7 +16852,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:24">
       <c r="B63">
         <v>9</v>
       </c>
@@ -16892,7 +16917,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -16960,7 +16985,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:34">
       <c r="B65">
         <v>9</v>
       </c>
@@ -17025,7 +17050,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:34">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -17093,7 +17118,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:34">
       <c r="B67">
         <v>9</v>
       </c>
@@ -17158,7 +17183,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:34">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -17226,7 +17251,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:34">
       <c r="B69">
         <v>9</v>
       </c>
@@ -17288,7 +17313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:34">
       <c r="A70" t="s">
         <v>80</v>
       </c>
@@ -17350,7 +17375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:34">
       <c r="B71">
         <v>9</v>
       </c>
@@ -17409,7 +17434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:34" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:34" ht="49.5">
       <c r="B73" t="s">
         <v>71</v>
       </c>
@@ -17454,7 +17479,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:34" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:34" ht="16.5">
       <c r="B74" t="s">
         <v>62</v>
       </c>
@@ -17480,7 +17505,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:34" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:34" ht="16.5">
       <c r="B75" t="s">
         <v>70</v>
       </c>
@@ -17500,7 +17525,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:34" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:34" ht="16.5">
       <c r="B76" t="s">
         <v>63</v>
       </c>
@@ -17520,7 +17545,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="1:34" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:34" ht="16.5">
       <c r="B77" t="s">
         <v>64</v>
       </c>
@@ -17540,7 +17565,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="78" spans="1:34" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:34" ht="16.5">
       <c r="E78" t="s">
         <v>69</v>
       </c>
@@ -17556,7 +17581,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:34" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:34" ht="16.5">
       <c r="W79" s="26">
         <v>6</v>
       </c>
@@ -17564,7 +17589,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:34" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:34" ht="16.5">
       <c r="W80" s="26">
         <v>7</v>
       </c>
@@ -17572,7 +17597,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="5:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="5:24" ht="16.5">
       <c r="W81" s="26">
         <v>8</v>
       </c>
@@ -17580,7 +17605,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="5:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="5:24" ht="16.5">
       <c r="W82" s="26">
         <v>9</v>
       </c>
@@ -17588,7 +17613,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="83" spans="5:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="5:24" ht="16.5">
       <c r="W83" s="26">
         <v>10</v>
       </c>
@@ -17596,7 +17621,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="5:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="5:24" ht="16.5">
       <c r="E84" t="s">
         <v>87</v>
       </c>
@@ -17607,7 +17632,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="5:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="5:24" ht="16.5">
       <c r="E85" t="s">
         <v>86</v>
       </c>
@@ -17618,7 +17643,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="5:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="5:24" ht="16.5">
       <c r="E86" t="s">
         <v>175</v>
       </c>
@@ -17629,7 +17654,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="5:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="5:24" ht="16.5">
       <c r="W87" s="26">
         <v>14</v>
       </c>
@@ -17637,7 +17662,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="88" spans="5:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="5:24" ht="16.5">
       <c r="E88" t="s">
         <v>176</v>
       </c>
@@ -17648,7 +17673,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="5:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="5:24" ht="16.5">
       <c r="W89" s="26">
         <v>16</v>
       </c>
@@ -17656,7 +17681,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="90" spans="5:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="5:24" ht="16.5">
       <c r="W90" s="26">
         <v>17</v>
       </c>
@@ -17664,7 +17689,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="91" spans="5:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="5:24" ht="16.5">
       <c r="W91" s="26">
         <v>18</v>
       </c>
@@ -17672,7 +17697,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="92" spans="5:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="5:24" ht="16.5">
       <c r="W92" s="26">
         <v>19</v>
       </c>
@@ -17680,7 +17705,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="5:24" ht="33" x14ac:dyDescent="0.15">
+    <row r="93" spans="5:24" ht="33">
       <c r="W93" s="26">
         <v>20</v>
       </c>
@@ -17699,16 +17724,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22">
       <c r="B1" t="s">
         <v>21</v>
       </c>
@@ -17773,7 +17798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -17829,7 +17854,7 @@
       </c>
       <c r="V2" s="16"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -17874,8 +17899,8 @@
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:22">
+      <c r="A4" s="74" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="5"/>
@@ -17900,7 +17925,10 @@
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22">
+      <c r="A5" s="73" t="s">
+        <v>184</v>
+      </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -17953,7 +17981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22">
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -18001,7 +18029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -18024,7 +18052,7 @@
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -18089,7 +18117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22">
       <c r="C9" s="5">
         <v>11</v>
       </c>
@@ -18151,7 +18179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22">
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -18173,7 +18201,7 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -18238,7 +18266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22">
       <c r="C12" s="5">
         <v>8</v>
       </c>
@@ -18300,7 +18328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22">
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -18322,7 +18350,7 @@
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -18387,7 +18415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22">
       <c r="C15" s="5">
         <v>9</v>
       </c>
@@ -18449,7 +18477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -18471,7 +18499,7 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:22">
       <c r="B17" t="s">
         <v>26</v>
       </c>
@@ -18536,7 +18564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:22">
       <c r="C18" s="5">
         <v>9</v>
       </c>
@@ -18598,7 +18626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:22">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -18620,7 +18648,7 @@
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:22">
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -18685,7 +18713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:22">
       <c r="C21">
         <v>9</v>
       </c>
@@ -18747,7 +18775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:22">
       <c r="B23" t="s">
         <v>28</v>
       </c>
@@ -18812,7 +18840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:22">
       <c r="C24">
         <v>9</v>
       </c>
@@ -18874,7 +18902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:22">
       <c r="B26" t="s">
         <v>29</v>
       </c>
@@ -18939,7 +18967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:22">
       <c r="C27">
         <v>6</v>
       </c>
@@ -19001,7 +19029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:22">
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -19066,7 +19094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:22">
       <c r="C30">
         <v>10</v>
       </c>
@@ -19128,7 +19156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:22">
       <c r="B32" t="s">
         <v>31</v>
       </c>
@@ -19193,7 +19221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:22">
       <c r="C33">
         <v>9</v>
       </c>
@@ -19255,7 +19283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:22">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -19320,7 +19348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:22">
       <c r="C36">
         <v>9</v>
       </c>
@@ -19382,7 +19410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:22">
       <c r="B38" t="s">
         <v>33</v>
       </c>
@@ -19447,7 +19475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:22">
       <c r="C39">
         <v>9</v>
       </c>
@@ -19509,7 +19537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:22">
       <c r="B41" t="s">
         <v>34</v>
       </c>
@@ -19574,7 +19602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:22">
       <c r="C42">
         <v>9</v>
       </c>
@@ -19636,7 +19664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:22">
       <c r="B44" t="s">
         <v>35</v>
       </c>
@@ -19701,7 +19729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:22">
       <c r="C45">
         <v>9</v>
       </c>
@@ -19763,7 +19791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:22">
       <c r="B47" t="s">
         <v>36</v>
       </c>
@@ -19828,7 +19856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:22">
       <c r="C48">
         <v>5</v>
       </c>
@@ -19890,14 +19918,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:22">
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:22">
       <c r="B50" t="s">
         <v>37</v>
       </c>
@@ -19962,7 +19990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:22">
       <c r="C51">
         <v>9</v>
       </c>
@@ -20024,7 +20052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:22">
       <c r="B53" t="s">
         <v>38</v>
       </c>
@@ -20089,7 +20117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:22">
       <c r="C54">
         <v>9</v>
       </c>
@@ -20151,7 +20179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:22">
       <c r="B56" t="s">
         <v>39</v>
       </c>
@@ -20216,7 +20244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:22">
       <c r="C57">
         <v>9</v>
       </c>
@@ -20278,7 +20306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:22">
       <c r="B59" t="s">
         <v>40</v>
       </c>
@@ -20343,7 +20371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:22">
       <c r="C60">
         <v>9</v>
       </c>
@@ -20405,7 +20433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:22">
       <c r="B62" t="s">
         <v>41</v>
       </c>
@@ -20470,7 +20498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:22">
       <c r="C63">
         <v>9</v>
       </c>
@@ -20532,7 +20560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:22">
       <c r="B65" t="s">
         <v>42</v>
       </c>
@@ -20597,7 +20625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:22">
       <c r="C66">
         <v>9</v>
       </c>
@@ -20659,7 +20687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:22">
       <c r="B68" t="s">
         <v>43</v>
       </c>
@@ -20724,7 +20752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:22">
       <c r="C69">
         <v>9</v>
       </c>
@@ -20786,7 +20814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:22">
       <c r="B71" t="s">
         <v>44</v>
       </c>
@@ -20851,7 +20879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:22">
       <c r="C72">
         <v>9</v>
       </c>
@@ -20913,7 +20941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:22">
       <c r="B74" t="s">
         <v>45</v>
       </c>
@@ -20978,7 +21006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:22">
       <c r="C75">
         <v>9</v>
       </c>
@@ -21040,7 +21068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:22">
       <c r="B77" t="s">
         <v>46</v>
       </c>
@@ -21105,7 +21133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:22">
       <c r="C78">
         <v>9</v>
       </c>
@@ -21167,7 +21195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:22">
       <c r="B80" t="s">
         <v>47</v>
       </c>
@@ -21232,7 +21260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:22">
       <c r="C81">
         <v>10</v>
       </c>
@@ -21294,7 +21322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:22">
       <c r="B83" t="s">
         <v>81</v>
       </c>
@@ -21359,7 +21387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:22">
       <c r="C84">
         <v>10</v>
       </c>
@@ -21421,7 +21449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:22">
       <c r="B86" t="s">
         <v>82</v>
       </c>
@@ -21486,7 +21514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:22">
       <c r="C87">
         <v>9</v>
       </c>
@@ -21548,7 +21576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:22">
       <c r="B89" t="s">
         <v>83</v>
       </c>
@@ -21613,7 +21641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:22">
       <c r="C90">
         <v>9</v>
       </c>
@@ -21675,7 +21703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:22">
       <c r="B92" t="s">
         <v>51</v>
       </c>
@@ -21740,7 +21768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:22">
       <c r="C93">
         <v>9</v>
       </c>
@@ -21802,7 +21830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:22">
       <c r="B95" t="s">
         <v>77</v>
       </c>
@@ -21867,7 +21895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:22">
       <c r="C96">
         <v>9</v>
       </c>
@@ -21929,7 +21957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:22">
       <c r="B98" t="s">
         <v>78</v>
       </c>
@@ -21994,7 +22022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:22">
       <c r="C99">
         <v>9</v>
       </c>
@@ -22056,7 +22084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:22">
       <c r="B101" t="s">
         <v>79</v>
       </c>
@@ -22121,7 +22149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:22">
       <c r="C102">
         <v>9</v>
       </c>
@@ -22183,7 +22211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:22">
       <c r="B104" t="s">
         <v>80</v>
       </c>
@@ -22245,7 +22273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:22">
       <c r="C105">
         <v>9</v>
       </c>
@@ -22304,7 +22332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:22">
       <c r="B111" t="s">
         <v>71</v>
       </c>
@@ -22315,7 +22343,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="112" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:22">
       <c r="B112" t="s">
         <v>62</v>
       </c>
@@ -22329,7 +22357,7 @@
       </c>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:9">
       <c r="B113" t="s">
         <v>70</v>
       </c>
@@ -22343,7 +22371,7 @@
       </c>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:9">
       <c r="B114" t="s">
         <v>63</v>
       </c>
@@ -22357,7 +22385,7 @@
       </c>
       <c r="I114" s="12"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:9">
       <c r="B115" t="s">
         <v>64</v>
       </c>
@@ -22371,7 +22399,7 @@
       </c>
       <c r="I115" s="11"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:9">
       <c r="E116" t="s">
         <v>69</v>
       </c>
@@ -22384,6 +22412,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22391,23 +22420,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M90" sqref="M90"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="23" max="23" width="6.375" customWidth="1"/>
     <col min="24" max="24" width="18.875" customWidth="1"/>
     <col min="25" max="25" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25">
       <c r="B1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -22476,7 +22505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -22530,7 +22559,7 @@
       <c r="U3" s="16"/>
       <c r="X3" s="17"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -22583,7 +22612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -22651,7 +22680,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -22720,7 +22749,7 @@
       </c>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -22789,7 +22818,7 @@
       </c>
       <c r="X7" s="8"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -22858,7 +22887,7 @@
       </c>
       <c r="X8" s="4"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -22927,7 +22956,7 @@
       </c>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -22992,7 +23021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -23057,7 +23086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -23125,7 +23154,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -23194,7 +23223,7 @@
       </c>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -23263,7 +23292,7 @@
       </c>
       <c r="X14" s="9"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -23332,7 +23361,7 @@
       </c>
       <c r="X15" s="14"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -23401,7 +23430,7 @@
       </c>
       <c r="X16" s="10"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -23470,7 +23499,7 @@
       </c>
       <c r="X17" s="15"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -23535,7 +23564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -23600,7 +23629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -23665,7 +23694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -23730,7 +23759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -23795,7 +23824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -23860,7 +23889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -23925,7 +23954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -23991,7 +24020,7 @@
       </c>
       <c r="V25" s="5"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -24056,7 +24085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -24121,7 +24150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -24186,7 +24215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -24251,7 +24280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -24319,7 +24348,7 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
         <v>82</v>
       </c>
@@ -24387,7 +24416,7 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -24458,7 +24487,7 @@
       </c>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -24526,7 +24555,7 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -24594,7 +24623,7 @@
       <c r="X34" s="21"/>
       <c r="Y34" s="5"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -24662,7 +24691,7 @@
       <c r="X35" s="21"/>
       <c r="Y35" s="5"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -24730,7 +24759,7 @@
       <c r="X36" s="21"/>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -24795,17 +24824,17 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:25">
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:25">
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:25">
       <c r="B40" t="s">
         <v>165</v>
       </c>
@@ -24813,7 +24842,7 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -24881,7 +24910,7 @@
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -24929,7 +24958,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -24984,7 +25013,7 @@
       </c>
       <c r="X43" s="6"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
         <v>158</v>
       </c>
@@ -25053,7 +25082,7 @@
       </c>
       <c r="X44" s="2"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:25">
       <c r="A45" t="s">
         <v>159</v>
       </c>
@@ -25122,7 +25151,7 @@
       </c>
       <c r="X45" s="12"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:25">
       <c r="A46" t="s">
         <v>160</v>
       </c>
@@ -25191,7 +25220,7 @@
       </c>
       <c r="X46" s="11"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:25">
       <c r="A47" t="s">
         <v>161</v>
       </c>
@@ -25260,7 +25289,7 @@
       </c>
       <c r="X47" s="13"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:25">
       <c r="A48" t="s">
         <v>162</v>
       </c>
@@ -25325,7 +25354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
         <v>163</v>
       </c>
@@ -25390,7 +25419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
         <v>164</v>
       </c>
@@ -25455,7 +25484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -25520,7 +25549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -25585,7 +25614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -25650,7 +25679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -25715,7 +25744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -25780,7 +25809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
         <v>35</v>
       </c>
@@ -25845,7 +25874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -25910,7 +25939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -25975,7 +26004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -26040,7 +26069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -26109,7 +26138,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -26174,7 +26203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
         <v>41</v>
       </c>
@@ -26239,7 +26268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -26304,7 +26333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -26369,7 +26398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:34">
       <c r="A65" t="s">
         <v>44</v>
       </c>
@@ -26434,7 +26463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:34">
       <c r="A66" t="s">
         <v>45</v>
       </c>
@@ -26499,7 +26528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:34">
       <c r="A67" t="s">
         <v>46</v>
       </c>
@@ -26564,7 +26593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:34">
       <c r="A68" t="s">
         <v>47</v>
       </c>
@@ -26632,7 +26661,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:34">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -26704,7 +26733,7 @@
         <v>0.89082969432314407</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:34">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -26776,7 +26805,7 @@
         <v>6.6957787481804948E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:34">
       <c r="A71" t="s">
         <v>50</v>
       </c>
@@ -26848,7 +26877,7 @@
         <v>5.6768558951965066E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:34">
       <c r="A72" t="s">
         <v>51</v>
       </c>
@@ -26920,7 +26949,7 @@
         <v>2.4745269286754003E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:34">
       <c r="A73" t="s">
         <v>52</v>
       </c>
@@ -26992,7 +27021,7 @@
         <v>1.7467248908296942E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:34">
       <c r="A74" t="s">
         <v>53</v>
       </c>
@@ -27064,7 +27093,7 @@
         <v>9.2375366568914957E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:34">
       <c r="A75" t="s">
         <v>54</v>
       </c>
@@ -27136,7 +27165,7 @@
         <v>0.1098426154772119</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:34">
       <c r="A76" t="s">
         <v>55</v>
       </c>
@@ -27198,7 +27227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:34" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:34" ht="49.5">
       <c r="X77" s="27"/>
       <c r="Z77" s="28" t="s">
         <v>149</v>
@@ -27228,7 +27257,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:34" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:34" ht="16.5">
       <c r="W78" s="30">
         <v>1</v>
       </c>
@@ -27243,7 +27272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:34" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:34" ht="16.5">
       <c r="W79" s="32">
         <v>2</v>
       </c>
@@ -27258,7 +27287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:34" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:34" ht="16.5">
       <c r="W80" s="32">
         <v>3</v>
       </c>
@@ -27276,7 +27305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="18:31" ht="16.5">
       <c r="W81" s="32">
         <v>4</v>
       </c>
@@ -27294,7 +27323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="18:31" ht="16.5">
       <c r="W82" s="32">
         <v>5</v>
       </c>
@@ -27306,7 +27335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="18:31" ht="16.5">
       <c r="W83" s="32">
         <v>6</v>
       </c>
@@ -27330,7 +27359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="18:31" ht="16.5">
       <c r="W84" s="32">
         <v>7</v>
       </c>
@@ -27348,7 +27377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="18:31" ht="16.5">
       <c r="W85" s="32">
         <v>8</v>
       </c>
@@ -27360,7 +27389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="18:31" ht="16.5">
       <c r="R86" s="5"/>
       <c r="W86" s="34">
         <v>9</v>
@@ -27379,7 +27408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="18:31" ht="16.5">
       <c r="R87" s="5"/>
       <c r="S87" s="5"/>
       <c r="W87" s="30">
@@ -27396,7 +27425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="18:31" ht="16.5">
       <c r="W88" s="32">
         <v>11</v>
       </c>
@@ -27411,7 +27440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="18:31" ht="16.5">
       <c r="W89" s="32">
         <v>12</v>
       </c>
@@ -27423,7 +27452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="18:31" ht="16.5">
       <c r="W90" s="32">
         <v>13</v>
       </c>
@@ -27438,7 +27467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="18:31" ht="16.5">
       <c r="W91" s="32">
         <v>14</v>
       </c>
@@ -27450,7 +27479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="18:31" ht="16.5">
       <c r="W92" s="32">
         <v>15</v>
       </c>
@@ -27462,7 +27491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="18:31" ht="16.5">
       <c r="W93" s="32">
         <v>16</v>
       </c>
@@ -27474,7 +27503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="18:31" ht="16.5">
       <c r="W94" s="32">
         <v>17</v>
       </c>
@@ -27489,7 +27518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="18:31" ht="16.5">
       <c r="W95" s="32">
         <v>18</v>
       </c>
@@ -27504,7 +27533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="18:31" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="18:31" ht="16.5">
       <c r="W96" s="34">
         <v>19</v>
       </c>
@@ -27516,7 +27545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="23:30" ht="33" x14ac:dyDescent="0.15">
+    <row r="97" spans="23:30" ht="33">
       <c r="W97" s="36">
         <v>20</v>
       </c>
@@ -27531,13 +27560,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="23:30" x14ac:dyDescent="0.15">
+    <row r="98" spans="23:30">
       <c r="Y98">
         <f>SUM(Y78:Y97)</f>
         <v>686</v>
       </c>
     </row>
-    <row r="101" spans="23:30" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="23:30" ht="49.5">
       <c r="W101" s="52"/>
       <c r="X101" s="55" t="s">
         <v>177</v>
@@ -27561,7 +27590,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="102" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="23:30" ht="16.5">
       <c r="W102" s="40">
         <v>1</v>
       </c>
@@ -27578,7 +27607,7 @@
       <c r="AC102" s="58"/>
       <c r="AD102" s="59"/>
     </row>
-    <row r="103" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="23:30" ht="16.5">
       <c r="W103" s="40">
         <v>2</v>
       </c>
@@ -27595,7 +27624,7 @@
       <c r="AC103" s="27"/>
       <c r="AD103" s="61"/>
     </row>
-    <row r="104" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="23:30" ht="16.5">
       <c r="W104" s="40">
         <v>3</v>
       </c>
@@ -27612,7 +27641,7 @@
       <c r="AC104" s="27"/>
       <c r="AD104" s="61"/>
     </row>
-    <row r="105" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="23:30" ht="16.5">
       <c r="W105" s="40">
         <v>4</v>
       </c>
@@ -27629,7 +27658,7 @@
       <c r="AC105" s="27"/>
       <c r="AD105" s="61"/>
     </row>
-    <row r="106" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="23:30" ht="16.5">
       <c r="W106" s="40">
         <v>5</v>
       </c>
@@ -27646,7 +27675,7 @@
       <c r="AC106" s="27"/>
       <c r="AD106" s="61"/>
     </row>
-    <row r="107" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="23:30" ht="16.5">
       <c r="W107" s="40">
         <v>6</v>
       </c>
@@ -27663,7 +27692,7 @@
       <c r="AC107" s="27"/>
       <c r="AD107" s="61"/>
     </row>
-    <row r="108" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="23:30" ht="16.5">
       <c r="W108" s="40">
         <v>7</v>
       </c>
@@ -27684,7 +27713,7 @@
       <c r="AC108" s="27"/>
       <c r="AD108" s="61"/>
     </row>
-    <row r="109" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="23:30" ht="16.5">
       <c r="W109" s="40">
         <v>8</v>
       </c>
@@ -27705,7 +27734,7 @@
       <c r="AC109" s="27"/>
       <c r="AD109" s="61"/>
     </row>
-    <row r="110" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="23:30" ht="16.5">
       <c r="W110" s="40">
         <v>9</v>
       </c>
@@ -27726,7 +27755,7 @@
       <c r="AC110" s="27"/>
       <c r="AD110" s="61"/>
     </row>
-    <row r="111" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="23:30" ht="16.5">
       <c r="W111" s="41">
         <v>10</v>
       </c>
@@ -27743,7 +27772,7 @@
       <c r="AC111" s="27"/>
       <c r="AD111" s="61"/>
     </row>
-    <row r="112" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="23:30" ht="16.5">
       <c r="W112" s="39">
         <v>11</v>
       </c>
@@ -27762,7 +27791,7 @@
       <c r="AC112" s="27"/>
       <c r="AD112" s="61"/>
     </row>
-    <row r="113" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="23:30" ht="16.5">
       <c r="W113" s="40">
         <v>12</v>
       </c>
@@ -27781,7 +27810,7 @@
       <c r="AC113" s="27"/>
       <c r="AD113" s="61"/>
     </row>
-    <row r="114" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="23:30" ht="16.5">
       <c r="W114" s="40">
         <v>13</v>
       </c>
@@ -27798,7 +27827,7 @@
       <c r="AC114" s="27"/>
       <c r="AD114" s="61"/>
     </row>
-    <row r="115" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="23:30" ht="16.5">
       <c r="W115" s="40">
         <v>14</v>
       </c>
@@ -27815,7 +27844,7 @@
       <c r="AC115" s="27"/>
       <c r="AD115" s="61"/>
     </row>
-    <row r="116" spans="23:30" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="23:30" ht="16.5">
       <c r="W116" s="41">
         <v>15</v>
       </c>
@@ -27832,13 +27861,13 @@
       <c r="AC116" s="51"/>
       <c r="AD116" s="63"/>
     </row>
-    <row r="117" spans="23:30" x14ac:dyDescent="0.15">
+    <row r="117" spans="23:30">
       <c r="Y117">
         <f>SUM(Y102:Y116)</f>
         <v>682</v>
       </c>
     </row>
-    <row r="122" spans="23:30" x14ac:dyDescent="0.15">
+    <row r="122" spans="23:30">
       <c r="Z122">
         <f>58+27+19+17</f>
         <v>121</v>
